--- a/examples/Power_VRESProfiles.xlsx
+++ b/examples/Power_VRESProfiles.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\Frauental\data\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4750768C-9767-4C41-9E0B-026A6F941658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3767A690-3E57-4CC0-9894-396C949BA40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" tabRatio="665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="scenario" sheetId="108" r:id="rId1"/>
+    <sheet name="ScenarioA" sheetId="108" r:id="rId1"/>
+    <sheet name="ScenarioB" sheetId="109" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="businfo">#REF!</definedName>
@@ -34,7 +35,8 @@
     <definedName name="network">#REF!</definedName>
     <definedName name="param">#REF!</definedName>
     <definedName name="renewable">#REF!</definedName>
-    <definedName name="resprofile">scenario!$C$3:$AD$29</definedName>
+    <definedName name="resprofile" localSheetId="1">ScenarioB!$C$3:$AD$36</definedName>
+    <definedName name="resprofile">ScenarioA!$C$3:$AD$36</definedName>
     <definedName name="runofriver">#REF!</definedName>
     <definedName name="sCodeName">#REF!</definedName>
     <definedName name="storage">#REF!</definedName>
@@ -141,8 +143,88 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Felix Auer</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{55F83AB3-2B81-4CCA-8C3B-5023B8439BA5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Readable Name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{6FF74646-CCF9-4B9F-9877-D091A917D055}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Value specifier in DB</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{06C70B1A-FDB8-44A6-99B2-8B8205FAE6D2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Description</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{D90760BD-30D9-4FBE-9A28-3AE23488A339}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Details on database behavior</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="0" shapeId="0" xr:uid="{641996B5-8B1D-423F-8FE9-4F19DC27D235}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Unit or valid values</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="63">
   <si>
     <t>k0001</t>
   </si>
@@ -321,13 +403,16 @@
     <t>[g]</t>
   </si>
   <si>
-    <t>PV Schafflerhofstraße</t>
+    <t>Wind</t>
   </si>
   <si>
-    <t>PV OMV-Schoenkirchen</t>
+    <t>Solar</t>
   </si>
   <si>
-    <t>PV Trumau</t>
+    <t>Wind2</t>
+  </si>
+  <si>
+    <t>Solar2</t>
   </si>
 </sst>
 </file>
@@ -894,7 +979,7 @@
   <sheetPr codeName="Tabelle5">
     <tabColor rgb="FF008080"/>
   </sheetPr>
-  <dimension ref="B1:AD56"/>
+  <dimension ref="B1:AD63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
@@ -1943,7 +2028,7 @@
         <v>24</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>49</v>
@@ -1952,76 +2037,76 @@
         <v>50</v>
       </c>
       <c r="G15" s="16">
-        <v>0</v>
+        <v>0.30109999999999998</v>
       </c>
       <c r="H15" s="16">
-        <v>0</v>
+        <v>0.3024</v>
       </c>
       <c r="I15" s="16">
-        <v>0</v>
+        <v>0.3009</v>
       </c>
       <c r="J15" s="16">
-        <v>0</v>
+        <v>0.28860000000000002</v>
       </c>
       <c r="K15" s="16">
-        <v>0</v>
+        <v>0.27179999999999999</v>
       </c>
       <c r="L15" s="16">
-        <v>0</v>
+        <v>0.25519999999999998</v>
       </c>
       <c r="M15" s="16">
-        <v>0</v>
+        <v>0.24229999999999999</v>
       </c>
       <c r="N15" s="16">
-        <v>5.1999999999999998E-3</v>
+        <v>0.23219999999999999</v>
       </c>
       <c r="O15" s="16">
-        <v>0.1346</v>
+        <v>0.2203</v>
       </c>
       <c r="P15" s="16">
-        <v>0.3155</v>
+        <v>0.2059</v>
       </c>
       <c r="Q15" s="16">
-        <v>0.47460000000000002</v>
+        <v>0.19689999999999999</v>
       </c>
       <c r="R15" s="16">
-        <v>0.57179999999999997</v>
+        <v>0.19750000000000001</v>
       </c>
       <c r="S15" s="16">
-        <v>0.59519999999999995</v>
+        <v>0.19769999999999999</v>
       </c>
       <c r="T15" s="16">
-        <v>0.54730000000000001</v>
+        <v>0.1948</v>
       </c>
       <c r="U15" s="16">
-        <v>0.43280000000000002</v>
+        <v>0.18720000000000001</v>
       </c>
       <c r="V15" s="16">
-        <v>0.25779999999999997</v>
+        <v>0.17560000000000001</v>
       </c>
       <c r="W15" s="16">
-        <v>5.5100000000000003E-2</v>
+        <v>0.1789</v>
       </c>
       <c r="X15" s="16">
-        <v>0</v>
+        <v>0.1923</v>
       </c>
       <c r="Y15" s="16">
-        <v>0</v>
+        <v>0.20449999999999999</v>
       </c>
       <c r="Z15" s="16">
-        <v>0</v>
+        <v>0.21179999999999999</v>
       </c>
       <c r="AA15" s="16">
-        <v>0</v>
+        <v>0.2165</v>
       </c>
       <c r="AB15" s="16">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="AC15" s="16">
-        <v>0</v>
+        <v>0.23069999999999999</v>
       </c>
       <c r="AD15" s="16">
-        <v>0</v>
+        <v>0.2427</v>
       </c>
     </row>
     <row r="16" spans="2:30" x14ac:dyDescent="0.25">
@@ -2030,7 +2115,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" s="17" t="s">
         <v>49</v>
@@ -2039,76 +2124,76 @@
         <v>50</v>
       </c>
       <c r="G16" s="16">
-        <v>0</v>
+        <v>0.11269999999999999</v>
       </c>
       <c r="H16" s="16">
-        <v>0</v>
+        <v>0.11119999999999999</v>
       </c>
       <c r="I16" s="16">
-        <v>0</v>
+        <v>0.1108</v>
       </c>
       <c r="J16" s="16">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="K16" s="16">
-        <v>0</v>
+        <v>0.1024</v>
       </c>
       <c r="L16" s="16">
-        <v>1.5900000000000001E-2</v>
+        <v>0.1011</v>
       </c>
       <c r="M16" s="16">
-        <v>0.1164</v>
+        <v>9.8199999999999996E-2</v>
       </c>
       <c r="N16" s="16">
-        <v>0.2989</v>
+        <v>9.4500000000000001E-2</v>
       </c>
       <c r="O16" s="16">
-        <v>0.49909999999999999</v>
+        <v>9.2700000000000005E-2</v>
       </c>
       <c r="P16" s="16">
-        <v>0.66339999999999999</v>
+        <v>9.01E-2</v>
       </c>
       <c r="Q16" s="16">
-        <v>0.77500000000000002</v>
+        <v>8.9200000000000002E-2</v>
       </c>
       <c r="R16" s="16">
-        <v>0.83050000000000002</v>
+        <v>9.3399999999999997E-2</v>
       </c>
       <c r="S16" s="16">
-        <v>0.83179999999999998</v>
+        <v>0.1037</v>
       </c>
       <c r="T16" s="16">
-        <v>0.78049999999999997</v>
+        <v>0.11849999999999999</v>
       </c>
       <c r="U16" s="16">
-        <v>0.67889999999999995</v>
+        <v>0.1356</v>
       </c>
       <c r="V16" s="16">
-        <v>0.53159999999999996</v>
+        <v>0.14949999999999999</v>
       </c>
       <c r="W16" s="16">
-        <v>0.35249999999999998</v>
+        <v>0.1595</v>
       </c>
       <c r="X16" s="16">
-        <v>0.16969999999999999</v>
+        <v>0.16350000000000001</v>
       </c>
       <c r="Y16" s="16">
-        <v>4.4699999999999997E-2</v>
+        <v>0.16039999999999999</v>
       </c>
       <c r="Z16" s="16">
-        <v>1.6000000000000001E-3</v>
+        <v>0.15090000000000001</v>
       </c>
       <c r="AA16" s="16">
-        <v>0</v>
+        <v>0.13850000000000001</v>
       </c>
       <c r="AB16" s="16">
-        <v>0</v>
+        <v>0.12759999999999999</v>
       </c>
       <c r="AC16" s="16">
-        <v>0</v>
+        <v>0.12239999999999999</v>
       </c>
       <c r="AD16" s="16">
-        <v>0</v>
+        <v>0.12130000000000001</v>
       </c>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.25">
@@ -2117,7 +2202,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>49</v>
@@ -2126,76 +2211,76 @@
         <v>50</v>
       </c>
       <c r="G17" s="16">
-        <v>0</v>
+        <v>0.1482</v>
       </c>
       <c r="H17" s="16">
-        <v>0</v>
+        <v>0.1525</v>
       </c>
       <c r="I17" s="16">
-        <v>0</v>
+        <v>0.1552</v>
       </c>
       <c r="J17" s="16">
-        <v>0</v>
+        <v>0.15090000000000001</v>
       </c>
       <c r="K17" s="16">
-        <v>0</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="L17" s="16">
-        <v>5.9999999999999995E-4</v>
+        <v>0.1358</v>
       </c>
       <c r="M17" s="16">
-        <v>4.1700000000000001E-2</v>
+        <v>0.12939999999999999</v>
       </c>
       <c r="N17" s="16">
-        <v>0.1946</v>
+        <v>0.1196</v>
       </c>
       <c r="O17" s="16">
-        <v>0.4</v>
+        <v>0.109</v>
       </c>
       <c r="P17" s="16">
-        <v>0.58479999999999999</v>
+        <v>0.1028</v>
       </c>
       <c r="Q17" s="16">
-        <v>0.71789999999999998</v>
+        <v>0.1017</v>
       </c>
       <c r="R17" s="16">
-        <v>0.78680000000000005</v>
+        <v>0.104</v>
       </c>
       <c r="S17" s="16">
-        <v>0.79359999999999997</v>
+        <v>0.1079</v>
       </c>
       <c r="T17" s="16">
-        <v>0.73599999999999999</v>
+        <v>0.11260000000000001</v>
       </c>
       <c r="U17" s="16">
-        <v>0.62239999999999995</v>
+        <v>0.1193</v>
       </c>
       <c r="V17" s="16">
-        <v>0.45850000000000002</v>
+        <v>0.12759999999999999</v>
       </c>
       <c r="W17" s="16">
-        <v>0.26590000000000003</v>
+        <v>0.13589999999999999</v>
       </c>
       <c r="X17" s="16">
-        <v>9.0899999999999995E-2</v>
+        <v>0.1434</v>
       </c>
       <c r="Y17" s="16">
-        <v>7.1999999999999998E-3</v>
+        <v>0.14940000000000001</v>
       </c>
       <c r="Z17" s="16">
-        <v>0</v>
+        <v>0.15040000000000001</v>
       </c>
       <c r="AA17" s="16">
-        <v>0</v>
+        <v>0.14749999999999999</v>
       </c>
       <c r="AB17" s="16">
-        <v>0</v>
+        <v>0.1477</v>
       </c>
       <c r="AC17" s="16">
-        <v>0</v>
+        <v>0.15229999999999999</v>
       </c>
       <c r="AD17" s="16">
-        <v>0</v>
+        <v>0.15939999999999999</v>
       </c>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.25">
@@ -2204,7 +2289,7 @@
         <v>27</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" s="17" t="s">
         <v>49</v>
@@ -2213,76 +2298,76 @@
         <v>50</v>
       </c>
       <c r="G18" s="16">
-        <v>0</v>
+        <v>0.54010000000000002</v>
       </c>
       <c r="H18" s="16">
-        <v>0</v>
+        <v>0.53549999999999998</v>
       </c>
       <c r="I18" s="16">
-        <v>0</v>
+        <v>0.5272</v>
       </c>
       <c r="J18" s="16">
-        <v>0</v>
+        <v>0.51829999999999998</v>
       </c>
       <c r="K18" s="16">
-        <v>0</v>
+        <v>0.50780000000000003</v>
       </c>
       <c r="L18" s="16">
-        <v>2.0000000000000001E-4</v>
+        <v>0.49509999999999998</v>
       </c>
       <c r="M18" s="16">
-        <v>8.6999999999999994E-3</v>
+        <v>0.4839</v>
       </c>
       <c r="N18" s="16">
-        <v>6.6400000000000001E-2</v>
+        <v>0.47339999999999999</v>
       </c>
       <c r="O18" s="16">
-        <v>0.20119999999999999</v>
+        <v>0.46150000000000002</v>
       </c>
       <c r="P18" s="16">
-        <v>0.3609</v>
+        <v>0.45440000000000003</v>
       </c>
       <c r="Q18" s="16">
-        <v>0.49659999999999999</v>
+        <v>0.45429999999999998</v>
       </c>
       <c r="R18" s="16">
-        <v>0.57430000000000003</v>
+        <v>0.44650000000000001</v>
       </c>
       <c r="S18" s="16">
-        <v>0.58750000000000002</v>
+        <v>0.4294</v>
       </c>
       <c r="T18" s="16">
-        <v>0.53920000000000001</v>
+        <v>0.40510000000000002</v>
       </c>
       <c r="U18" s="16">
-        <v>0.43790000000000001</v>
+        <v>0.37840000000000001</v>
       </c>
       <c r="V18" s="16">
-        <v>0.2928</v>
+        <v>0.35460000000000003</v>
       </c>
       <c r="W18" s="16">
-        <v>0.1313</v>
+        <v>0.34310000000000002</v>
       </c>
       <c r="X18" s="16">
-        <v>2.7799999999999998E-2</v>
+        <v>0.3493</v>
       </c>
       <c r="Y18" s="16">
-        <v>2.0999999999999999E-3</v>
+        <v>0.36370000000000002</v>
       </c>
       <c r="Z18" s="16">
-        <v>0</v>
+        <v>0.38329999999999997</v>
       </c>
       <c r="AA18" s="16">
-        <v>0</v>
+        <v>0.40570000000000001</v>
       </c>
       <c r="AB18" s="16">
-        <v>0</v>
+        <v>0.43030000000000002</v>
       </c>
       <c r="AC18" s="16">
-        <v>0</v>
+        <v>0.45519999999999999</v>
       </c>
       <c r="AD18" s="16">
-        <v>0</v>
+        <v>0.47939999999999999</v>
       </c>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.25">
@@ -2291,7 +2376,7 @@
         <v>28</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19" s="17" t="s">
         <v>49</v>
@@ -2300,76 +2385,76 @@
         <v>50</v>
       </c>
       <c r="G19" s="16">
-        <v>0</v>
+        <v>0.32819999999999999</v>
       </c>
       <c r="H19" s="16">
-        <v>0</v>
+        <v>0.34360000000000002</v>
       </c>
       <c r="I19" s="16">
-        <v>0</v>
+        <v>0.36009999999999998</v>
       </c>
       <c r="J19" s="16">
-        <v>0</v>
+        <v>0.36780000000000002</v>
       </c>
       <c r="K19" s="16">
-        <v>0</v>
+        <v>0.37309999999999999</v>
       </c>
       <c r="L19" s="16">
-        <v>1.78E-2</v>
+        <v>0.37809999999999999</v>
       </c>
       <c r="M19" s="16">
-        <v>0.1158</v>
+        <v>0.38269999999999998</v>
       </c>
       <c r="N19" s="16">
-        <v>0.29759999999999998</v>
+        <v>0.39190000000000003</v>
       </c>
       <c r="O19" s="16">
-        <v>0.50449999999999995</v>
+        <v>0.40679999999999999</v>
       </c>
       <c r="P19" s="16">
-        <v>0.67769999999999997</v>
+        <v>0.43080000000000002</v>
       </c>
       <c r="Q19" s="16">
-        <v>0.79630000000000001</v>
+        <v>0.45419999999999999</v>
       </c>
       <c r="R19" s="16">
-        <v>0.8569</v>
+        <v>0.46949999999999997</v>
       </c>
       <c r="S19" s="16">
-        <v>0.86129999999999995</v>
+        <v>0.47410000000000002</v>
       </c>
       <c r="T19" s="16">
-        <v>0.81100000000000005</v>
+        <v>0.46949999999999997</v>
       </c>
       <c r="U19" s="16">
-        <v>0.70779999999999998</v>
+        <v>0.45850000000000002</v>
       </c>
       <c r="V19" s="16">
-        <v>0.55689999999999995</v>
+        <v>0.43690000000000001</v>
       </c>
       <c r="W19" s="16">
-        <v>0.37090000000000001</v>
+        <v>0.40629999999999999</v>
       </c>
       <c r="X19" s="16">
-        <v>0.17810000000000001</v>
+        <v>0.37619999999999998</v>
       </c>
       <c r="Y19" s="16">
-        <v>5.1400000000000001E-2</v>
+        <v>0.3458</v>
       </c>
       <c r="Z19" s="16">
-        <v>2.0999999999999999E-3</v>
+        <v>0.31719999999999998</v>
       </c>
       <c r="AA19" s="16">
-        <v>0</v>
+        <v>0.29780000000000001</v>
       </c>
       <c r="AB19" s="16">
-        <v>0</v>
+        <v>0.29139999999999999</v>
       </c>
       <c r="AC19" s="16">
-        <v>0</v>
+        <v>0.29060000000000002</v>
       </c>
       <c r="AD19" s="16">
-        <v>0</v>
+        <v>0.2898</v>
       </c>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.25">
@@ -2378,7 +2463,7 @@
         <v>29</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" s="17" t="s">
         <v>49</v>
@@ -2387,76 +2472,76 @@
         <v>50</v>
       </c>
       <c r="G20" s="16">
-        <v>0</v>
+        <v>0.53210000000000002</v>
       </c>
       <c r="H20" s="16">
-        <v>0</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="I20" s="16">
-        <v>0</v>
+        <v>0.5796</v>
       </c>
       <c r="J20" s="16">
-        <v>0</v>
+        <v>0.59160000000000001</v>
       </c>
       <c r="K20" s="16">
-        <v>0</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="L20" s="16">
-        <v>0</v>
+        <v>0.59889999999999999</v>
       </c>
       <c r="M20" s="16">
-        <v>0</v>
+        <v>0.59440000000000004</v>
       </c>
       <c r="N20" s="16">
-        <v>5.1999999999999998E-3</v>
+        <v>0.58789999999999998</v>
       </c>
       <c r="O20" s="16">
-        <v>0.11509999999999999</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="P20" s="16">
-        <v>0.27700000000000002</v>
+        <v>0.59389999999999998</v>
       </c>
       <c r="Q20" s="16">
-        <v>0.41849999999999998</v>
+        <v>0.61470000000000002</v>
       </c>
       <c r="R20" s="16">
-        <v>0.50529999999999997</v>
+        <v>0.64239999999999997</v>
       </c>
       <c r="S20" s="16">
-        <v>0.53449999999999998</v>
+        <v>0.67079999999999995</v>
       </c>
       <c r="T20" s="16">
-        <v>0.49769999999999998</v>
+        <v>0.68830000000000002</v>
       </c>
       <c r="U20" s="16">
-        <v>0.39550000000000002</v>
+        <v>0.69030000000000002</v>
       </c>
       <c r="V20" s="16">
-        <v>0.2324</v>
+        <v>0.68069999999999997</v>
       </c>
       <c r="W20" s="16">
-        <v>4.9500000000000002E-2</v>
+        <v>0.67630000000000001</v>
       </c>
       <c r="X20" s="16">
-        <v>0</v>
+        <v>0.67490000000000006</v>
       </c>
       <c r="Y20" s="16">
-        <v>0</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="Z20" s="16">
-        <v>0</v>
+        <v>0.64659999999999995</v>
       </c>
       <c r="AA20" s="16">
-        <v>0</v>
+        <v>0.62360000000000004</v>
       </c>
       <c r="AB20" s="16">
-        <v>0</v>
+        <v>0.6048</v>
       </c>
       <c r="AC20" s="16">
-        <v>0</v>
+        <v>0.59219999999999995</v>
       </c>
       <c r="AD20" s="16">
-        <v>0</v>
+        <v>0.58879999999999999</v>
       </c>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.25">
@@ -2465,7 +2550,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>49</v>
@@ -2474,76 +2559,76 @@
         <v>50</v>
       </c>
       <c r="G21" s="16">
-        <v>0</v>
+        <v>0.68200000000000005</v>
       </c>
       <c r="H21" s="16">
-        <v>0</v>
+        <v>0.69289999999999996</v>
       </c>
       <c r="I21" s="16">
-        <v>0</v>
+        <v>0.7026</v>
       </c>
       <c r="J21" s="16">
-        <v>0</v>
+        <v>0.71440000000000003</v>
       </c>
       <c r="K21" s="16">
-        <v>0</v>
+        <v>0.7268</v>
       </c>
       <c r="L21" s="16">
-        <v>5.0000000000000001E-4</v>
+        <v>0.74009999999999998</v>
       </c>
       <c r="M21" s="16">
-        <v>7.4999999999999997E-3</v>
+        <v>0.75129999999999997</v>
       </c>
       <c r="N21" s="16">
-        <v>5.0900000000000001E-2</v>
+        <v>0.75970000000000004</v>
       </c>
       <c r="O21" s="16">
-        <v>0.17069999999999999</v>
+        <v>0.76729999999999998</v>
       </c>
       <c r="P21" s="16">
-        <v>0.31459999999999999</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="Q21" s="16">
-        <v>0.43540000000000001</v>
+        <v>0.79149999999999998</v>
       </c>
       <c r="R21" s="16">
-        <v>0.50670000000000004</v>
+        <v>0.80369999999999997</v>
       </c>
       <c r="S21" s="16">
-        <v>0.51900000000000002</v>
+        <v>0.81200000000000006</v>
       </c>
       <c r="T21" s="16">
-        <v>0.47820000000000001</v>
+        <v>0.81130000000000002</v>
       </c>
       <c r="U21" s="16">
-        <v>0.38769999999999999</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="V21" s="16">
-        <v>0.25440000000000002</v>
+        <v>0.78959999999999997</v>
       </c>
       <c r="W21" s="16">
-        <v>0.1021</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="X21" s="16">
-        <v>1.72E-2</v>
+        <v>0.77439999999999998</v>
       </c>
       <c r="Y21" s="16">
-        <v>2.3E-3</v>
+        <v>0.76190000000000002</v>
       </c>
       <c r="Z21" s="16">
-        <v>0</v>
+        <v>0.75039999999999996</v>
       </c>
       <c r="AA21" s="16">
-        <v>0</v>
+        <v>0.74329999999999996</v>
       </c>
       <c r="AB21" s="16">
-        <v>0</v>
+        <v>0.73939999999999995</v>
       </c>
       <c r="AC21" s="16">
-        <v>0</v>
+        <v>0.73980000000000001</v>
       </c>
       <c r="AD21" s="16">
-        <v>0</v>
+        <v>0.7379</v>
       </c>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.25">
@@ -2552,7 +2637,7 @@
         <v>24</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E22" s="17" t="s">
         <v>49</v>
@@ -2639,7 +2724,7 @@
         <v>25</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>49</v>
@@ -2726,7 +2811,7 @@
         <v>26</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E24" s="17" t="s">
         <v>49</v>
@@ -2813,7 +2898,7 @@
         <v>27</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>49</v>
@@ -2900,7 +2985,7 @@
         <v>28</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>49</v>
@@ -2987,7 +3072,7 @@
         <v>29</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>49</v>
@@ -3074,7 +3159,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28" s="17" t="s">
         <v>49</v>
@@ -3155,197 +3240,616 @@
         <v>0</v>
       </c>
     </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16">
+        <v>0</v>
+      </c>
+      <c r="L29" s="16">
+        <v>0</v>
+      </c>
+      <c r="M29" s="16">
+        <v>0</v>
+      </c>
+      <c r="N29" s="16">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="O29" s="16">
+        <v>0.1346</v>
+      </c>
+      <c r="P29" s="16">
+        <v>0.3155</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>0.47460000000000002</v>
+      </c>
+      <c r="R29" s="16">
+        <v>0.57179999999999997</v>
+      </c>
+      <c r="S29" s="16">
+        <v>0.59519999999999995</v>
+      </c>
+      <c r="T29" s="16">
+        <v>0.54730000000000001</v>
+      </c>
+      <c r="U29" s="16">
+        <v>0.43280000000000002</v>
+      </c>
+      <c r="V29" s="16">
+        <v>0.25779999999999997</v>
+      </c>
+      <c r="W29" s="16">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="X29" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="16">
+        <v>0</v>
+      </c>
+    </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="4"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="4"/>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="4"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0</v>
+      </c>
+      <c r="I30" s="16">
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
+        <v>0</v>
+      </c>
+      <c r="L30" s="16">
+        <v>1.5900000000000001E-2</v>
+      </c>
+      <c r="M30" s="16">
+        <v>0.1164</v>
+      </c>
+      <c r="N30" s="16">
+        <v>0.2989</v>
+      </c>
+      <c r="O30" s="16">
+        <v>0.49909999999999999</v>
+      </c>
+      <c r="P30" s="16">
+        <v>0.66339999999999999</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="R30" s="16">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="S30" s="16">
+        <v>0.83179999999999998</v>
+      </c>
+      <c r="T30" s="16">
+        <v>0.78049999999999997</v>
+      </c>
+      <c r="U30" s="16">
+        <v>0.67889999999999995</v>
+      </c>
+      <c r="V30" s="16">
+        <v>0.53159999999999996</v>
+      </c>
+      <c r="W30" s="16">
+        <v>0.35249999999999998</v>
+      </c>
+      <c r="X30" s="16">
+        <v>0.16969999999999999</v>
+      </c>
+      <c r="Y30" s="16">
+        <v>4.4699999999999997E-2</v>
+      </c>
+      <c r="Z30" s="16">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AA30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0</v>
+      </c>
+      <c r="I31" s="16">
+        <v>0</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0</v>
+      </c>
+      <c r="K31" s="16">
+        <v>0</v>
+      </c>
+      <c r="L31" s="16">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="M31" s="16">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="N31" s="16">
+        <v>0.1946</v>
+      </c>
+      <c r="O31" s="16">
+        <v>0.4</v>
+      </c>
+      <c r="P31" s="16">
+        <v>0.58479999999999999</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>0.71789999999999998</v>
+      </c>
+      <c r="R31" s="16">
+        <v>0.78680000000000005</v>
+      </c>
+      <c r="S31" s="16">
+        <v>0.79359999999999997</v>
+      </c>
+      <c r="T31" s="16">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="U31" s="16">
+        <v>0.62239999999999995</v>
+      </c>
+      <c r="V31" s="16">
+        <v>0.45850000000000002</v>
+      </c>
+      <c r="W31" s="16">
+        <v>0.26590000000000003</v>
+      </c>
+      <c r="X31" s="16">
+        <v>9.0899999999999995E-2</v>
+      </c>
+      <c r="Y31" s="16">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="Z31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="16">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.25">
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-    </row>
-    <row r="33" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-    </row>
-    <row r="34" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-    </row>
-    <row r="35" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-    </row>
-    <row r="36" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-    </row>
-    <row r="37" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C37" s="5"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0</v>
+      </c>
+      <c r="H32" s="16">
+        <v>0</v>
+      </c>
+      <c r="I32" s="16">
+        <v>0</v>
+      </c>
+      <c r="J32" s="16">
+        <v>0</v>
+      </c>
+      <c r="K32" s="16">
+        <v>0</v>
+      </c>
+      <c r="L32" s="16">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M32" s="16">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="N32" s="16">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="O32" s="16">
+        <v>0.20119999999999999</v>
+      </c>
+      <c r="P32" s="16">
+        <v>0.3609</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>0.49659999999999999</v>
+      </c>
+      <c r="R32" s="16">
+        <v>0.57430000000000003</v>
+      </c>
+      <c r="S32" s="16">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="T32" s="16">
+        <v>0.53920000000000001</v>
+      </c>
+      <c r="U32" s="16">
+        <v>0.43790000000000001</v>
+      </c>
+      <c r="V32" s="16">
+        <v>0.2928</v>
+      </c>
+      <c r="W32" s="16">
+        <v>0.1313</v>
+      </c>
+      <c r="X32" s="16">
+        <v>2.7799999999999998E-2</v>
+      </c>
+      <c r="Y32" s="16">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="Z32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B33" s="14"/>
+      <c r="C33" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0</v>
+      </c>
+      <c r="H33" s="16">
+        <v>0</v>
+      </c>
+      <c r="I33" s="16">
+        <v>0</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0</v>
+      </c>
+      <c r="K33" s="16">
+        <v>0</v>
+      </c>
+      <c r="L33" s="16">
+        <v>1.78E-2</v>
+      </c>
+      <c r="M33" s="16">
+        <v>0.1158</v>
+      </c>
+      <c r="N33" s="16">
+        <v>0.29759999999999998</v>
+      </c>
+      <c r="O33" s="16">
+        <v>0.50449999999999995</v>
+      </c>
+      <c r="P33" s="16">
+        <v>0.67769999999999997</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="R33" s="16">
+        <v>0.8569</v>
+      </c>
+      <c r="S33" s="16">
+        <v>0.86129999999999995</v>
+      </c>
+      <c r="T33" s="16">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="U33" s="16">
+        <v>0.70779999999999998</v>
+      </c>
+      <c r="V33" s="16">
+        <v>0.55689999999999995</v>
+      </c>
+      <c r="W33" s="16">
+        <v>0.37090000000000001</v>
+      </c>
+      <c r="X33" s="16">
+        <v>0.17810000000000001</v>
+      </c>
+      <c r="Y33" s="16">
+        <v>5.1400000000000001E-2</v>
+      </c>
+      <c r="Z33" s="16">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="AA33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+      <c r="C34" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="16">
+        <v>0</v>
+      </c>
+      <c r="H34" s="16">
+        <v>0</v>
+      </c>
+      <c r="I34" s="16">
+        <v>0</v>
+      </c>
+      <c r="J34" s="16">
+        <v>0</v>
+      </c>
+      <c r="K34" s="16">
+        <v>0</v>
+      </c>
+      <c r="L34" s="16">
+        <v>0</v>
+      </c>
+      <c r="M34" s="16">
+        <v>0</v>
+      </c>
+      <c r="N34" s="16">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="O34" s="16">
+        <v>0.11509999999999999</v>
+      </c>
+      <c r="P34" s="16">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="Q34" s="16">
+        <v>0.41849999999999998</v>
+      </c>
+      <c r="R34" s="16">
+        <v>0.50529999999999997</v>
+      </c>
+      <c r="S34" s="16">
+        <v>0.53449999999999998</v>
+      </c>
+      <c r="T34" s="16">
+        <v>0.49769999999999998</v>
+      </c>
+      <c r="U34" s="16">
+        <v>0.39550000000000002</v>
+      </c>
+      <c r="V34" s="16">
+        <v>0.2324</v>
+      </c>
+      <c r="W34" s="16">
+        <v>4.9500000000000002E-2</v>
+      </c>
+      <c r="X34" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="16">
+        <v>0</v>
+      </c>
+      <c r="H35" s="16">
+        <v>0</v>
+      </c>
+      <c r="I35" s="16">
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
+        <v>0</v>
+      </c>
+      <c r="K35" s="16">
+        <v>0</v>
+      </c>
+      <c r="L35" s="16">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="M35" s="16">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="N35" s="16">
+        <v>5.0900000000000001E-2</v>
+      </c>
+      <c r="O35" s="16">
+        <v>0.17069999999999999</v>
+      </c>
+      <c r="P35" s="16">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>0.43540000000000001</v>
+      </c>
+      <c r="R35" s="16">
+        <v>0.50670000000000004</v>
+      </c>
+      <c r="S35" s="16">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="T35" s="16">
+        <v>0.47820000000000001</v>
+      </c>
+      <c r="U35" s="16">
+        <v>0.38769999999999999</v>
+      </c>
+      <c r="V35" s="16">
+        <v>0.25440000000000002</v>
+      </c>
+      <c r="W35" s="16">
+        <v>0.1021</v>
+      </c>
+      <c r="X35" s="16">
+        <v>1.72E-2</v>
+      </c>
+      <c r="Y35" s="16">
+        <v>2.3E-3</v>
+      </c>
+      <c r="Z35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -3372,8 +3876,7 @@
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
     </row>
-    <row r="38" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C38" s="5"/>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -3400,8 +3903,7 @@
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
     </row>
-    <row r="39" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C39" s="5"/>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -3428,8 +3930,7 @@
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
     </row>
-    <row r="40" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C40" s="5"/>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
@@ -3456,8 +3957,7 @@
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
     </row>
-    <row r="41" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C41" s="5"/>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
@@ -3484,8 +3984,7 @@
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
     </row>
-    <row r="42" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C42" s="5"/>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
@@ -3512,8 +4011,7 @@
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
     </row>
-    <row r="43" spans="3:29" x14ac:dyDescent="0.25">
-      <c r="C43" s="5"/>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
@@ -3540,7 +4038,7 @@
       <c r="AB43" s="4"/>
       <c r="AC43" s="4"/>
     </row>
-    <row r="44" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C44" s="5"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -3568,7 +4066,7 @@
       <c r="AB44" s="4"/>
       <c r="AC44" s="4"/>
     </row>
-    <row r="45" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C45" s="5"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -3596,7 +4094,7 @@
       <c r="AB45" s="4"/>
       <c r="AC45" s="4"/>
     </row>
-    <row r="46" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C46" s="5"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -3624,7 +4122,7 @@
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
     </row>
-    <row r="47" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -3652,7 +4150,7 @@
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
     </row>
-    <row r="48" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
       <c r="C48" s="5"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -3766,21 +4264,3723 @@
     </row>
     <row r="52" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C52" s="5"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
     </row>
     <row r="53" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C53" s="5"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
     </row>
     <row r="54" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C54" s="5"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4"/>
     </row>
     <row r="55" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C55" s="5"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
     </row>
     <row r="56" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C56" s="5"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C57" s="5"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C58" s="5"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C63" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44BD803-770F-4F3A-A452-AF6EFFC24E30}">
+  <sheetPr>
+    <tabColor rgb="FF008080"/>
+  </sheetPr>
+  <dimension ref="B1:AD63"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="29" width="8" style="2" customWidth="1"/>
+    <col min="30" max="16384" width="8" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:30" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD3" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O4" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="W4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:30" ht="60" x14ac:dyDescent="0.25">
+      <c r="B5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+    </row>
+    <row r="6" spans="2:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD6" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0.28664138048556909</v>
+      </c>
+      <c r="H8" s="16">
+        <v>0.30204643249935381</v>
+      </c>
+      <c r="I8" s="16">
+        <v>0.29772660670507317</v>
+      </c>
+      <c r="J8" s="16">
+        <v>0.28185425836120215</v>
+      </c>
+      <c r="K8" s="16">
+        <v>0.28274974554827031</v>
+      </c>
+      <c r="L8" s="16">
+        <v>0.25346853923668322</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0.24498166805221788</v>
+      </c>
+      <c r="N8" s="16">
+        <v>0.24144946807001441</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0.21867331206565141</v>
+      </c>
+      <c r="P8" s="16">
+        <v>0.20626875384422511</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>0.18773424017665566</v>
+      </c>
+      <c r="R8" s="16">
+        <v>0.19482093271085688</v>
+      </c>
+      <c r="S8" s="16">
+        <v>0.20379147583569832</v>
+      </c>
+      <c r="T8" s="16">
+        <v>0.20054139250844219</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0.18576689753716766</v>
+      </c>
+      <c r="V8" s="16">
+        <v>0.17853167583049748</v>
+      </c>
+      <c r="W8" s="16">
+        <v>0.18054859187116845</v>
+      </c>
+      <c r="X8" s="16">
+        <v>0.18391281173120988</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>0.21187319870015672</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>0.21280806705444566</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>0.20679724698996624</v>
+      </c>
+      <c r="AB8" s="16">
+        <v>0.23261862030937117</v>
+      </c>
+      <c r="AC8" s="16">
+        <v>0.22812088380183212</v>
+      </c>
+      <c r="AD8" s="16">
+        <v>0.24846629051067809</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0.11344605724313699</v>
+      </c>
+      <c r="H9" s="16">
+        <v>0.10931220235405539</v>
+      </c>
+      <c r="I9" s="16">
+        <v>0.10686470598243318</v>
+      </c>
+      <c r="J9" s="16">
+        <v>0.10678969767938072</v>
+      </c>
+      <c r="K9" s="16">
+        <v>9.8341679198297449E-2</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0.10410621904577032</v>
+      </c>
+      <c r="M9" s="16">
+        <v>9.789113100094203E-2</v>
+      </c>
+      <c r="N9" s="16">
+        <v>9.1802358282215016E-2</v>
+      </c>
+      <c r="O9" s="16">
+        <v>8.9051655673551056E-2</v>
+      </c>
+      <c r="P9" s="16">
+        <v>9.351252767775374E-2</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>8.6446994769641197E-2</v>
+      </c>
+      <c r="R9" s="16">
+        <v>9.7404054204277543E-2</v>
+      </c>
+      <c r="S9" s="16">
+        <v>0.10261215248929142</v>
+      </c>
+      <c r="T9" s="16">
+        <v>0.12112397014179369</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0.13453967222860644</v>
+      </c>
+      <c r="V9" s="16">
+        <v>0.14302936177914036</v>
+      </c>
+      <c r="W9" s="16">
+        <v>0.16055543365853667</v>
+      </c>
+      <c r="X9" s="16">
+        <v>0.16152198816366894</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>0.16083573529844142</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>0.14581503326702258</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>0.13329572916363361</v>
+      </c>
+      <c r="AB9" s="16">
+        <v>0.12714073784551</v>
+      </c>
+      <c r="AC9" s="16">
+        <v>0.11951609833422287</v>
+      </c>
+      <c r="AD9" s="16">
+        <v>0.12173230288867264</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0.14279196718905324</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0.15998755015921964</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0.15084346748365507</v>
+      </c>
+      <c r="J10" s="16">
+        <v>0.14693988493272286</v>
+      </c>
+      <c r="K10" s="16">
+        <v>0.14425316863534449</v>
+      </c>
+      <c r="L10" s="16">
+        <v>0.13323013820095336</v>
+      </c>
+      <c r="M10" s="16">
+        <v>0.12709990602999158</v>
+      </c>
+      <c r="N10" s="16">
+        <v>0.1178778403255233</v>
+      </c>
+      <c r="O10" s="16">
+        <v>0.10927262393427742</v>
+      </c>
+      <c r="P10" s="16">
+        <v>0.10377572042801657</v>
+      </c>
+      <c r="Q10" s="16">
+        <v>0.10421440075447323</v>
+      </c>
+      <c r="R10" s="16">
+        <v>9.9404355743572037E-2</v>
+      </c>
+      <c r="S10" s="16">
+        <v>0.10456042270582672</v>
+      </c>
+      <c r="T10" s="16">
+        <v>0.1143217330488796</v>
+      </c>
+      <c r="U10" s="16">
+        <v>0.11882302773530425</v>
+      </c>
+      <c r="V10" s="16">
+        <v>0.13287487549247601</v>
+      </c>
+      <c r="W10" s="16">
+        <v>0.13367986349523631</v>
+      </c>
+      <c r="X10" s="16">
+        <v>0.14979740031289057</v>
+      </c>
+      <c r="Y10" s="16">
+        <v>0.15571909354869323</v>
+      </c>
+      <c r="Z10" s="16">
+        <v>0.14902720556125262</v>
+      </c>
+      <c r="AA10" s="16">
+        <v>0.15250973155562678</v>
+      </c>
+      <c r="AB10" s="16">
+        <v>0.14228115129660496</v>
+      </c>
+      <c r="AC10" s="16">
+        <v>0.15220536813768462</v>
+      </c>
+      <c r="AD10" s="16">
+        <v>0.16008822752094126</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0.51987086285737727</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0.56222800542994977</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0.52275242402700228</v>
+      </c>
+      <c r="J11" s="16">
+        <v>0.52933992258625617</v>
+      </c>
+      <c r="K11" s="16">
+        <v>0.53190415046183637</v>
+      </c>
+      <c r="L11" s="16">
+        <v>0.51327220302133991</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0.48106815142615073</v>
+      </c>
+      <c r="N11" s="16">
+        <v>0.46241259307449745</v>
+      </c>
+      <c r="O11" s="16">
+        <v>0.46769142560427102</v>
+      </c>
+      <c r="P11" s="16">
+        <v>0.4769002567525264</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>0.43315519637472499</v>
+      </c>
+      <c r="R11" s="16">
+        <v>0.45891998854000748</v>
+      </c>
+      <c r="S11" s="16">
+        <v>0.41125529120431525</v>
+      </c>
+      <c r="T11" s="16">
+        <v>0.4144491408775588</v>
+      </c>
+      <c r="U11" s="16">
+        <v>0.36757221055865646</v>
+      </c>
+      <c r="V11" s="16">
+        <v>0.36482019353021944</v>
+      </c>
+      <c r="W11" s="16">
+        <v>0.34985205003641834</v>
+      </c>
+      <c r="X11" s="16">
+        <v>0.34771892893828588</v>
+      </c>
+      <c r="Y11" s="16">
+        <v>0.36496760702142583</v>
+      </c>
+      <c r="Z11" s="16">
+        <v>0.39095850146758276</v>
+      </c>
+      <c r="AA11" s="16">
+        <v>0.38687703520461664</v>
+      </c>
+      <c r="AB11" s="16">
+        <v>0.44718174681387612</v>
+      </c>
+      <c r="AC11" s="16">
+        <v>0.46449559414178554</v>
+      </c>
+      <c r="AD11" s="16">
+        <v>0.49231696260867958</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0.34369358475147482</v>
+      </c>
+      <c r="H12" s="16">
+        <v>0.3305241577378899</v>
+      </c>
+      <c r="I12" s="16">
+        <v>0.35045810808091449</v>
+      </c>
+      <c r="J12" s="16">
+        <v>0.36668770961990349</v>
+      </c>
+      <c r="K12" s="16">
+        <v>0.39036250286854762</v>
+      </c>
+      <c r="L12" s="16">
+        <v>0.36004467887238834</v>
+      </c>
+      <c r="M12" s="16">
+        <v>0.38619508632339961</v>
+      </c>
+      <c r="N12" s="16">
+        <v>0.39851623176319839</v>
+      </c>
+      <c r="O12" s="16">
+        <v>0.39735520779385086</v>
+      </c>
+      <c r="P12" s="16">
+        <v>0.41051148535890553</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>0.46315378613794717</v>
+      </c>
+      <c r="R12" s="16">
+        <v>0.4557104436465827</v>
+      </c>
+      <c r="S12" s="16">
+        <v>0.4603659366042695</v>
+      </c>
+      <c r="T12" s="16">
+        <v>0.48994856285145072</v>
+      </c>
+      <c r="U12" s="16">
+        <v>0.4803101368492656</v>
+      </c>
+      <c r="V12" s="16">
+        <v>0.4558362676633983</v>
+      </c>
+      <c r="W12" s="16">
+        <v>0.39334819718104552</v>
+      </c>
+      <c r="X12" s="16">
+        <v>0.36254907055693075</v>
+      </c>
+      <c r="Y12" s="16">
+        <v>0.34764154401045561</v>
+      </c>
+      <c r="Z12" s="16">
+        <v>0.32026556339028056</v>
+      </c>
+      <c r="AA12" s="16">
+        <v>0.28788380543779685</v>
+      </c>
+      <c r="AB12" s="16">
+        <v>0.27836330449441715</v>
+      </c>
+      <c r="AC12" s="16">
+        <v>0.29075755034167844</v>
+      </c>
+      <c r="AD12" s="16">
+        <v>0.282396808464417</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0.53952177813367674</v>
+      </c>
+      <c r="H13" s="16">
+        <v>0.55358204612882111</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0.58636278173578826</v>
+      </c>
+      <c r="J13" s="16">
+        <v>0.61078136688331075</v>
+      </c>
+      <c r="K13" s="16">
+        <v>0.61968280637777529</v>
+      </c>
+      <c r="L13" s="16">
+        <v>0.59230076639291096</v>
+      </c>
+      <c r="M13" s="16">
+        <v>0.61065852474788396</v>
+      </c>
+      <c r="N13" s="16">
+        <v>0.60089890152433822</v>
+      </c>
+      <c r="O13" s="16">
+        <v>0.57701992423282189</v>
+      </c>
+      <c r="P13" s="16">
+        <v>0.60215653277331982</v>
+      </c>
+      <c r="Q13" s="16">
+        <v>0.61579725923038053</v>
+      </c>
+      <c r="R13" s="16">
+        <v>0.63579559320809642</v>
+      </c>
+      <c r="S13" s="16">
+        <v>0.65108830415785979</v>
+      </c>
+      <c r="T13" s="16">
+        <v>0.66093816407819894</v>
+      </c>
+      <c r="U13" s="16">
+        <v>0.67831944544846101</v>
+      </c>
+      <c r="V13" s="16">
+        <v>0.70437080232479954</v>
+      </c>
+      <c r="W13" s="16">
+        <v>0.6901173724383729</v>
+      </c>
+      <c r="X13" s="16">
+        <v>0.6839579337868219</v>
+      </c>
+      <c r="Y13" s="16">
+        <v>0.67688512300044568</v>
+      </c>
+      <c r="Z13" s="16">
+        <v>0.63794261059520008</v>
+      </c>
+      <c r="AA13" s="16">
+        <v>0.62278559060940208</v>
+      </c>
+      <c r="AB13" s="16">
+        <v>0.59662709926711255</v>
+      </c>
+      <c r="AC13" s="16">
+        <v>0.58346585914364568</v>
+      </c>
+      <c r="AD13" s="16">
+        <v>0.58302547181083897</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0.67375188320215373</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0.71761561088178105</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0.66798065932728212</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0.70861030050948792</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0.70427181090647051</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0.75908720973419197</v>
+      </c>
+      <c r="M14" s="16">
+        <v>0.75311422345335544</v>
+      </c>
+      <c r="N14" s="16">
+        <v>0.76400321508224867</v>
+      </c>
+      <c r="O14" s="16">
+        <v>0.74364035238831394</v>
+      </c>
+      <c r="P14" s="16">
+        <v>0.77950951693303683</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>0.77720623918862775</v>
+      </c>
+      <c r="R14" s="16">
+        <v>0.78232968328183516</v>
+      </c>
+      <c r="S14" s="16">
+        <v>0.80818559918137534</v>
+      </c>
+      <c r="T14" s="16">
+        <v>0.81192206987585547</v>
+      </c>
+      <c r="U14" s="16">
+        <v>0.81542208732446808</v>
+      </c>
+      <c r="V14" s="16">
+        <v>0.80074018529843705</v>
+      </c>
+      <c r="W14" s="16">
+        <v>0.75688245091261352</v>
+      </c>
+      <c r="X14" s="16">
+        <v>0.78279406819149344</v>
+      </c>
+      <c r="Y14" s="16">
+        <v>0.78471682482297511</v>
+      </c>
+      <c r="Z14" s="16">
+        <v>0.78288750995889522</v>
+      </c>
+      <c r="AA14" s="16">
+        <v>0.73190461626096071</v>
+      </c>
+      <c r="AB14" s="16">
+        <v>0.72682115743185416</v>
+      </c>
+      <c r="AC14" s="16">
+        <v>0.74216606739062985</v>
+      </c>
+      <c r="AD14" s="16">
+        <v>0.71820058696643685</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="C15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0.28798592279129132</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0.30273043443714726</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0.30659793689221654</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0.28908864348271246</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0.26589751417591689</v>
+      </c>
+      <c r="L15" s="16">
+        <v>0.24293928255159269</v>
+      </c>
+      <c r="M15" s="16">
+        <v>0.25012320190567566</v>
+      </c>
+      <c r="N15" s="16">
+        <v>0.24144837785433348</v>
+      </c>
+      <c r="O15" s="16">
+        <v>0.21095733836928579</v>
+      </c>
+      <c r="P15" s="16">
+        <v>0.20684222490251347</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>0.19058245646356978</v>
+      </c>
+      <c r="R15" s="16">
+        <v>0.20350554437900714</v>
+      </c>
+      <c r="S15" s="16">
+        <v>0.19347962049581183</v>
+      </c>
+      <c r="T15" s="16">
+        <v>0.19993397774393826</v>
+      </c>
+      <c r="U15" s="16">
+        <v>0.19009771418548554</v>
+      </c>
+      <c r="V15" s="16">
+        <v>0.17146648700829201</v>
+      </c>
+      <c r="W15" s="16">
+        <v>0.17079232358359644</v>
+      </c>
+      <c r="X15" s="16">
+        <v>0.18306867617625233</v>
+      </c>
+      <c r="Y15" s="16">
+        <v>0.20611696918444519</v>
+      </c>
+      <c r="Z15" s="16">
+        <v>0.20266134589673182</v>
+      </c>
+      <c r="AA15" s="16">
+        <v>0.22588058902488387</v>
+      </c>
+      <c r="AB15" s="16">
+        <v>0.22128122885520288</v>
+      </c>
+      <c r="AC15" s="16">
+        <v>0.23174604189682166</v>
+      </c>
+      <c r="AD15" s="16">
+        <v>0.25032763782297662</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
+      <c r="C16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.11290369676699089</v>
+      </c>
+      <c r="H16" s="16">
+        <v>0.11252080497842533</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0.11114392872044106</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0.10980100080397107</v>
+      </c>
+      <c r="K16" s="16">
+        <v>0.10629433887348871</v>
+      </c>
+      <c r="L16" s="16">
+        <v>0.10169458996166861</v>
+      </c>
+      <c r="M16" s="16">
+        <v>0.1012474472451413</v>
+      </c>
+      <c r="N16" s="16">
+        <v>9.6250035565059594E-2</v>
+      </c>
+      <c r="O16" s="16">
+        <v>9.1116732850871171E-2</v>
+      </c>
+      <c r="P16" s="16">
+        <v>9.0705870518245663E-2</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>8.907973891274662E-2</v>
+      </c>
+      <c r="R16" s="16">
+        <v>9.0774977450280667E-2</v>
+      </c>
+      <c r="S16" s="16">
+        <v>0.10621869271815901</v>
+      </c>
+      <c r="T16" s="16">
+        <v>0.1171115942875274</v>
+      </c>
+      <c r="U16" s="16">
+        <v>0.13416171440065497</v>
+      </c>
+      <c r="V16" s="16">
+        <v>0.14446583439975277</v>
+      </c>
+      <c r="W16" s="16">
+        <v>0.16426290020526127</v>
+      </c>
+      <c r="X16" s="16">
+        <v>0.15964171474487476</v>
+      </c>
+      <c r="Y16" s="16">
+        <v>0.15685583357713065</v>
+      </c>
+      <c r="Z16" s="16">
+        <v>0.1548233873178409</v>
+      </c>
+      <c r="AA16" s="16">
+        <v>0.13796149372702229</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>0.13024692988354422</v>
+      </c>
+      <c r="AC16" s="16">
+        <v>0.1226331546584721</v>
+      </c>
+      <c r="AD16" s="16">
+        <v>0.12270615346495793</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0.14318735144752251</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0.15172814329230799</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0.15286440146074756</v>
+      </c>
+      <c r="J17" s="16">
+        <v>0.14587862796586137</v>
+      </c>
+      <c r="K17" s="16">
+        <v>0.13860326243385851</v>
+      </c>
+      <c r="L17" s="16">
+        <v>0.13355937465025583</v>
+      </c>
+      <c r="M17" s="16">
+        <v>0.12390294218695391</v>
+      </c>
+      <c r="N17" s="16">
+        <v>0.11946577525353649</v>
+      </c>
+      <c r="O17" s="16">
+        <v>0.10486274320926747</v>
+      </c>
+      <c r="P17" s="16">
+        <v>9.8066026558676772E-2</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>0.10063281271185989</v>
+      </c>
+      <c r="R17" s="16">
+        <v>9.935636373055165E-2</v>
+      </c>
+      <c r="S17" s="16">
+        <v>0.11025652730981667</v>
+      </c>
+      <c r="T17" s="16">
+        <v>0.1110310451095585</v>
+      </c>
+      <c r="U17" s="16">
+        <v>0.12430366819170779</v>
+      </c>
+      <c r="V17" s="16">
+        <v>0.12874767725067443</v>
+      </c>
+      <c r="W17" s="16">
+        <v>0.14110353849594359</v>
+      </c>
+      <c r="X17" s="16">
+        <v>0.14107257439660945</v>
+      </c>
+      <c r="Y17" s="16">
+        <v>0.15079603650969708</v>
+      </c>
+      <c r="Z17" s="16">
+        <v>0.15050252211472168</v>
+      </c>
+      <c r="AA17" s="16">
+        <v>0.15159692987714216</v>
+      </c>
+      <c r="AB17" s="16">
+        <v>0.14411919801194925</v>
+      </c>
+      <c r="AC17" s="16">
+        <v>0.15866862432222217</v>
+      </c>
+      <c r="AD17" s="16">
+        <v>0.15483211197229346</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.51621692246552908</v>
+      </c>
+      <c r="H18" s="16">
+        <v>0.53502446370907564</v>
+      </c>
+      <c r="I18" s="16">
+        <v>0.54297714117369544</v>
+      </c>
+      <c r="J18" s="16">
+        <v>0.50078613835832175</v>
+      </c>
+      <c r="K18" s="16">
+        <v>0.50792196291440317</v>
+      </c>
+      <c r="L18" s="16">
+        <v>0.49174059846586493</v>
+      </c>
+      <c r="M18" s="16">
+        <v>0.48614292958348065</v>
+      </c>
+      <c r="N18" s="16">
+        <v>0.49173184788248275</v>
+      </c>
+      <c r="O18" s="16">
+        <v>0.45160338185562826</v>
+      </c>
+      <c r="P18" s="16">
+        <v>0.46993291962596823</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>0.46188182872359101</v>
+      </c>
+      <c r="R18" s="16">
+        <v>0.44859146499241931</v>
+      </c>
+      <c r="S18" s="16">
+        <v>0.42768477923825421</v>
+      </c>
+      <c r="T18" s="16">
+        <v>0.41231023056990607</v>
+      </c>
+      <c r="U18" s="16">
+        <v>0.38511386371983675</v>
+      </c>
+      <c r="V18" s="16">
+        <v>0.35665952759840686</v>
+      </c>
+      <c r="W18" s="16">
+        <v>0.34308642361296254</v>
+      </c>
+      <c r="X18" s="16">
+        <v>0.36334772522078906</v>
+      </c>
+      <c r="Y18" s="16">
+        <v>0.37208900910960963</v>
+      </c>
+      <c r="Z18" s="16">
+        <v>0.38410480410130993</v>
+      </c>
+      <c r="AA18" s="16">
+        <v>0.42108620697372268</v>
+      </c>
+      <c r="AB18" s="16">
+        <v>0.40972878989098555</v>
+      </c>
+      <c r="AC18" s="16">
+        <v>0.45629114472792565</v>
+      </c>
+      <c r="AD18" s="16">
+        <v>0.46672746772875923</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0.32585578846809665</v>
+      </c>
+      <c r="H19" s="16">
+        <v>0.32888537954058999</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0.34725819547266584</v>
+      </c>
+      <c r="J19" s="16">
+        <v>0.37480100519865422</v>
+      </c>
+      <c r="K19" s="16">
+        <v>0.39165219214300862</v>
+      </c>
+      <c r="L19" s="16">
+        <v>0.38267907485762104</v>
+      </c>
+      <c r="M19" s="16">
+        <v>0.39479240597151793</v>
+      </c>
+      <c r="N19" s="16">
+        <v>0.38185837942392092</v>
+      </c>
+      <c r="O19" s="16">
+        <v>0.42554593424251252</v>
+      </c>
+      <c r="P19" s="16">
+        <v>0.41304057693863694</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>0.47577040221062672</v>
+      </c>
+      <c r="R19" s="16">
+        <v>0.45816138106597054</v>
+      </c>
+      <c r="S19" s="16">
+        <v>0.47828062330404186</v>
+      </c>
+      <c r="T19" s="16">
+        <v>0.46861155052559272</v>
+      </c>
+      <c r="U19" s="16">
+        <v>0.45299965458031333</v>
+      </c>
+      <c r="V19" s="16">
+        <v>0.44574083989683322</v>
+      </c>
+      <c r="W19" s="16">
+        <v>0.38850458117812858</v>
+      </c>
+      <c r="X19" s="16">
+        <v>0.367119374993644</v>
+      </c>
+      <c r="Y19" s="16">
+        <v>0.34623877036794248</v>
+      </c>
+      <c r="Z19" s="16">
+        <v>0.31672403049131953</v>
+      </c>
+      <c r="AA19" s="16">
+        <v>0.30012113021665487</v>
+      </c>
+      <c r="AB19" s="16">
+        <v>0.2826155137431956</v>
+      </c>
+      <c r="AC19" s="16">
+        <v>0.30428855310524533</v>
+      </c>
+      <c r="AD19" s="16">
+        <v>0.30209431447527746</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0.53971967912593455</v>
+      </c>
+      <c r="H20" s="16">
+        <v>0.56223696727000916</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0.59830631636678266</v>
+      </c>
+      <c r="J20" s="16">
+        <v>0.57196891585010479</v>
+      </c>
+      <c r="K20" s="16">
+        <v>0.62619731006802037</v>
+      </c>
+      <c r="L20" s="16">
+        <v>0.60482058477565515</v>
+      </c>
+      <c r="M20" s="16">
+        <v>0.62059697068808761</v>
+      </c>
+      <c r="N20" s="16">
+        <v>0.56047953389626337</v>
+      </c>
+      <c r="O20" s="16">
+        <v>0.56023937912393051</v>
+      </c>
+      <c r="P20" s="16">
+        <v>0.62331101945817813</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>0.63482046899781297</v>
+      </c>
+      <c r="R20" s="16">
+        <v>0.6549426990091457</v>
+      </c>
+      <c r="S20" s="16">
+        <v>0.66575795454348108</v>
+      </c>
+      <c r="T20" s="16">
+        <v>0.66061460370309733</v>
+      </c>
+      <c r="U20" s="16">
+        <v>0.69656606519292896</v>
+      </c>
+      <c r="V20" s="16">
+        <v>0.70739420265195208</v>
+      </c>
+      <c r="W20" s="16">
+        <v>0.66456327575208807</v>
+      </c>
+      <c r="X20" s="16">
+        <v>0.68442421865427772</v>
+      </c>
+      <c r="Y20" s="16">
+        <v>0.650970098306627</v>
+      </c>
+      <c r="Z20" s="16">
+        <v>0.67158983649078929</v>
+      </c>
+      <c r="AA20" s="16">
+        <v>0.6032316217356527</v>
+      </c>
+      <c r="AB20" s="16">
+        <v>0.62668408445483081</v>
+      </c>
+      <c r="AC20" s="16">
+        <v>0.59432670861967407</v>
+      </c>
+      <c r="AD20" s="16">
+        <v>0.60509466265318956</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0.66858608712291656</v>
+      </c>
+      <c r="H21" s="16">
+        <v>0.67742898821687103</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0.70208989961616575</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0.70804759553029906</v>
+      </c>
+      <c r="K21" s="16">
+        <v>0.73966621122382492</v>
+      </c>
+      <c r="L21" s="16">
+        <v>0.72341264947692574</v>
+      </c>
+      <c r="M21" s="16">
+        <v>0.74656599300897464</v>
+      </c>
+      <c r="N21" s="16">
+        <v>0.74113883178459694</v>
+      </c>
+      <c r="O21" s="16">
+        <v>0.76053781944012555</v>
+      </c>
+      <c r="P21" s="16">
+        <v>0.7944053779899094</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>0.82777009712242455</v>
+      </c>
+      <c r="R21" s="16">
+        <v>0.78363400889193102</v>
+      </c>
+      <c r="S21" s="16">
+        <v>0.84188346168291661</v>
+      </c>
+      <c r="T21" s="16">
+        <v>0.79503352330568788</v>
+      </c>
+      <c r="U21" s="16">
+        <v>0.82646928515257945</v>
+      </c>
+      <c r="V21" s="16">
+        <v>0.7671255517254294</v>
+      </c>
+      <c r="W21" s="16">
+        <v>0.81815123182360328</v>
+      </c>
+      <c r="X21" s="16">
+        <v>0.77016713590538544</v>
+      </c>
+      <c r="Y21" s="16">
+        <v>0.7974487881442871</v>
+      </c>
+      <c r="Z21" s="16">
+        <v>0.72438345998617093</v>
+      </c>
+      <c r="AA21" s="16">
+        <v>0.7162392917338305</v>
+      </c>
+      <c r="AB21" s="16">
+        <v>0.75364699957365899</v>
+      </c>
+      <c r="AC21" s="16">
+        <v>0.74572531916875584</v>
+      </c>
+      <c r="AD21" s="16">
+        <v>0.74597901923411258</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
+        <v>0</v>
+      </c>
+      <c r="I22" s="16">
+        <v>0</v>
+      </c>
+      <c r="J22" s="16">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16">
+        <v>0</v>
+      </c>
+      <c r="L22" s="16">
+        <v>0</v>
+      </c>
+      <c r="M22" s="16">
+        <v>0</v>
+      </c>
+      <c r="N22" s="16">
+        <v>5.1654441096429362E-3</v>
+      </c>
+      <c r="O22" s="16">
+        <v>0.13917238651745761</v>
+      </c>
+      <c r="P22" s="16">
+        <v>0.32287667270730469</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>0.46695770454946894</v>
+      </c>
+      <c r="R22" s="16">
+        <v>0.55930898011263785</v>
+      </c>
+      <c r="S22" s="16">
+        <v>0.61775152666716837</v>
+      </c>
+      <c r="T22" s="16">
+        <v>0.5715780768813592</v>
+      </c>
+      <c r="U22" s="16">
+        <v>0.43566570202843524</v>
+      </c>
+      <c r="V22" s="16">
+        <v>0.25136173668773426</v>
+      </c>
+      <c r="W22" s="16">
+        <v>5.3561400504469642E-2</v>
+      </c>
+      <c r="X22" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
+        <v>0</v>
+      </c>
+      <c r="I23" s="16">
+        <v>0</v>
+      </c>
+      <c r="J23" s="16">
+        <v>0</v>
+      </c>
+      <c r="K23" s="16">
+        <v>0</v>
+      </c>
+      <c r="L23" s="16">
+        <v>1.5978381696877285E-2</v>
+      </c>
+      <c r="M23" s="16">
+        <v>0.12054041363174194</v>
+      </c>
+      <c r="N23" s="16">
+        <v>0.29299121495912761</v>
+      </c>
+      <c r="O23" s="16">
+        <v>0.51249664727039823</v>
+      </c>
+      <c r="P23" s="16">
+        <v>0.68999283771675057</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>0.75711785971351131</v>
+      </c>
+      <c r="R23" s="16">
+        <v>0.86419769400114987</v>
+      </c>
+      <c r="S23" s="16">
+        <v>0.83120736472782852</v>
+      </c>
+      <c r="T23" s="16">
+        <v>0.75687258072072439</v>
+      </c>
+      <c r="U23" s="16">
+        <v>0.66049436245582582</v>
+      </c>
+      <c r="V23" s="16">
+        <v>0.51733953268421395</v>
+      </c>
+      <c r="W23" s="16">
+        <v>0.33627659412719996</v>
+      </c>
+      <c r="X23" s="16">
+        <v>0.17073889633423281</v>
+      </c>
+      <c r="Y23" s="16">
+        <v>4.6327441455081442E-2</v>
+      </c>
+      <c r="Z23" s="16">
+        <v>1.5464912013420456E-3</v>
+      </c>
+      <c r="AA23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16">
+        <v>0</v>
+      </c>
+      <c r="I24" s="16">
+        <v>0</v>
+      </c>
+      <c r="J24" s="16">
+        <v>0</v>
+      </c>
+      <c r="K24" s="16">
+        <v>0</v>
+      </c>
+      <c r="L24" s="16">
+        <v>5.8022640849951252E-4</v>
+      </c>
+      <c r="M24" s="16">
+        <v>4.1860052067493082E-2</v>
+      </c>
+      <c r="N24" s="16">
+        <v>0.19802038717986975</v>
+      </c>
+      <c r="O24" s="16">
+        <v>0.38901600821190918</v>
+      </c>
+      <c r="P24" s="16">
+        <v>0.58552237969413967</v>
+      </c>
+      <c r="Q24" s="16">
+        <v>0.75069907281169146</v>
+      </c>
+      <c r="R24" s="16">
+        <v>0.74953660430870916</v>
+      </c>
+      <c r="S24" s="16">
+        <v>0.82814244459051434</v>
+      </c>
+      <c r="T24" s="16">
+        <v>0.74747123131360205</v>
+      </c>
+      <c r="U24" s="16">
+        <v>0.61024966672790093</v>
+      </c>
+      <c r="V24" s="16">
+        <v>0.4434897616780541</v>
+      </c>
+      <c r="W24" s="16">
+        <v>0.27362901503500309</v>
+      </c>
+      <c r="X24" s="16">
+        <v>9.3437163457212508E-2</v>
+      </c>
+      <c r="Y24" s="16">
+        <v>6.8682831944611522E-3</v>
+      </c>
+      <c r="Z24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0</v>
+      </c>
+      <c r="H25" s="16">
+        <v>0</v>
+      </c>
+      <c r="I25" s="16">
+        <v>0</v>
+      </c>
+      <c r="J25" s="16">
+        <v>0</v>
+      </c>
+      <c r="K25" s="16">
+        <v>0</v>
+      </c>
+      <c r="L25" s="16">
+        <v>2.0682373217113158E-4</v>
+      </c>
+      <c r="M25" s="16">
+        <v>8.9382337865689596E-3</v>
+      </c>
+      <c r="N25" s="16">
+        <v>6.9681743636966012E-2</v>
+      </c>
+      <c r="O25" s="16">
+        <v>0.19744222413309606</v>
+      </c>
+      <c r="P25" s="16">
+        <v>0.37498439611881212</v>
+      </c>
+      <c r="Q25" s="16">
+        <v>0.47918948939036954</v>
+      </c>
+      <c r="R25" s="16">
+        <v>0.59059635444130043</v>
+      </c>
+      <c r="S25" s="16">
+        <v>0.56574325133432102</v>
+      </c>
+      <c r="T25" s="16">
+        <v>0.53549409918373392</v>
+      </c>
+      <c r="U25" s="16">
+        <v>0.42611239841079246</v>
+      </c>
+      <c r="V25" s="16">
+        <v>0.29819583256754928</v>
+      </c>
+      <c r="W25" s="16">
+        <v>0.13151978303785003</v>
+      </c>
+      <c r="X25" s="16">
+        <v>2.6467917658707589E-2</v>
+      </c>
+      <c r="Y25" s="16">
+        <v>2.0345163747184365E-3</v>
+      </c>
+      <c r="Z25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+      <c r="C26" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0</v>
+      </c>
+      <c r="K26" s="16">
+        <v>0</v>
+      </c>
+      <c r="L26" s="16">
+        <v>1.7222430132224097E-2</v>
+      </c>
+      <c r="M26" s="16">
+        <v>0.11874718290139995</v>
+      </c>
+      <c r="N26" s="16">
+        <v>0.29501274681029421</v>
+      </c>
+      <c r="O26" s="16">
+        <v>0.5099280039617321</v>
+      </c>
+      <c r="P26" s="16">
+        <v>0.67375186313201152</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>0.7937659472480465</v>
+      </c>
+      <c r="R26" s="16">
+        <v>0.86462403872224325</v>
+      </c>
+      <c r="S26" s="16">
+        <v>0.87726536249905551</v>
+      </c>
+      <c r="T26" s="16">
+        <v>0.80024733163330863</v>
+      </c>
+      <c r="U26" s="16">
+        <v>0.71886660572990679</v>
+      </c>
+      <c r="V26" s="16">
+        <v>0.54881311814175615</v>
+      </c>
+      <c r="W26" s="16">
+        <v>0.35366624767547827</v>
+      </c>
+      <c r="X26" s="16">
+        <v>0.1773736692645714</v>
+      </c>
+      <c r="Y26" s="16">
+        <v>5.1813045923291459E-2</v>
+      </c>
+      <c r="Z26" s="16">
+        <v>2.0524245049981732E-3</v>
+      </c>
+      <c r="AA26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+      <c r="C27" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0</v>
+      </c>
+      <c r="K27" s="16">
+        <v>0</v>
+      </c>
+      <c r="L27" s="16">
+        <v>0</v>
+      </c>
+      <c r="M27" s="16">
+        <v>0</v>
+      </c>
+      <c r="N27" s="16">
+        <v>5.4549486394356835E-3</v>
+      </c>
+      <c r="O27" s="16">
+        <v>0.11661301892658829</v>
+      </c>
+      <c r="P27" s="16">
+        <v>0.28892093789037271</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>0.42860309799611129</v>
+      </c>
+      <c r="R27" s="16">
+        <v>0.51377193607510041</v>
+      </c>
+      <c r="S27" s="16">
+        <v>0.52969762313614988</v>
+      </c>
+      <c r="T27" s="16">
+        <v>0.49334059758142462</v>
+      </c>
+      <c r="U27" s="16">
+        <v>0.39560811862067191</v>
+      </c>
+      <c r="V27" s="16">
+        <v>0.24316146294571353</v>
+      </c>
+      <c r="W27" s="16">
+        <v>4.9257665793127653E-2</v>
+      </c>
+      <c r="X27" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B28" s="14"/>
+      <c r="C28" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0</v>
+      </c>
+      <c r="H28" s="16">
+        <v>0</v>
+      </c>
+      <c r="I28" s="16">
+        <v>0</v>
+      </c>
+      <c r="J28" s="16">
+        <v>0</v>
+      </c>
+      <c r="K28" s="16">
+        <v>0</v>
+      </c>
+      <c r="L28" s="16">
+        <v>4.9619385853992147E-4</v>
+      </c>
+      <c r="M28" s="16">
+        <v>7.4009008291900215E-3</v>
+      </c>
+      <c r="N28" s="16">
+        <v>5.0475805781788188E-2</v>
+      </c>
+      <c r="O28" s="16">
+        <v>0.16453512102199117</v>
+      </c>
+      <c r="P28" s="16">
+        <v>0.30543884718105085</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>0.44123794847349379</v>
+      </c>
+      <c r="R28" s="16">
+        <v>0.50640982862433559</v>
+      </c>
+      <c r="S28" s="16">
+        <v>0.53923292542204859</v>
+      </c>
+      <c r="T28" s="16">
+        <v>0.50011663543860208</v>
+      </c>
+      <c r="U28" s="16">
+        <v>0.39882913916590412</v>
+      </c>
+      <c r="V28" s="16">
+        <v>0.26363931143128477</v>
+      </c>
+      <c r="W28" s="16">
+        <v>9.87689962911278E-2</v>
+      </c>
+      <c r="X28" s="16">
+        <v>1.6859931262641237E-2</v>
+      </c>
+      <c r="Y28" s="16">
+        <v>2.3880901278652577E-3</v>
+      </c>
+      <c r="Z28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0</v>
+      </c>
+      <c r="K29" s="16">
+        <v>0</v>
+      </c>
+      <c r="L29" s="16">
+        <v>0</v>
+      </c>
+      <c r="M29" s="16">
+        <v>0</v>
+      </c>
+      <c r="N29" s="16">
+        <v>4.9964528059104679E-3</v>
+      </c>
+      <c r="O29" s="16">
+        <v>0.13548453868278298</v>
+      </c>
+      <c r="P29" s="16">
+        <v>0.32392518396834408</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>0.4965122705763827</v>
+      </c>
+      <c r="R29" s="16">
+        <v>0.57211223710463355</v>
+      </c>
+      <c r="S29" s="16">
+        <v>0.56577785956427906</v>
+      </c>
+      <c r="T29" s="16">
+        <v>0.57341598898861423</v>
+      </c>
+      <c r="U29" s="16">
+        <v>0.42276820161479362</v>
+      </c>
+      <c r="V29" s="16">
+        <v>0.25325765812858164</v>
+      </c>
+      <c r="W29" s="16">
+        <v>5.7498679454463388E-2</v>
+      </c>
+      <c r="X29" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="16">
+        <v>0</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0</v>
+      </c>
+      <c r="I30" s="16">
+        <v>0</v>
+      </c>
+      <c r="J30" s="16">
+        <v>0</v>
+      </c>
+      <c r="K30" s="16">
+        <v>0</v>
+      </c>
+      <c r="L30" s="16">
+        <v>1.6005714906171902E-2</v>
+      </c>
+      <c r="M30" s="16">
+        <v>0.11218533781286343</v>
+      </c>
+      <c r="N30" s="16">
+        <v>0.3064455042278465</v>
+      </c>
+      <c r="O30" s="16">
+        <v>0.48857009117639782</v>
+      </c>
+      <c r="P30" s="16">
+        <v>0.64972862153275091</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>0.78951215089545324</v>
+      </c>
+      <c r="R30" s="16">
+        <v>0.85898717174770867</v>
+      </c>
+      <c r="S30" s="16">
+        <v>0.79158938800905354</v>
+      </c>
+      <c r="T30" s="16">
+        <v>0.79321713098771129</v>
+      </c>
+      <c r="U30" s="16">
+        <v>0.65318838320718775</v>
+      </c>
+      <c r="V30" s="16">
+        <v>0.55667724349067083</v>
+      </c>
+      <c r="W30" s="16">
+        <v>0.34301226873361118</v>
+      </c>
+      <c r="X30" s="16">
+        <v>0.16475726961604273</v>
+      </c>
+      <c r="Y30" s="16">
+        <v>4.5348478929008521E-2</v>
+      </c>
+      <c r="Z30" s="16">
+        <v>1.5832235105023565E-3</v>
+      </c>
+      <c r="AA30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0</v>
+      </c>
+      <c r="I31" s="16">
+        <v>0</v>
+      </c>
+      <c r="J31" s="16">
+        <v>0</v>
+      </c>
+      <c r="K31" s="16">
+        <v>0</v>
+      </c>
+      <c r="L31" s="16">
+        <v>5.9562326159201518E-4</v>
+      </c>
+      <c r="M31" s="16">
+        <v>3.9641182771296531E-2</v>
+      </c>
+      <c r="N31" s="16">
+        <v>0.20352127834130515</v>
+      </c>
+      <c r="O31" s="16">
+        <v>0.41942365678109861</v>
+      </c>
+      <c r="P31" s="16">
+        <v>0.59252759645876873</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>0.73225592185519428</v>
+      </c>
+      <c r="R31" s="16">
+        <v>0.75164897706759426</v>
+      </c>
+      <c r="S31" s="16">
+        <v>0.77168296614129095</v>
+      </c>
+      <c r="T31" s="16">
+        <v>0.75500033997653926</v>
+      </c>
+      <c r="U31" s="16">
+        <v>0.6506014013878425</v>
+      </c>
+      <c r="V31" s="16">
+        <v>0.44209566281281554</v>
+      </c>
+      <c r="W31" s="16">
+        <v>0.27369136957266599</v>
+      </c>
+      <c r="X31" s="16">
+        <v>9.543046901502257E-2</v>
+      </c>
+      <c r="Y31" s="16">
+        <v>7.1583534977902666E-3</v>
+      </c>
+      <c r="Z31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+      <c r="C32" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E32" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0</v>
+      </c>
+      <c r="H32" s="16">
+        <v>0</v>
+      </c>
+      <c r="I32" s="16">
+        <v>0</v>
+      </c>
+      <c r="J32" s="16">
+        <v>0</v>
+      </c>
+      <c r="K32" s="16">
+        <v>0</v>
+      </c>
+      <c r="L32" s="16">
+        <v>2.0473031458811933E-4</v>
+      </c>
+      <c r="M32" s="16">
+        <v>8.6080648917654639E-3</v>
+      </c>
+      <c r="N32" s="16">
+        <v>6.7093607585111334E-2</v>
+      </c>
+      <c r="O32" s="16">
+        <v>0.19614861974762729</v>
+      </c>
+      <c r="P32" s="16">
+        <v>0.36567611414802786</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>0.47700100357601033</v>
+      </c>
+      <c r="R32" s="16">
+        <v>0.55012669514917412</v>
+      </c>
+      <c r="S32" s="16">
+        <v>0.56488703705636834</v>
+      </c>
+      <c r="T32" s="16">
+        <v>0.53903204225003909</v>
+      </c>
+      <c r="U32" s="16">
+        <v>0.44243036783146034</v>
+      </c>
+      <c r="V32" s="16">
+        <v>0.29785267272201932</v>
+      </c>
+      <c r="W32" s="16">
+        <v>0.13482113824013897</v>
+      </c>
+      <c r="X32" s="16">
+        <v>2.7222907612690042E-2</v>
+      </c>
+      <c r="Y32" s="16">
+        <v>2.1004834314281907E-3</v>
+      </c>
+      <c r="Z32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B33" s="14"/>
+      <c r="C33" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0</v>
+      </c>
+      <c r="H33" s="16">
+        <v>0</v>
+      </c>
+      <c r="I33" s="16">
+        <v>0</v>
+      </c>
+      <c r="J33" s="16">
+        <v>0</v>
+      </c>
+      <c r="K33" s="16">
+        <v>0</v>
+      </c>
+      <c r="L33" s="16">
+        <v>1.7145845908496556E-2</v>
+      </c>
+      <c r="M33" s="16">
+        <v>0.12084022666198764</v>
+      </c>
+      <c r="N33" s="16">
+        <v>0.29415929927779028</v>
+      </c>
+      <c r="O33" s="16">
+        <v>0.52644538731961121</v>
+      </c>
+      <c r="P33" s="16">
+        <v>0.65485791752035805</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>0.81910974144062509</v>
+      </c>
+      <c r="R33" s="16">
+        <v>0.82077065712679198</v>
+      </c>
+      <c r="S33" s="16">
+        <v>0.82563252922714692</v>
+      </c>
+      <c r="T33" s="16">
+        <v>0.807752328837263</v>
+      </c>
+      <c r="U33" s="16">
+        <v>0.69488000191069133</v>
+      </c>
+      <c r="V33" s="16">
+        <v>0.54569340957868195</v>
+      </c>
+      <c r="W33" s="16">
+        <v>0.37751483261896468</v>
+      </c>
+      <c r="X33" s="16">
+        <v>0.17023410824726182</v>
+      </c>
+      <c r="Y33" s="16">
+        <v>5.1808739235912074E-2</v>
+      </c>
+      <c r="Z33" s="16">
+        <v>2.1406871368041314E-3</v>
+      </c>
+      <c r="AA33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+      <c r="C34" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="16">
+        <v>0</v>
+      </c>
+      <c r="H34" s="16">
+        <v>0</v>
+      </c>
+      <c r="I34" s="16">
+        <v>0</v>
+      </c>
+      <c r="J34" s="16">
+        <v>0</v>
+      </c>
+      <c r="K34" s="16">
+        <v>0</v>
+      </c>
+      <c r="L34" s="16">
+        <v>0</v>
+      </c>
+      <c r="M34" s="16">
+        <v>0</v>
+      </c>
+      <c r="N34" s="16">
+        <v>5.1411847237239523E-3</v>
+      </c>
+      <c r="O34" s="16">
+        <v>0.11190480369868666</v>
+      </c>
+      <c r="P34" s="16">
+        <v>0.27357011551648253</v>
+      </c>
+      <c r="Q34" s="16">
+        <v>0.41277770392548069</v>
+      </c>
+      <c r="R34" s="16">
+        <v>0.50551733982214297</v>
+      </c>
+      <c r="S34" s="16">
+        <v>0.53991733626568761</v>
+      </c>
+      <c r="T34" s="16">
+        <v>0.47525531461660009</v>
+      </c>
+      <c r="U34" s="16">
+        <v>0.40797193810932164</v>
+      </c>
+      <c r="V34" s="16">
+        <v>0.23628994055123154</v>
+      </c>
+      <c r="W34" s="16">
+        <v>4.9319437880456896E-2</v>
+      </c>
+      <c r="X34" s="16">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="16">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="16">
+        <v>0</v>
+      </c>
+      <c r="H35" s="16">
+        <v>0</v>
+      </c>
+      <c r="I35" s="16">
+        <v>0</v>
+      </c>
+      <c r="J35" s="16">
+        <v>0</v>
+      </c>
+      <c r="K35" s="16">
+        <v>0</v>
+      </c>
+      <c r="L35" s="16">
+        <v>5.2440244822270926E-4</v>
+      </c>
+      <c r="M35" s="16">
+        <v>7.5212581468510845E-3</v>
+      </c>
+      <c r="N35" s="16">
+        <v>5.1973898575636224E-2</v>
+      </c>
+      <c r="O35" s="16">
+        <v>0.17284934020150328</v>
+      </c>
+      <c r="P35" s="16">
+        <v>0.30205516340235422</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>0.44202745194599619</v>
+      </c>
+      <c r="R35" s="16">
+        <v>0.50631043932438557</v>
+      </c>
+      <c r="S35" s="16">
+        <v>0.52722251775143436</v>
+      </c>
+      <c r="T35" s="16">
+        <v>0.46343613801975236</v>
+      </c>
+      <c r="U35" s="16">
+        <v>0.39564512288099724</v>
+      </c>
+      <c r="V35" s="16">
+        <v>0.2586520700402351</v>
+      </c>
+      <c r="W35" s="16">
+        <v>0.10292170997118238</v>
+      </c>
+      <c r="X35" s="16">
+        <v>1.6442614411001231E-2</v>
+      </c>
+      <c r="Y35" s="16">
+        <v>2.4109186324544605E-3</v>
+      </c>
+      <c r="Z35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="16">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C44" s="5"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C45" s="5"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C46" s="5"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C47" s="5"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.25">
+      <c r="C48" s="5"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C49" s="5"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C50" s="5"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="4"/>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C51" s="5"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C52" s="5"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C53" s="5"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C54" s="5"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4"/>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C55" s="5"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C56" s="5"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C57" s="5"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C58" s="5"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="C63" s="5"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>

--- a/examples/Power_VRESProfiles.xlsx
+++ b/examples/Power_VRESProfiles.xlsx
@@ -578,7 +578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD35"/>
+  <dimension ref="A1:AD42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
@@ -1323,7 +1323,7 @@
       </c>
       <c r="D8" s="12" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>PV OMV-Schoenkirchen</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       </c>
       <c r="D9" s="12" t="inlineStr">
         <is>
-          <t>Solar2</t>
+          <t>PV Schafflerhofstraße</t>
         </is>
       </c>
       <c r="E9" s="13" t="inlineStr">
@@ -1517,7 +1517,7 @@
       </c>
       <c r="D10" s="12" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>PV Trumau</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -1531,76 +1531,76 @@
         </is>
       </c>
       <c r="G10" s="14" t="n">
-        <v>0.3011</v>
+        <v>0</v>
       </c>
       <c r="H10" s="14" t="n">
-        <v>0.3024</v>
+        <v>0</v>
       </c>
       <c r="I10" s="14" t="n">
-        <v>0.3009</v>
+        <v>0</v>
       </c>
       <c r="J10" s="14" t="n">
-        <v>0.2886</v>
+        <v>0</v>
       </c>
       <c r="K10" s="14" t="n">
-        <v>0.2718</v>
+        <v>0</v>
       </c>
       <c r="L10" s="14" t="n">
-        <v>0.2552</v>
+        <v>0</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>0.2423</v>
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="n">
-        <v>0.2322</v>
+        <v>0.0052</v>
       </c>
       <c r="O10" s="14" t="n">
-        <v>0.2203</v>
+        <v>0.1346</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>0.2059</v>
+        <v>0.3155</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0.1969</v>
+        <v>0.4746</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>0.1975</v>
+        <v>0.5718</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0.1977</v>
+        <v>0.5952</v>
       </c>
       <c r="T10" s="14" t="n">
-        <v>0.1948</v>
+        <v>0.5473</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0.1872</v>
+        <v>0.4328</v>
       </c>
       <c r="V10" s="14" t="n">
-        <v>0.1756</v>
+        <v>0.2578</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>0.1789</v>
+        <v>0.0551</v>
       </c>
       <c r="X10" s="14" t="n">
-        <v>0.1923</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="14" t="n">
-        <v>0.2045</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="14" t="n">
-        <v>0.2118</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="14" t="n">
-        <v>0.2165</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="14" t="n">
-        <v>0.222</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="14" t="n">
-        <v>0.2307</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="14" t="n">
-        <v>0.2427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="D11" s="12" t="inlineStr">
         <is>
-          <t>Wind2</t>
+          <t>Wind</t>
         </is>
       </c>
       <c r="E11" s="13" t="inlineStr">
@@ -1706,12 +1706,12 @@
       </c>
       <c r="C12" s="12" t="inlineStr">
         <is>
-          <t>rp02</t>
+          <t>rp01</t>
         </is>
       </c>
       <c r="D12" s="12" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>Wind2</t>
         </is>
       </c>
       <c r="E12" s="13" t="inlineStr">
@@ -1725,76 +1725,76 @@
         </is>
       </c>
       <c r="G12" s="14" t="n">
-        <v>0</v>
+        <v>0.3011</v>
       </c>
       <c r="H12" s="14" t="n">
-        <v>0</v>
+        <v>0.3024</v>
       </c>
       <c r="I12" s="14" t="n">
-        <v>0</v>
+        <v>0.3009</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>0</v>
+        <v>0.2886</v>
       </c>
       <c r="K12" s="14" t="n">
-        <v>0</v>
+        <v>0.2718</v>
       </c>
       <c r="L12" s="14" t="n">
-        <v>0.0159</v>
+        <v>0.2552</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>0.1164</v>
+        <v>0.2423</v>
       </c>
       <c r="N12" s="14" t="n">
-        <v>0.2989</v>
+        <v>0.2322</v>
       </c>
       <c r="O12" s="14" t="n">
-        <v>0.4991</v>
+        <v>0.2203</v>
       </c>
       <c r="P12" s="14" t="n">
-        <v>0.6634</v>
+        <v>0.2059</v>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>0.775</v>
+        <v>0.1969</v>
       </c>
       <c r="R12" s="14" t="n">
-        <v>0.8305</v>
+        <v>0.1975</v>
       </c>
       <c r="S12" s="14" t="n">
-        <v>0.8318</v>
+        <v>0.1977</v>
       </c>
       <c r="T12" s="14" t="n">
-        <v>0.7805</v>
+        <v>0.1948</v>
       </c>
       <c r="U12" s="14" t="n">
-        <v>0.6788999999999999</v>
+        <v>0.1872</v>
       </c>
       <c r="V12" s="14" t="n">
-        <v>0.5316</v>
+        <v>0.1756</v>
       </c>
       <c r="W12" s="14" t="n">
-        <v>0.3525</v>
+        <v>0.1789</v>
       </c>
       <c r="X12" s="14" t="n">
-        <v>0.1697</v>
+        <v>0.1923</v>
       </c>
       <c r="Y12" s="14" t="n">
-        <v>0.0447</v>
+        <v>0.2045</v>
       </c>
       <c r="Z12" s="14" t="n">
-        <v>0.0016</v>
+        <v>0.2118</v>
       </c>
       <c r="AA12" s="14" t="n">
-        <v>0</v>
+        <v>0.2165</v>
       </c>
       <c r="AB12" s="14" t="n">
-        <v>0</v>
+        <v>0.222</v>
       </c>
       <c r="AC12" s="14" t="n">
-        <v>0</v>
+        <v>0.2307</v>
       </c>
       <c r="AD12" s="14" t="n">
-        <v>0</v>
+        <v>0.2427</v>
       </c>
     </row>
     <row r="13">
@@ -1808,7 +1808,7 @@
       </c>
       <c r="D13" s="12" t="inlineStr">
         <is>
-          <t>Solar2</t>
+          <t>PV OMV-Schoenkirchen</t>
         </is>
       </c>
       <c r="E13" s="13" t="inlineStr">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="D14" s="12" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>PV Schafflerhofstraße</t>
         </is>
       </c>
       <c r="E14" s="13" t="inlineStr">
@@ -1919,76 +1919,76 @@
         </is>
       </c>
       <c r="G14" s="14" t="n">
-        <v>0.1127</v>
+        <v>0</v>
       </c>
       <c r="H14" s="14" t="n">
-        <v>0.1112</v>
+        <v>0</v>
       </c>
       <c r="I14" s="14" t="n">
-        <v>0.1108</v>
+        <v>0</v>
       </c>
       <c r="J14" s="14" t="n">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="K14" s="14" t="n">
-        <v>0.1024</v>
+        <v>0</v>
       </c>
       <c r="L14" s="14" t="n">
-        <v>0.1011</v>
+        <v>0.0159</v>
       </c>
       <c r="M14" s="14" t="n">
-        <v>0.0982</v>
+        <v>0.1164</v>
       </c>
       <c r="N14" s="14" t="n">
-        <v>0.0945</v>
+        <v>0.2989</v>
       </c>
       <c r="O14" s="14" t="n">
-        <v>0.0927</v>
+        <v>0.4991</v>
       </c>
       <c r="P14" s="14" t="n">
-        <v>0.0901</v>
+        <v>0.6634</v>
       </c>
       <c r="Q14" s="14" t="n">
-        <v>0.0892</v>
+        <v>0.775</v>
       </c>
       <c r="R14" s="14" t="n">
-        <v>0.0934</v>
+        <v>0.8305</v>
       </c>
       <c r="S14" s="14" t="n">
-        <v>0.1037</v>
+        <v>0.8318</v>
       </c>
       <c r="T14" s="14" t="n">
-        <v>0.1185</v>
+        <v>0.7805</v>
       </c>
       <c r="U14" s="14" t="n">
-        <v>0.1356</v>
+        <v>0.6788999999999999</v>
       </c>
       <c r="V14" s="14" t="n">
-        <v>0.1495</v>
+        <v>0.5316</v>
       </c>
       <c r="W14" s="14" t="n">
-        <v>0.1595</v>
+        <v>0.3525</v>
       </c>
       <c r="X14" s="14" t="n">
-        <v>0.1635</v>
+        <v>0.1697</v>
       </c>
       <c r="Y14" s="14" t="n">
-        <v>0.1604</v>
+        <v>0.0447</v>
       </c>
       <c r="Z14" s="14" t="n">
-        <v>0.1509</v>
+        <v>0.0016</v>
       </c>
       <c r="AA14" s="14" t="n">
-        <v>0.1385</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="14" t="n">
-        <v>0.1276</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="14" t="n">
-        <v>0.1224</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="14" t="n">
-        <v>0.1213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2002,7 +2002,7 @@
       </c>
       <c r="D15" s="12" t="inlineStr">
         <is>
-          <t>Wind2</t>
+          <t>PV Trumau</t>
         </is>
       </c>
       <c r="E15" s="13" t="inlineStr">
@@ -2016,76 +2016,76 @@
         </is>
       </c>
       <c r="G15" s="14" t="n">
-        <v>0.1127</v>
+        <v>0</v>
       </c>
       <c r="H15" s="14" t="n">
-        <v>0.1112</v>
+        <v>0</v>
       </c>
       <c r="I15" s="14" t="n">
-        <v>0.1108</v>
+        <v>0</v>
       </c>
       <c r="J15" s="14" t="n">
-        <v>0.106</v>
+        <v>0</v>
       </c>
       <c r="K15" s="14" t="n">
-        <v>0.1024</v>
+        <v>0</v>
       </c>
       <c r="L15" s="14" t="n">
-        <v>0.1011</v>
+        <v>0.0159</v>
       </c>
       <c r="M15" s="14" t="n">
-        <v>0.0982</v>
+        <v>0.1164</v>
       </c>
       <c r="N15" s="14" t="n">
-        <v>0.0945</v>
+        <v>0.2989</v>
       </c>
       <c r="O15" s="14" t="n">
-        <v>0.0927</v>
+        <v>0.4991</v>
       </c>
       <c r="P15" s="14" t="n">
-        <v>0.0901</v>
+        <v>0.6634</v>
       </c>
       <c r="Q15" s="14" t="n">
-        <v>0.0892</v>
+        <v>0.775</v>
       </c>
       <c r="R15" s="14" t="n">
-        <v>0.0934</v>
+        <v>0.8305</v>
       </c>
       <c r="S15" s="14" t="n">
-        <v>0.1037</v>
+        <v>0.8318</v>
       </c>
       <c r="T15" s="14" t="n">
-        <v>0.1185</v>
+        <v>0.7805</v>
       </c>
       <c r="U15" s="14" t="n">
-        <v>0.1356</v>
+        <v>0.6788999999999999</v>
       </c>
       <c r="V15" s="14" t="n">
-        <v>0.1495</v>
+        <v>0.5316</v>
       </c>
       <c r="W15" s="14" t="n">
-        <v>0.1595</v>
+        <v>0.3525</v>
       </c>
       <c r="X15" s="14" t="n">
-        <v>0.1635</v>
+        <v>0.1697</v>
       </c>
       <c r="Y15" s="14" t="n">
-        <v>0.1604</v>
+        <v>0.0447</v>
       </c>
       <c r="Z15" s="14" t="n">
-        <v>0.1509</v>
+        <v>0.0016</v>
       </c>
       <c r="AA15" s="14" t="n">
-        <v>0.1385</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="14" t="n">
-        <v>0.1276</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="14" t="n">
-        <v>0.1224</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="14" t="n">
-        <v>0.1213</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="C16" s="12" t="inlineStr">
         <is>
-          <t>rp03</t>
+          <t>rp02</t>
         </is>
       </c>
       <c r="D16" s="12" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>Wind</t>
         </is>
       </c>
       <c r="E16" s="13" t="inlineStr">
@@ -2113,76 +2113,76 @@
         </is>
       </c>
       <c r="G16" s="14" t="n">
-        <v>0</v>
+        <v>0.1127</v>
       </c>
       <c r="H16" s="14" t="n">
-        <v>0</v>
+        <v>0.1112</v>
       </c>
       <c r="I16" s="14" t="n">
-        <v>0</v>
+        <v>0.1108</v>
       </c>
       <c r="J16" s="14" t="n">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="K16" s="14" t="n">
-        <v>0</v>
+        <v>0.1024</v>
       </c>
       <c r="L16" s="14" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.1011</v>
       </c>
       <c r="M16" s="14" t="n">
-        <v>0.0417</v>
+        <v>0.0982</v>
       </c>
       <c r="N16" s="14" t="n">
-        <v>0.1946</v>
+        <v>0.0945</v>
       </c>
       <c r="O16" s="14" t="n">
-        <v>0.4</v>
+        <v>0.0927</v>
       </c>
       <c r="P16" s="14" t="n">
-        <v>0.5848</v>
+        <v>0.0901</v>
       </c>
       <c r="Q16" s="14" t="n">
-        <v>0.7179</v>
+        <v>0.0892</v>
       </c>
       <c r="R16" s="14" t="n">
-        <v>0.7868000000000001</v>
+        <v>0.0934</v>
       </c>
       <c r="S16" s="14" t="n">
-        <v>0.7936</v>
+        <v>0.1037</v>
       </c>
       <c r="T16" s="14" t="n">
-        <v>0.736</v>
+        <v>0.1185</v>
       </c>
       <c r="U16" s="14" t="n">
-        <v>0.6224</v>
+        <v>0.1356</v>
       </c>
       <c r="V16" s="14" t="n">
-        <v>0.4585</v>
+        <v>0.1495</v>
       </c>
       <c r="W16" s="14" t="n">
-        <v>0.2659</v>
+        <v>0.1595</v>
       </c>
       <c r="X16" s="14" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.1635</v>
       </c>
       <c r="Y16" s="14" t="n">
-        <v>0.0072</v>
+        <v>0.1604</v>
       </c>
       <c r="Z16" s="14" t="n">
-        <v>0</v>
+        <v>0.1509</v>
       </c>
       <c r="AA16" s="14" t="n">
-        <v>0</v>
+        <v>0.1385</v>
       </c>
       <c r="AB16" s="14" t="n">
-        <v>0</v>
+        <v>0.1276</v>
       </c>
       <c r="AC16" s="14" t="n">
-        <v>0</v>
+        <v>0.1224</v>
       </c>
       <c r="AD16" s="14" t="n">
-        <v>0</v>
+        <v>0.1213</v>
       </c>
     </row>
     <row r="17">
@@ -2191,12 +2191,12 @@
       </c>
       <c r="C17" s="12" t="inlineStr">
         <is>
-          <t>rp03</t>
+          <t>rp02</t>
         </is>
       </c>
       <c r="D17" s="12" t="inlineStr">
         <is>
-          <t>Solar2</t>
+          <t>Wind2</t>
         </is>
       </c>
       <c r="E17" s="13" t="inlineStr">
@@ -2210,76 +2210,76 @@
         </is>
       </c>
       <c r="G17" s="14" t="n">
-        <v>0</v>
+        <v>0.1127</v>
       </c>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>0.1112</v>
       </c>
       <c r="I17" s="14" t="n">
-        <v>0</v>
+        <v>0.1108</v>
       </c>
       <c r="J17" s="14" t="n">
-        <v>0</v>
+        <v>0.106</v>
       </c>
       <c r="K17" s="14" t="n">
-        <v>0</v>
+        <v>0.1024</v>
       </c>
       <c r="L17" s="14" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.1011</v>
       </c>
       <c r="M17" s="14" t="n">
-        <v>0.0417</v>
+        <v>0.0982</v>
       </c>
       <c r="N17" s="14" t="n">
-        <v>0.1946</v>
+        <v>0.0945</v>
       </c>
       <c r="O17" s="14" t="n">
-        <v>0.4</v>
+        <v>0.0927</v>
       </c>
       <c r="P17" s="14" t="n">
-        <v>0.5848</v>
+        <v>0.0901</v>
       </c>
       <c r="Q17" s="14" t="n">
-        <v>0.7179</v>
+        <v>0.0892</v>
       </c>
       <c r="R17" s="14" t="n">
-        <v>0.7868000000000001</v>
+        <v>0.0934</v>
       </c>
       <c r="S17" s="14" t="n">
-        <v>0.7936</v>
+        <v>0.1037</v>
       </c>
       <c r="T17" s="14" t="n">
-        <v>0.736</v>
+        <v>0.1185</v>
       </c>
       <c r="U17" s="14" t="n">
-        <v>0.6224</v>
+        <v>0.1356</v>
       </c>
       <c r="V17" s="14" t="n">
-        <v>0.4585</v>
+        <v>0.1495</v>
       </c>
       <c r="W17" s="14" t="n">
-        <v>0.2659</v>
+        <v>0.1595</v>
       </c>
       <c r="X17" s="14" t="n">
-        <v>0.09089999999999999</v>
+        <v>0.1635</v>
       </c>
       <c r="Y17" s="14" t="n">
-        <v>0.0072</v>
+        <v>0.1604</v>
       </c>
       <c r="Z17" s="14" t="n">
-        <v>0</v>
+        <v>0.1509</v>
       </c>
       <c r="AA17" s="14" t="n">
-        <v>0</v>
+        <v>0.1385</v>
       </c>
       <c r="AB17" s="14" t="n">
-        <v>0</v>
+        <v>0.1276</v>
       </c>
       <c r="AC17" s="14" t="n">
-        <v>0</v>
+        <v>0.1224</v>
       </c>
       <c r="AD17" s="14" t="n">
-        <v>0</v>
+        <v>0.1213</v>
       </c>
     </row>
     <row r="18">
@@ -2293,7 +2293,7 @@
       </c>
       <c r="D18" s="12" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>PV OMV-Schoenkirchen</t>
         </is>
       </c>
       <c r="E18" s="13" t="inlineStr">
@@ -2307,76 +2307,76 @@
         </is>
       </c>
       <c r="G18" s="14" t="n">
-        <v>0.1482</v>
+        <v>0</v>
       </c>
       <c r="H18" s="14" t="n">
-        <v>0.1525</v>
+        <v>0</v>
       </c>
       <c r="I18" s="14" t="n">
-        <v>0.1552</v>
+        <v>0</v>
       </c>
       <c r="J18" s="14" t="n">
-        <v>0.1509</v>
+        <v>0</v>
       </c>
       <c r="K18" s="14" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="L18" s="14" t="n">
-        <v>0.1358</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="M18" s="14" t="n">
-        <v>0.1294</v>
+        <v>0.0417</v>
       </c>
       <c r="N18" s="14" t="n">
-        <v>0.1196</v>
+        <v>0.1946</v>
       </c>
       <c r="O18" s="14" t="n">
-        <v>0.109</v>
+        <v>0.4</v>
       </c>
       <c r="P18" s="14" t="n">
-        <v>0.1028</v>
+        <v>0.5848</v>
       </c>
       <c r="Q18" s="14" t="n">
-        <v>0.1017</v>
+        <v>0.7179</v>
       </c>
       <c r="R18" s="14" t="n">
-        <v>0.104</v>
+        <v>0.7868000000000001</v>
       </c>
       <c r="S18" s="14" t="n">
-        <v>0.1079</v>
+        <v>0.7936</v>
       </c>
       <c r="T18" s="14" t="n">
-        <v>0.1126</v>
+        <v>0.736</v>
       </c>
       <c r="U18" s="14" t="n">
-        <v>0.1193</v>
+        <v>0.6224</v>
       </c>
       <c r="V18" s="14" t="n">
-        <v>0.1276</v>
+        <v>0.4585</v>
       </c>
       <c r="W18" s="14" t="n">
-        <v>0.1359</v>
+        <v>0.2659</v>
       </c>
       <c r="X18" s="14" t="n">
-        <v>0.1434</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="Y18" s="14" t="n">
-        <v>0.1494</v>
+        <v>0.0072</v>
       </c>
       <c r="Z18" s="14" t="n">
-        <v>0.1504</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="14" t="n">
-        <v>0.1475</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="14" t="n">
-        <v>0.1477</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="14" t="n">
-        <v>0.1523</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="14" t="n">
-        <v>0.1594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>Wind2</t>
+          <t>PV Schafflerhofstraße</t>
         </is>
       </c>
       <c r="E19" s="13" t="inlineStr">
@@ -2404,76 +2404,76 @@
         </is>
       </c>
       <c r="G19" s="14" t="n">
-        <v>0.1482</v>
+        <v>0</v>
       </c>
       <c r="H19" s="14" t="n">
-        <v>0.1525</v>
+        <v>0</v>
       </c>
       <c r="I19" s="14" t="n">
-        <v>0.1552</v>
+        <v>0</v>
       </c>
       <c r="J19" s="14" t="n">
-        <v>0.1509</v>
+        <v>0</v>
       </c>
       <c r="K19" s="14" t="n">
-        <v>0.143</v>
+        <v>0</v>
       </c>
       <c r="L19" s="14" t="n">
-        <v>0.1358</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="M19" s="14" t="n">
-        <v>0.1294</v>
+        <v>0.0417</v>
       </c>
       <c r="N19" s="14" t="n">
-        <v>0.1196</v>
+        <v>0.1946</v>
       </c>
       <c r="O19" s="14" t="n">
-        <v>0.109</v>
+        <v>0.4</v>
       </c>
       <c r="P19" s="14" t="n">
-        <v>0.1028</v>
+        <v>0.5848</v>
       </c>
       <c r="Q19" s="14" t="n">
-        <v>0.1017</v>
+        <v>0.7179</v>
       </c>
       <c r="R19" s="14" t="n">
-        <v>0.104</v>
+        <v>0.7868000000000001</v>
       </c>
       <c r="S19" s="14" t="n">
-        <v>0.1079</v>
+        <v>0.7936</v>
       </c>
       <c r="T19" s="14" t="n">
-        <v>0.1126</v>
+        <v>0.736</v>
       </c>
       <c r="U19" s="14" t="n">
-        <v>0.1193</v>
+        <v>0.6224</v>
       </c>
       <c r="V19" s="14" t="n">
-        <v>0.1276</v>
+        <v>0.4585</v>
       </c>
       <c r="W19" s="14" t="n">
-        <v>0.1359</v>
+        <v>0.2659</v>
       </c>
       <c r="X19" s="14" t="n">
-        <v>0.1434</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="Y19" s="14" t="n">
-        <v>0.1494</v>
+        <v>0.0072</v>
       </c>
       <c r="Z19" s="14" t="n">
-        <v>0.1504</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="14" t="n">
-        <v>0.1475</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="14" t="n">
-        <v>0.1477</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="14" t="n">
-        <v>0.1523</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="14" t="n">
-        <v>0.1594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2482,12 +2482,12 @@
       </c>
       <c r="C20" s="12" t="inlineStr">
         <is>
-          <t>rp04</t>
+          <t>rp03</t>
         </is>
       </c>
       <c r="D20" s="12" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>PV Trumau</t>
         </is>
       </c>
       <c r="E20" s="13" t="inlineStr">
@@ -2516,46 +2516,46 @@
         <v>0</v>
       </c>
       <c r="L20" s="14" t="n">
-        <v>0.0002</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="M20" s="14" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.0417</v>
       </c>
       <c r="N20" s="14" t="n">
-        <v>0.0664</v>
+        <v>0.1946</v>
       </c>
       <c r="O20" s="14" t="n">
-        <v>0.2012</v>
+        <v>0.4</v>
       </c>
       <c r="P20" s="14" t="n">
-        <v>0.3609</v>
+        <v>0.5848</v>
       </c>
       <c r="Q20" s="14" t="n">
-        <v>0.4966</v>
+        <v>0.7179</v>
       </c>
       <c r="R20" s="14" t="n">
-        <v>0.5743</v>
+        <v>0.7868000000000001</v>
       </c>
       <c r="S20" s="14" t="n">
-        <v>0.5875</v>
+        <v>0.7936</v>
       </c>
       <c r="T20" s="14" t="n">
-        <v>0.5392</v>
+        <v>0.736</v>
       </c>
       <c r="U20" s="14" t="n">
-        <v>0.4379</v>
+        <v>0.6224</v>
       </c>
       <c r="V20" s="14" t="n">
-        <v>0.2928</v>
+        <v>0.4585</v>
       </c>
       <c r="W20" s="14" t="n">
-        <v>0.1313</v>
+        <v>0.2659</v>
       </c>
       <c r="X20" s="14" t="n">
-        <v>0.0278</v>
+        <v>0.09089999999999999</v>
       </c>
       <c r="Y20" s="14" t="n">
-        <v>0.0021</v>
+        <v>0.0072</v>
       </c>
       <c r="Z20" s="14" t="n">
         <v>0</v>
@@ -2579,12 +2579,12 @@
       </c>
       <c r="C21" s="12" t="inlineStr">
         <is>
-          <t>rp04</t>
+          <t>rp03</t>
         </is>
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>Solar2</t>
+          <t>Wind</t>
         </is>
       </c>
       <c r="E21" s="13" t="inlineStr">
@@ -2598,76 +2598,76 @@
         </is>
       </c>
       <c r="G21" s="14" t="n">
-        <v>0</v>
+        <v>0.1482</v>
       </c>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>0.1525</v>
       </c>
       <c r="I21" s="14" t="n">
-        <v>0</v>
+        <v>0.1552</v>
       </c>
       <c r="J21" s="14" t="n">
-        <v>0</v>
+        <v>0.1509</v>
       </c>
       <c r="K21" s="14" t="n">
-        <v>0</v>
+        <v>0.143</v>
       </c>
       <c r="L21" s="14" t="n">
-        <v>0.0002</v>
+        <v>0.1358</v>
       </c>
       <c r="M21" s="14" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.1294</v>
       </c>
       <c r="N21" s="14" t="n">
-        <v>0.0664</v>
+        <v>0.1196</v>
       </c>
       <c r="O21" s="14" t="n">
-        <v>0.2012</v>
+        <v>0.109</v>
       </c>
       <c r="P21" s="14" t="n">
-        <v>0.3609</v>
+        <v>0.1028</v>
       </c>
       <c r="Q21" s="14" t="n">
-        <v>0.4966</v>
+        <v>0.1017</v>
       </c>
       <c r="R21" s="14" t="n">
-        <v>0.5743</v>
+        <v>0.104</v>
       </c>
       <c r="S21" s="14" t="n">
-        <v>0.5875</v>
+        <v>0.1079</v>
       </c>
       <c r="T21" s="14" t="n">
-        <v>0.5392</v>
+        <v>0.1126</v>
       </c>
       <c r="U21" s="14" t="n">
-        <v>0.4379</v>
+        <v>0.1193</v>
       </c>
       <c r="V21" s="14" t="n">
-        <v>0.2928</v>
+        <v>0.1276</v>
       </c>
       <c r="W21" s="14" t="n">
-        <v>0.1313</v>
+        <v>0.1359</v>
       </c>
       <c r="X21" s="14" t="n">
-        <v>0.0278</v>
+        <v>0.1434</v>
       </c>
       <c r="Y21" s="14" t="n">
-        <v>0.0021</v>
+        <v>0.1494</v>
       </c>
       <c r="Z21" s="14" t="n">
-        <v>0</v>
+        <v>0.1504</v>
       </c>
       <c r="AA21" s="14" t="n">
-        <v>0</v>
+        <v>0.1475</v>
       </c>
       <c r="AB21" s="14" t="n">
-        <v>0</v>
+        <v>0.1477</v>
       </c>
       <c r="AC21" s="14" t="n">
-        <v>0</v>
+        <v>0.1523</v>
       </c>
       <c r="AD21" s="14" t="n">
-        <v>0</v>
+        <v>0.1594</v>
       </c>
     </row>
     <row r="22">
@@ -2676,12 +2676,12 @@
       </c>
       <c r="C22" s="12" t="inlineStr">
         <is>
-          <t>rp04</t>
+          <t>rp03</t>
         </is>
       </c>
       <c r="D22" s="12" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>Wind2</t>
         </is>
       </c>
       <c r="E22" s="13" t="inlineStr">
@@ -2695,76 +2695,76 @@
         </is>
       </c>
       <c r="G22" s="14" t="n">
-        <v>0.5401</v>
+        <v>0.1482</v>
       </c>
       <c r="H22" s="14" t="n">
-        <v>0.5355</v>
+        <v>0.1525</v>
       </c>
       <c r="I22" s="14" t="n">
-        <v>0.5272</v>
+        <v>0.1552</v>
       </c>
       <c r="J22" s="14" t="n">
-        <v>0.5183</v>
+        <v>0.1509</v>
       </c>
       <c r="K22" s="14" t="n">
-        <v>0.5078</v>
+        <v>0.143</v>
       </c>
       <c r="L22" s="14" t="n">
-        <v>0.4951</v>
+        <v>0.1358</v>
       </c>
       <c r="M22" s="14" t="n">
-        <v>0.4839</v>
+        <v>0.1294</v>
       </c>
       <c r="N22" s="14" t="n">
-        <v>0.4734</v>
+        <v>0.1196</v>
       </c>
       <c r="O22" s="14" t="n">
-        <v>0.4615</v>
+        <v>0.109</v>
       </c>
       <c r="P22" s="14" t="n">
-        <v>0.4544</v>
+        <v>0.1028</v>
       </c>
       <c r="Q22" s="14" t="n">
-        <v>0.4543</v>
+        <v>0.1017</v>
       </c>
       <c r="R22" s="14" t="n">
-        <v>0.4465</v>
+        <v>0.104</v>
       </c>
       <c r="S22" s="14" t="n">
-        <v>0.4294</v>
+        <v>0.1079</v>
       </c>
       <c r="T22" s="14" t="n">
-        <v>0.4051</v>
+        <v>0.1126</v>
       </c>
       <c r="U22" s="14" t="n">
-        <v>0.3784</v>
+        <v>0.1193</v>
       </c>
       <c r="V22" s="14" t="n">
-        <v>0.3546</v>
+        <v>0.1276</v>
       </c>
       <c r="W22" s="14" t="n">
-        <v>0.3431</v>
+        <v>0.1359</v>
       </c>
       <c r="X22" s="14" t="n">
-        <v>0.3493</v>
+        <v>0.1434</v>
       </c>
       <c r="Y22" s="14" t="n">
-        <v>0.3637</v>
+        <v>0.1494</v>
       </c>
       <c r="Z22" s="14" t="n">
-        <v>0.3833</v>
+        <v>0.1504</v>
       </c>
       <c r="AA22" s="14" t="n">
-        <v>0.4057</v>
+        <v>0.1475</v>
       </c>
       <c r="AB22" s="14" t="n">
-        <v>0.4303</v>
+        <v>0.1477</v>
       </c>
       <c r="AC22" s="14" t="n">
-        <v>0.4552</v>
+        <v>0.1523</v>
       </c>
       <c r="AD22" s="14" t="n">
-        <v>0.4794</v>
+        <v>0.1594</v>
       </c>
     </row>
     <row r="23">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>Wind2</t>
+          <t>PV OMV-Schoenkirchen</t>
         </is>
       </c>
       <c r="E23" s="13" t="inlineStr">
@@ -2792,76 +2792,76 @@
         </is>
       </c>
       <c r="G23" s="14" t="n">
-        <v>0.5401</v>
+        <v>0</v>
       </c>
       <c r="H23" s="14" t="n">
-        <v>0.5355</v>
+        <v>0</v>
       </c>
       <c r="I23" s="14" t="n">
-        <v>0.5272</v>
+        <v>0</v>
       </c>
       <c r="J23" s="14" t="n">
-        <v>0.5183</v>
+        <v>0</v>
       </c>
       <c r="K23" s="14" t="n">
-        <v>0.5078</v>
+        <v>0</v>
       </c>
       <c r="L23" s="14" t="n">
-        <v>0.4951</v>
+        <v>0.0002</v>
       </c>
       <c r="M23" s="14" t="n">
-        <v>0.4839</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="N23" s="14" t="n">
-        <v>0.4734</v>
+        <v>0.0664</v>
       </c>
       <c r="O23" s="14" t="n">
-        <v>0.4615</v>
+        <v>0.2012</v>
       </c>
       <c r="P23" s="14" t="n">
-        <v>0.4544</v>
+        <v>0.3609</v>
       </c>
       <c r="Q23" s="14" t="n">
-        <v>0.4543</v>
+        <v>0.4966</v>
       </c>
       <c r="R23" s="14" t="n">
-        <v>0.4465</v>
+        <v>0.5743</v>
       </c>
       <c r="S23" s="14" t="n">
-        <v>0.4294</v>
+        <v>0.5875</v>
       </c>
       <c r="T23" s="14" t="n">
-        <v>0.4051</v>
+        <v>0.5392</v>
       </c>
       <c r="U23" s="14" t="n">
-        <v>0.3784</v>
+        <v>0.4379</v>
       </c>
       <c r="V23" s="14" t="n">
-        <v>0.3546</v>
+        <v>0.2928</v>
       </c>
       <c r="W23" s="14" t="n">
-        <v>0.3431</v>
+        <v>0.1313</v>
       </c>
       <c r="X23" s="14" t="n">
-        <v>0.3493</v>
+        <v>0.0278</v>
       </c>
       <c r="Y23" s="14" t="n">
-        <v>0.3637</v>
+        <v>0.0021</v>
       </c>
       <c r="Z23" s="14" t="n">
-        <v>0.3833</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="14" t="n">
-        <v>0.4057</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="14" t="n">
-        <v>0.4303</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="14" t="n">
-        <v>0.4552</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="14" t="n">
-        <v>0.4794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2870,12 +2870,12 @@
       </c>
       <c r="C24" s="12" t="inlineStr">
         <is>
-          <t>rp05</t>
+          <t>rp04</t>
         </is>
       </c>
       <c r="D24" s="12" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>PV Schafflerhofstraße</t>
         </is>
       </c>
       <c r="E24" s="13" t="inlineStr">
@@ -2904,49 +2904,49 @@
         <v>0</v>
       </c>
       <c r="L24" s="14" t="n">
-        <v>0.0178</v>
+        <v>0.0002</v>
       </c>
       <c r="M24" s="14" t="n">
-        <v>0.1158</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="N24" s="14" t="n">
-        <v>0.2976</v>
+        <v>0.0664</v>
       </c>
       <c r="O24" s="14" t="n">
-        <v>0.5044999999999999</v>
+        <v>0.2012</v>
       </c>
       <c r="P24" s="14" t="n">
-        <v>0.6777</v>
+        <v>0.3609</v>
       </c>
       <c r="Q24" s="14" t="n">
-        <v>0.7963</v>
+        <v>0.4966</v>
       </c>
       <c r="R24" s="14" t="n">
-        <v>0.8569</v>
+        <v>0.5743</v>
       </c>
       <c r="S24" s="14" t="n">
-        <v>0.8613</v>
+        <v>0.5875</v>
       </c>
       <c r="T24" s="14" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.5392</v>
       </c>
       <c r="U24" s="14" t="n">
-        <v>0.7078</v>
+        <v>0.4379</v>
       </c>
       <c r="V24" s="14" t="n">
-        <v>0.5569</v>
+        <v>0.2928</v>
       </c>
       <c r="W24" s="14" t="n">
-        <v>0.3709</v>
+        <v>0.1313</v>
       </c>
       <c r="X24" s="14" t="n">
-        <v>0.1781</v>
+        <v>0.0278</v>
       </c>
       <c r="Y24" s="14" t="n">
-        <v>0.0514</v>
+        <v>0.0021</v>
       </c>
       <c r="Z24" s="14" t="n">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="14" t="n">
         <v>0</v>
@@ -2967,12 +2967,12 @@
       </c>
       <c r="C25" s="12" t="inlineStr">
         <is>
-          <t>rp05</t>
+          <t>rp04</t>
         </is>
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>Solar2</t>
+          <t>PV Trumau</t>
         </is>
       </c>
       <c r="E25" s="13" t="inlineStr">
@@ -3001,49 +3001,49 @@
         <v>0</v>
       </c>
       <c r="L25" s="14" t="n">
-        <v>0.0178</v>
+        <v>0.0002</v>
       </c>
       <c r="M25" s="14" t="n">
-        <v>0.1158</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="N25" s="14" t="n">
-        <v>0.2976</v>
+        <v>0.0664</v>
       </c>
       <c r="O25" s="14" t="n">
-        <v>0.5044999999999999</v>
+        <v>0.2012</v>
       </c>
       <c r="P25" s="14" t="n">
-        <v>0.6777</v>
+        <v>0.3609</v>
       </c>
       <c r="Q25" s="14" t="n">
-        <v>0.7963</v>
+        <v>0.4966</v>
       </c>
       <c r="R25" s="14" t="n">
-        <v>0.8569</v>
+        <v>0.5743</v>
       </c>
       <c r="S25" s="14" t="n">
-        <v>0.8613</v>
+        <v>0.5875</v>
       </c>
       <c r="T25" s="14" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.5392</v>
       </c>
       <c r="U25" s="14" t="n">
-        <v>0.7078</v>
+        <v>0.4379</v>
       </c>
       <c r="V25" s="14" t="n">
-        <v>0.5569</v>
+        <v>0.2928</v>
       </c>
       <c r="W25" s="14" t="n">
-        <v>0.3709</v>
+        <v>0.1313</v>
       </c>
       <c r="X25" s="14" t="n">
-        <v>0.1781</v>
+        <v>0.0278</v>
       </c>
       <c r="Y25" s="14" t="n">
-        <v>0.0514</v>
+        <v>0.0021</v>
       </c>
       <c r="Z25" s="14" t="n">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="14" t="n">
         <v>0</v>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C26" s="12" t="inlineStr">
         <is>
-          <t>rp05</t>
+          <t>rp04</t>
         </is>
       </c>
       <c r="D26" s="12" t="inlineStr">
@@ -3083,76 +3083,76 @@
         </is>
       </c>
       <c r="G26" s="14" t="n">
-        <v>0.3282</v>
+        <v>0.5401</v>
       </c>
       <c r="H26" s="14" t="n">
-        <v>0.3436</v>
+        <v>0.5355</v>
       </c>
       <c r="I26" s="14" t="n">
-        <v>0.3601</v>
+        <v>0.5272</v>
       </c>
       <c r="J26" s="14" t="n">
-        <v>0.3678</v>
+        <v>0.5183</v>
       </c>
       <c r="K26" s="14" t="n">
-        <v>0.3731</v>
+        <v>0.5078</v>
       </c>
       <c r="L26" s="14" t="n">
-        <v>0.3781</v>
+        <v>0.4951</v>
       </c>
       <c r="M26" s="14" t="n">
-        <v>0.3827</v>
+        <v>0.4839</v>
       </c>
       <c r="N26" s="14" t="n">
-        <v>0.3919</v>
+        <v>0.4734</v>
       </c>
       <c r="O26" s="14" t="n">
-        <v>0.4068</v>
+        <v>0.4615</v>
       </c>
       <c r="P26" s="14" t="n">
-        <v>0.4308</v>
+        <v>0.4544</v>
       </c>
       <c r="Q26" s="14" t="n">
-        <v>0.4542</v>
+        <v>0.4543</v>
       </c>
       <c r="R26" s="14" t="n">
-        <v>0.4695</v>
+        <v>0.4465</v>
       </c>
       <c r="S26" s="14" t="n">
-        <v>0.4741</v>
+        <v>0.4294</v>
       </c>
       <c r="T26" s="14" t="n">
-        <v>0.4695</v>
+        <v>0.4051</v>
       </c>
       <c r="U26" s="14" t="n">
-        <v>0.4585</v>
+        <v>0.3784</v>
       </c>
       <c r="V26" s="14" t="n">
-        <v>0.4369</v>
+        <v>0.3546</v>
       </c>
       <c r="W26" s="14" t="n">
-        <v>0.4063</v>
+        <v>0.3431</v>
       </c>
       <c r="X26" s="14" t="n">
-        <v>0.3762</v>
+        <v>0.3493</v>
       </c>
       <c r="Y26" s="14" t="n">
-        <v>0.3458</v>
+        <v>0.3637</v>
       </c>
       <c r="Z26" s="14" t="n">
-        <v>0.3172</v>
+        <v>0.3833</v>
       </c>
       <c r="AA26" s="14" t="n">
-        <v>0.2978</v>
+        <v>0.4057</v>
       </c>
       <c r="AB26" s="14" t="n">
-        <v>0.2914</v>
+        <v>0.4303</v>
       </c>
       <c r="AC26" s="14" t="n">
-        <v>0.2906</v>
+        <v>0.4552</v>
       </c>
       <c r="AD26" s="14" t="n">
-        <v>0.2898</v>
+        <v>0.4794</v>
       </c>
     </row>
     <row r="27">
@@ -3161,7 +3161,7 @@
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>rp05</t>
+          <t>rp04</t>
         </is>
       </c>
       <c r="D27" s="12" t="inlineStr">
@@ -3180,76 +3180,76 @@
         </is>
       </c>
       <c r="G27" s="14" t="n">
-        <v>0.3282</v>
+        <v>0.5401</v>
       </c>
       <c r="H27" s="14" t="n">
-        <v>0.3436</v>
+        <v>0.5355</v>
       </c>
       <c r="I27" s="14" t="n">
-        <v>0.3601</v>
+        <v>0.5272</v>
       </c>
       <c r="J27" s="14" t="n">
-        <v>0.3678</v>
+        <v>0.5183</v>
       </c>
       <c r="K27" s="14" t="n">
-        <v>0.3731</v>
+        <v>0.5078</v>
       </c>
       <c r="L27" s="14" t="n">
-        <v>0.3781</v>
+        <v>0.4951</v>
       </c>
       <c r="M27" s="14" t="n">
-        <v>0.3827</v>
+        <v>0.4839</v>
       </c>
       <c r="N27" s="14" t="n">
-        <v>0.3919</v>
+        <v>0.4734</v>
       </c>
       <c r="O27" s="14" t="n">
-        <v>0.4068</v>
+        <v>0.4615</v>
       </c>
       <c r="P27" s="14" t="n">
-        <v>0.4308</v>
+        <v>0.4544</v>
       </c>
       <c r="Q27" s="14" t="n">
-        <v>0.4542</v>
+        <v>0.4543</v>
       </c>
       <c r="R27" s="14" t="n">
-        <v>0.4695</v>
+        <v>0.4465</v>
       </c>
       <c r="S27" s="14" t="n">
-        <v>0.4741</v>
+        <v>0.4294</v>
       </c>
       <c r="T27" s="14" t="n">
-        <v>0.4695</v>
+        <v>0.4051</v>
       </c>
       <c r="U27" s="14" t="n">
-        <v>0.4585</v>
+        <v>0.3784</v>
       </c>
       <c r="V27" s="14" t="n">
-        <v>0.4369</v>
+        <v>0.3546</v>
       </c>
       <c r="W27" s="14" t="n">
-        <v>0.4063</v>
+        <v>0.3431</v>
       </c>
       <c r="X27" s="14" t="n">
-        <v>0.3762</v>
+        <v>0.3493</v>
       </c>
       <c r="Y27" s="14" t="n">
-        <v>0.3458</v>
+        <v>0.3637</v>
       </c>
       <c r="Z27" s="14" t="n">
-        <v>0.3172</v>
+        <v>0.3833</v>
       </c>
       <c r="AA27" s="14" t="n">
-        <v>0.2978</v>
+        <v>0.4057</v>
       </c>
       <c r="AB27" s="14" t="n">
-        <v>0.2914</v>
+        <v>0.4303</v>
       </c>
       <c r="AC27" s="14" t="n">
-        <v>0.2906</v>
+        <v>0.4552</v>
       </c>
       <c r="AD27" s="14" t="n">
-        <v>0.2898</v>
+        <v>0.4794</v>
       </c>
     </row>
     <row r="28">
@@ -3258,12 +3258,12 @@
       </c>
       <c r="C28" s="12" t="inlineStr">
         <is>
-          <t>rp06</t>
+          <t>rp05</t>
         </is>
       </c>
       <c r="D28" s="12" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>PV OMV-Schoenkirchen</t>
         </is>
       </c>
       <c r="E28" s="13" t="inlineStr">
@@ -3292,49 +3292,49 @@
         <v>0</v>
       </c>
       <c r="L28" s="14" t="n">
-        <v>0</v>
+        <v>0.0178</v>
       </c>
       <c r="M28" s="14" t="n">
-        <v>0</v>
+        <v>0.1158</v>
       </c>
       <c r="N28" s="14" t="n">
-        <v>0.0052</v>
+        <v>0.2976</v>
       </c>
       <c r="O28" s="14" t="n">
-        <v>0.1151</v>
+        <v>0.5044999999999999</v>
       </c>
       <c r="P28" s="14" t="n">
-        <v>0.277</v>
+        <v>0.6777</v>
       </c>
       <c r="Q28" s="14" t="n">
-        <v>0.4185</v>
+        <v>0.7963</v>
       </c>
       <c r="R28" s="14" t="n">
-        <v>0.5053</v>
+        <v>0.8569</v>
       </c>
       <c r="S28" s="14" t="n">
-        <v>0.5345</v>
+        <v>0.8613</v>
       </c>
       <c r="T28" s="14" t="n">
-        <v>0.4977</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="U28" s="14" t="n">
-        <v>0.3955</v>
+        <v>0.7078</v>
       </c>
       <c r="V28" s="14" t="n">
-        <v>0.2324</v>
+        <v>0.5569</v>
       </c>
       <c r="W28" s="14" t="n">
-        <v>0.0495</v>
+        <v>0.3709</v>
       </c>
       <c r="X28" s="14" t="n">
-        <v>0</v>
+        <v>0.1781</v>
       </c>
       <c r="Y28" s="14" t="n">
-        <v>0</v>
+        <v>0.0514</v>
       </c>
       <c r="Z28" s="14" t="n">
-        <v>0</v>
+        <v>0.0021</v>
       </c>
       <c r="AA28" s="14" t="n">
         <v>0</v>
@@ -3355,12 +3355,12 @@
       </c>
       <c r="C29" s="12" t="inlineStr">
         <is>
-          <t>rp06</t>
+          <t>rp05</t>
         </is>
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>Solar2</t>
+          <t>PV Schafflerhofstraße</t>
         </is>
       </c>
       <c r="E29" s="13" t="inlineStr">
@@ -3389,49 +3389,49 @@
         <v>0</v>
       </c>
       <c r="L29" s="14" t="n">
-        <v>0</v>
+        <v>0.0178</v>
       </c>
       <c r="M29" s="14" t="n">
-        <v>0</v>
+        <v>0.1158</v>
       </c>
       <c r="N29" s="14" t="n">
-        <v>0.0052</v>
+        <v>0.2976</v>
       </c>
       <c r="O29" s="14" t="n">
-        <v>0.1151</v>
+        <v>0.5044999999999999</v>
       </c>
       <c r="P29" s="14" t="n">
-        <v>0.277</v>
+        <v>0.6777</v>
       </c>
       <c r="Q29" s="14" t="n">
-        <v>0.4185</v>
+        <v>0.7963</v>
       </c>
       <c r="R29" s="14" t="n">
-        <v>0.5053</v>
+        <v>0.8569</v>
       </c>
       <c r="S29" s="14" t="n">
-        <v>0.5345</v>
+        <v>0.8613</v>
       </c>
       <c r="T29" s="14" t="n">
-        <v>0.4977</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="U29" s="14" t="n">
-        <v>0.3955</v>
+        <v>0.7078</v>
       </c>
       <c r="V29" s="14" t="n">
-        <v>0.2324</v>
+        <v>0.5569</v>
       </c>
       <c r="W29" s="14" t="n">
-        <v>0.0495</v>
+        <v>0.3709</v>
       </c>
       <c r="X29" s="14" t="n">
-        <v>0</v>
+        <v>0.1781</v>
       </c>
       <c r="Y29" s="14" t="n">
-        <v>0</v>
+        <v>0.0514</v>
       </c>
       <c r="Z29" s="14" t="n">
-        <v>0</v>
+        <v>0.0021</v>
       </c>
       <c r="AA29" s="14" t="n">
         <v>0</v>
@@ -3452,12 +3452,12 @@
       </c>
       <c r="C30" s="12" t="inlineStr">
         <is>
-          <t>rp06</t>
+          <t>rp05</t>
         </is>
       </c>
       <c r="D30" s="12" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>PV Trumau</t>
         </is>
       </c>
       <c r="E30" s="13" t="inlineStr">
@@ -3471,76 +3471,76 @@
         </is>
       </c>
       <c r="G30" s="14" t="n">
-        <v>0.5321</v>
+        <v>0</v>
       </c>
       <c r="H30" s="14" t="n">
-        <v>0.5570000000000001</v>
+        <v>0</v>
       </c>
       <c r="I30" s="14" t="n">
-        <v>0.5796</v>
+        <v>0</v>
       </c>
       <c r="J30" s="14" t="n">
-        <v>0.5916</v>
+        <v>0</v>
       </c>
       <c r="K30" s="14" t="n">
-        <v>0.598</v>
+        <v>0</v>
       </c>
       <c r="L30" s="14" t="n">
-        <v>0.5989</v>
+        <v>0.0178</v>
       </c>
       <c r="M30" s="14" t="n">
-        <v>0.5944</v>
+        <v>0.1158</v>
       </c>
       <c r="N30" s="14" t="n">
-        <v>0.5879</v>
+        <v>0.2976</v>
       </c>
       <c r="O30" s="14" t="n">
-        <v>0.582</v>
+        <v>0.5044999999999999</v>
       </c>
       <c r="P30" s="14" t="n">
-        <v>0.5939</v>
+        <v>0.6777</v>
       </c>
       <c r="Q30" s="14" t="n">
-        <v>0.6147</v>
+        <v>0.7963</v>
       </c>
       <c r="R30" s="14" t="n">
-        <v>0.6424</v>
+        <v>0.8569</v>
       </c>
       <c r="S30" s="14" t="n">
-        <v>0.6708</v>
+        <v>0.8613</v>
       </c>
       <c r="T30" s="14" t="n">
-        <v>0.6883</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="U30" s="14" t="n">
-        <v>0.6903</v>
+        <v>0.7078</v>
       </c>
       <c r="V30" s="14" t="n">
-        <v>0.6807</v>
+        <v>0.5569</v>
       </c>
       <c r="W30" s="14" t="n">
-        <v>0.6763</v>
+        <v>0.3709</v>
       </c>
       <c r="X30" s="14" t="n">
-        <v>0.6749000000000001</v>
+        <v>0.1781</v>
       </c>
       <c r="Y30" s="14" t="n">
-        <v>0.6651</v>
+        <v>0.0514</v>
       </c>
       <c r="Z30" s="14" t="n">
-        <v>0.6466</v>
+        <v>0.0021</v>
       </c>
       <c r="AA30" s="14" t="n">
-        <v>0.6236</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="14" t="n">
-        <v>0.6048</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="14" t="n">
-        <v>0.5921999999999999</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="14" t="n">
-        <v>0.5888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3549,12 +3549,12 @@
       </c>
       <c r="C31" s="12" t="inlineStr">
         <is>
-          <t>rp06</t>
+          <t>rp05</t>
         </is>
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>Wind2</t>
+          <t>Wind</t>
         </is>
       </c>
       <c r="E31" s="13" t="inlineStr">
@@ -3568,76 +3568,76 @@
         </is>
       </c>
       <c r="G31" s="14" t="n">
-        <v>0.5321</v>
+        <v>0.3282</v>
       </c>
       <c r="H31" s="14" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.3436</v>
       </c>
       <c r="I31" s="14" t="n">
-        <v>0.5796</v>
+        <v>0.3601</v>
       </c>
       <c r="J31" s="14" t="n">
-        <v>0.5916</v>
+        <v>0.3678</v>
       </c>
       <c r="K31" s="14" t="n">
-        <v>0.598</v>
+        <v>0.3731</v>
       </c>
       <c r="L31" s="14" t="n">
-        <v>0.5989</v>
+        <v>0.3781</v>
       </c>
       <c r="M31" s="14" t="n">
-        <v>0.5944</v>
+        <v>0.3827</v>
       </c>
       <c r="N31" s="14" t="n">
-        <v>0.5879</v>
+        <v>0.3919</v>
       </c>
       <c r="O31" s="14" t="n">
-        <v>0.582</v>
+        <v>0.4068</v>
       </c>
       <c r="P31" s="14" t="n">
-        <v>0.5939</v>
+        <v>0.4308</v>
       </c>
       <c r="Q31" s="14" t="n">
-        <v>0.6147</v>
+        <v>0.4542</v>
       </c>
       <c r="R31" s="14" t="n">
-        <v>0.6424</v>
+        <v>0.4695</v>
       </c>
       <c r="S31" s="14" t="n">
-        <v>0.6708</v>
+        <v>0.4741</v>
       </c>
       <c r="T31" s="14" t="n">
-        <v>0.6883</v>
+        <v>0.4695</v>
       </c>
       <c r="U31" s="14" t="n">
-        <v>0.6903</v>
+        <v>0.4585</v>
       </c>
       <c r="V31" s="14" t="n">
-        <v>0.6807</v>
+        <v>0.4369</v>
       </c>
       <c r="W31" s="14" t="n">
-        <v>0.6763</v>
+        <v>0.4063</v>
       </c>
       <c r="X31" s="14" t="n">
-        <v>0.6749000000000001</v>
+        <v>0.3762</v>
       </c>
       <c r="Y31" s="14" t="n">
-        <v>0.6651</v>
+        <v>0.3458</v>
       </c>
       <c r="Z31" s="14" t="n">
-        <v>0.6466</v>
+        <v>0.3172</v>
       </c>
       <c r="AA31" s="14" t="n">
-        <v>0.6236</v>
+        <v>0.2978</v>
       </c>
       <c r="AB31" s="14" t="n">
-        <v>0.6048</v>
+        <v>0.2914</v>
       </c>
       <c r="AC31" s="14" t="n">
-        <v>0.5921999999999999</v>
+        <v>0.2906</v>
       </c>
       <c r="AD31" s="14" t="n">
-        <v>0.5888</v>
+        <v>0.2898</v>
       </c>
     </row>
     <row r="32">
@@ -3646,12 +3646,12 @@
       </c>
       <c r="C32" s="12" t="inlineStr">
         <is>
-          <t>rp07</t>
+          <t>rp05</t>
         </is>
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>Wind2</t>
         </is>
       </c>
       <c r="E32" s="13" t="inlineStr">
@@ -3665,76 +3665,76 @@
         </is>
       </c>
       <c r="G32" s="14" t="n">
-        <v>0</v>
+        <v>0.3282</v>
       </c>
       <c r="H32" s="14" t="n">
-        <v>0</v>
+        <v>0.3436</v>
       </c>
       <c r="I32" s="14" t="n">
-        <v>0</v>
+        <v>0.3601</v>
       </c>
       <c r="J32" s="14" t="n">
-        <v>0</v>
+        <v>0.3678</v>
       </c>
       <c r="K32" s="14" t="n">
-        <v>0</v>
+        <v>0.3731</v>
       </c>
       <c r="L32" s="14" t="n">
-        <v>0.0005</v>
+        <v>0.3781</v>
       </c>
       <c r="M32" s="14" t="n">
-        <v>0.0075</v>
+        <v>0.3827</v>
       </c>
       <c r="N32" s="14" t="n">
-        <v>0.0509</v>
+        <v>0.3919</v>
       </c>
       <c r="O32" s="14" t="n">
-        <v>0.1707</v>
+        <v>0.4068</v>
       </c>
       <c r="P32" s="14" t="n">
-        <v>0.3146</v>
+        <v>0.4308</v>
       </c>
       <c r="Q32" s="14" t="n">
-        <v>0.4354</v>
+        <v>0.4542</v>
       </c>
       <c r="R32" s="14" t="n">
-        <v>0.5067</v>
+        <v>0.4695</v>
       </c>
       <c r="S32" s="14" t="n">
-        <v>0.519</v>
+        <v>0.4741</v>
       </c>
       <c r="T32" s="14" t="n">
-        <v>0.4782</v>
+        <v>0.4695</v>
       </c>
       <c r="U32" s="14" t="n">
-        <v>0.3877</v>
+        <v>0.4585</v>
       </c>
       <c r="V32" s="14" t="n">
-        <v>0.2544</v>
+        <v>0.4369</v>
       </c>
       <c r="W32" s="14" t="n">
-        <v>0.1021</v>
+        <v>0.4063</v>
       </c>
       <c r="X32" s="14" t="n">
-        <v>0.0172</v>
+        <v>0.3762</v>
       </c>
       <c r="Y32" s="14" t="n">
-        <v>0.0023</v>
+        <v>0.3458</v>
       </c>
       <c r="Z32" s="14" t="n">
-        <v>0</v>
+        <v>0.3172</v>
       </c>
       <c r="AA32" s="14" t="n">
-        <v>0</v>
+        <v>0.2978</v>
       </c>
       <c r="AB32" s="14" t="n">
-        <v>0</v>
+        <v>0.2914</v>
       </c>
       <c r="AC32" s="14" t="n">
-        <v>0</v>
+        <v>0.2906</v>
       </c>
       <c r="AD32" s="14" t="n">
-        <v>0</v>
+        <v>0.2898</v>
       </c>
     </row>
     <row r="33">
@@ -3743,12 +3743,12 @@
       </c>
       <c r="C33" s="12" t="inlineStr">
         <is>
-          <t>rp07</t>
+          <t>rp06</t>
         </is>
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>Solar2</t>
+          <t>PV OMV-Schoenkirchen</t>
         </is>
       </c>
       <c r="E33" s="13" t="inlineStr">
@@ -3777,46 +3777,46 @@
         <v>0</v>
       </c>
       <c r="L33" s="14" t="n">
-        <v>0.0005</v>
+        <v>0</v>
       </c>
       <c r="M33" s="14" t="n">
-        <v>0.0075</v>
+        <v>0</v>
       </c>
       <c r="N33" s="14" t="n">
-        <v>0.0509</v>
+        <v>0.0052</v>
       </c>
       <c r="O33" s="14" t="n">
-        <v>0.1707</v>
+        <v>0.1151</v>
       </c>
       <c r="P33" s="14" t="n">
-        <v>0.3146</v>
+        <v>0.277</v>
       </c>
       <c r="Q33" s="14" t="n">
-        <v>0.4354</v>
+        <v>0.4185</v>
       </c>
       <c r="R33" s="14" t="n">
-        <v>0.5067</v>
+        <v>0.5053</v>
       </c>
       <c r="S33" s="14" t="n">
-        <v>0.519</v>
+        <v>0.5345</v>
       </c>
       <c r="T33" s="14" t="n">
-        <v>0.4782</v>
+        <v>0.4977</v>
       </c>
       <c r="U33" s="14" t="n">
-        <v>0.3877</v>
+        <v>0.3955</v>
       </c>
       <c r="V33" s="14" t="n">
-        <v>0.2544</v>
+        <v>0.2324</v>
       </c>
       <c r="W33" s="14" t="n">
-        <v>0.1021</v>
+        <v>0.0495</v>
       </c>
       <c r="X33" s="14" t="n">
-        <v>0.0172</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="14" t="n">
-        <v>0.0023</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="14" t="n">
         <v>0</v>
@@ -3840,12 +3840,12 @@
       </c>
       <c r="C34" s="12" t="inlineStr">
         <is>
-          <t>rp07</t>
+          <t>rp06</t>
         </is>
       </c>
       <c r="D34" s="12" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>PV Schafflerhofstraße</t>
         </is>
       </c>
       <c r="E34" s="13" t="inlineStr">
@@ -3859,76 +3859,76 @@
         </is>
       </c>
       <c r="G34" s="14" t="n">
-        <v>0.6820000000000001</v>
+        <v>0</v>
       </c>
       <c r="H34" s="14" t="n">
-        <v>0.6929</v>
+        <v>0</v>
       </c>
       <c r="I34" s="14" t="n">
-        <v>0.7026</v>
+        <v>0</v>
       </c>
       <c r="J34" s="14" t="n">
-        <v>0.7144</v>
+        <v>0</v>
       </c>
       <c r="K34" s="14" t="n">
-        <v>0.7268</v>
+        <v>0</v>
       </c>
       <c r="L34" s="14" t="n">
-        <v>0.7401</v>
+        <v>0</v>
       </c>
       <c r="M34" s="14" t="n">
-        <v>0.7513</v>
+        <v>0</v>
       </c>
       <c r="N34" s="14" t="n">
-        <v>0.7597</v>
+        <v>0.0052</v>
       </c>
       <c r="O34" s="14" t="n">
-        <v>0.7673</v>
+        <v>0.1151</v>
       </c>
       <c r="P34" s="14" t="n">
-        <v>0.778</v>
+        <v>0.277</v>
       </c>
       <c r="Q34" s="14" t="n">
-        <v>0.7915</v>
+        <v>0.4185</v>
       </c>
       <c r="R34" s="14" t="n">
-        <v>0.8037</v>
+        <v>0.5053</v>
       </c>
       <c r="S34" s="14" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.5345</v>
       </c>
       <c r="T34" s="14" t="n">
-        <v>0.8113</v>
+        <v>0.4977</v>
       </c>
       <c r="U34" s="14" t="n">
-        <v>0.802</v>
+        <v>0.3955</v>
       </c>
       <c r="V34" s="14" t="n">
-        <v>0.7896</v>
+        <v>0.2324</v>
       </c>
       <c r="W34" s="14" t="n">
-        <v>0.781</v>
+        <v>0.0495</v>
       </c>
       <c r="X34" s="14" t="n">
-        <v>0.7744</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="14" t="n">
-        <v>0.7619</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="14" t="n">
-        <v>0.7504</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="14" t="n">
-        <v>0.7433</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="14" t="n">
-        <v>0.7393999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="14" t="n">
-        <v>0.7398</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="14" t="n">
-        <v>0.7379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3937,94 +3937,773 @@
       </c>
       <c r="C35" s="12" t="inlineStr">
         <is>
+          <t>rp06</t>
+        </is>
+      </c>
+      <c r="D35" s="12" t="inlineStr">
+        <is>
+          <t>PV Trumau</t>
+        </is>
+      </c>
+      <c r="E35" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F35" s="13" t="inlineStr">
+        <is>
+          <t>TestSource1</t>
+        </is>
+      </c>
+      <c r="G35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="14" t="n">
+        <v>0.0052</v>
+      </c>
+      <c r="O35" s="14" t="n">
+        <v>0.1151</v>
+      </c>
+      <c r="P35" s="14" t="n">
+        <v>0.277</v>
+      </c>
+      <c r="Q35" s="14" t="n">
+        <v>0.4185</v>
+      </c>
+      <c r="R35" s="14" t="n">
+        <v>0.5053</v>
+      </c>
+      <c r="S35" s="14" t="n">
+        <v>0.5345</v>
+      </c>
+      <c r="T35" s="14" t="n">
+        <v>0.4977</v>
+      </c>
+      <c r="U35" s="14" t="n">
+        <v>0.3955</v>
+      </c>
+      <c r="V35" s="14" t="n">
+        <v>0.2324</v>
+      </c>
+      <c r="W35" s="14" t="n">
+        <v>0.0495</v>
+      </c>
+      <c r="X35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C36" s="12" t="inlineStr">
+        <is>
+          <t>rp06</t>
+        </is>
+      </c>
+      <c r="D36" s="12" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="E36" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F36" s="13" t="inlineStr">
+        <is>
+          <t>TestSource1</t>
+        </is>
+      </c>
+      <c r="G36" s="14" t="n">
+        <v>0.5321</v>
+      </c>
+      <c r="H36" s="14" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="I36" s="14" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="J36" s="14" t="n">
+        <v>0.5916</v>
+      </c>
+      <c r="K36" s="14" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="L36" s="14" t="n">
+        <v>0.5989</v>
+      </c>
+      <c r="M36" s="14" t="n">
+        <v>0.5944</v>
+      </c>
+      <c r="N36" s="14" t="n">
+        <v>0.5879</v>
+      </c>
+      <c r="O36" s="14" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="P36" s="14" t="n">
+        <v>0.5939</v>
+      </c>
+      <c r="Q36" s="14" t="n">
+        <v>0.6147</v>
+      </c>
+      <c r="R36" s="14" t="n">
+        <v>0.6424</v>
+      </c>
+      <c r="S36" s="14" t="n">
+        <v>0.6708</v>
+      </c>
+      <c r="T36" s="14" t="n">
+        <v>0.6883</v>
+      </c>
+      <c r="U36" s="14" t="n">
+        <v>0.6903</v>
+      </c>
+      <c r="V36" s="14" t="n">
+        <v>0.6807</v>
+      </c>
+      <c r="W36" s="14" t="n">
+        <v>0.6763</v>
+      </c>
+      <c r="X36" s="14" t="n">
+        <v>0.6749000000000001</v>
+      </c>
+      <c r="Y36" s="14" t="n">
+        <v>0.6651</v>
+      </c>
+      <c r="Z36" s="14" t="n">
+        <v>0.6466</v>
+      </c>
+      <c r="AA36" s="14" t="n">
+        <v>0.6236</v>
+      </c>
+      <c r="AB36" s="14" t="n">
+        <v>0.6048</v>
+      </c>
+      <c r="AC36" s="14" t="n">
+        <v>0.5921999999999999</v>
+      </c>
+      <c r="AD36" s="14" t="n">
+        <v>0.5888</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C37" s="12" t="inlineStr">
+        <is>
+          <t>rp06</t>
+        </is>
+      </c>
+      <c r="D37" s="12" t="inlineStr">
+        <is>
+          <t>Wind2</t>
+        </is>
+      </c>
+      <c r="E37" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="inlineStr">
+        <is>
+          <t>TestSource1</t>
+        </is>
+      </c>
+      <c r="G37" s="14" t="n">
+        <v>0.5321</v>
+      </c>
+      <c r="H37" s="14" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+      <c r="I37" s="14" t="n">
+        <v>0.5796</v>
+      </c>
+      <c r="J37" s="14" t="n">
+        <v>0.5916</v>
+      </c>
+      <c r="K37" s="14" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="L37" s="14" t="n">
+        <v>0.5989</v>
+      </c>
+      <c r="M37" s="14" t="n">
+        <v>0.5944</v>
+      </c>
+      <c r="N37" s="14" t="n">
+        <v>0.5879</v>
+      </c>
+      <c r="O37" s="14" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="P37" s="14" t="n">
+        <v>0.5939</v>
+      </c>
+      <c r="Q37" s="14" t="n">
+        <v>0.6147</v>
+      </c>
+      <c r="R37" s="14" t="n">
+        <v>0.6424</v>
+      </c>
+      <c r="S37" s="14" t="n">
+        <v>0.6708</v>
+      </c>
+      <c r="T37" s="14" t="n">
+        <v>0.6883</v>
+      </c>
+      <c r="U37" s="14" t="n">
+        <v>0.6903</v>
+      </c>
+      <c r="V37" s="14" t="n">
+        <v>0.6807</v>
+      </c>
+      <c r="W37" s="14" t="n">
+        <v>0.6763</v>
+      </c>
+      <c r="X37" s="14" t="n">
+        <v>0.6749000000000001</v>
+      </c>
+      <c r="Y37" s="14" t="n">
+        <v>0.6651</v>
+      </c>
+      <c r="Z37" s="14" t="n">
+        <v>0.6466</v>
+      </c>
+      <c r="AA37" s="14" t="n">
+        <v>0.6236</v>
+      </c>
+      <c r="AB37" s="14" t="n">
+        <v>0.6048</v>
+      </c>
+      <c r="AC37" s="14" t="n">
+        <v>0.5921999999999999</v>
+      </c>
+      <c r="AD37" s="14" t="n">
+        <v>0.5888</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C38" s="12" t="inlineStr">
+        <is>
           <t>rp07</t>
         </is>
       </c>
-      <c r="D35" s="12" t="inlineStr">
+      <c r="D38" s="12" t="inlineStr">
+        <is>
+          <t>PV OMV-Schoenkirchen</t>
+        </is>
+      </c>
+      <c r="E38" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F38" s="13" t="inlineStr">
+        <is>
+          <t>TestSource1</t>
+        </is>
+      </c>
+      <c r="G38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="14" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="M38" s="14" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="N38" s="14" t="n">
+        <v>0.0509</v>
+      </c>
+      <c r="O38" s="14" t="n">
+        <v>0.1707</v>
+      </c>
+      <c r="P38" s="14" t="n">
+        <v>0.3146</v>
+      </c>
+      <c r="Q38" s="14" t="n">
+        <v>0.4354</v>
+      </c>
+      <c r="R38" s="14" t="n">
+        <v>0.5067</v>
+      </c>
+      <c r="S38" s="14" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="T38" s="14" t="n">
+        <v>0.4782</v>
+      </c>
+      <c r="U38" s="14" t="n">
+        <v>0.3877</v>
+      </c>
+      <c r="V38" s="14" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="W38" s="14" t="n">
+        <v>0.1021</v>
+      </c>
+      <c r="X38" s="14" t="n">
+        <v>0.0172</v>
+      </c>
+      <c r="Y38" s="14" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="Z38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C39" s="12" t="inlineStr">
+        <is>
+          <t>rp07</t>
+        </is>
+      </c>
+      <c r="D39" s="12" t="inlineStr">
+        <is>
+          <t>PV Schafflerhofstraße</t>
+        </is>
+      </c>
+      <c r="E39" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="inlineStr">
+        <is>
+          <t>TestSource1</t>
+        </is>
+      </c>
+      <c r="G39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="14" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="M39" s="14" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="N39" s="14" t="n">
+        <v>0.0509</v>
+      </c>
+      <c r="O39" s="14" t="n">
+        <v>0.1707</v>
+      </c>
+      <c r="P39" s="14" t="n">
+        <v>0.3146</v>
+      </c>
+      <c r="Q39" s="14" t="n">
+        <v>0.4354</v>
+      </c>
+      <c r="R39" s="14" t="n">
+        <v>0.5067</v>
+      </c>
+      <c r="S39" s="14" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="T39" s="14" t="n">
+        <v>0.4782</v>
+      </c>
+      <c r="U39" s="14" t="n">
+        <v>0.3877</v>
+      </c>
+      <c r="V39" s="14" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="W39" s="14" t="n">
+        <v>0.1021</v>
+      </c>
+      <c r="X39" s="14" t="n">
+        <v>0.0172</v>
+      </c>
+      <c r="Y39" s="14" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="Z39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C40" s="12" t="inlineStr">
+        <is>
+          <t>rp07</t>
+        </is>
+      </c>
+      <c r="D40" s="12" t="inlineStr">
+        <is>
+          <t>PV Trumau</t>
+        </is>
+      </c>
+      <c r="E40" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F40" s="13" t="inlineStr">
+        <is>
+          <t>TestSource1</t>
+        </is>
+      </c>
+      <c r="G40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="14" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="M40" s="14" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="N40" s="14" t="n">
+        <v>0.0509</v>
+      </c>
+      <c r="O40" s="14" t="n">
+        <v>0.1707</v>
+      </c>
+      <c r="P40" s="14" t="n">
+        <v>0.3146</v>
+      </c>
+      <c r="Q40" s="14" t="n">
+        <v>0.4354</v>
+      </c>
+      <c r="R40" s="14" t="n">
+        <v>0.5067</v>
+      </c>
+      <c r="S40" s="14" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="T40" s="14" t="n">
+        <v>0.4782</v>
+      </c>
+      <c r="U40" s="14" t="n">
+        <v>0.3877</v>
+      </c>
+      <c r="V40" s="14" t="n">
+        <v>0.2544</v>
+      </c>
+      <c r="W40" s="14" t="n">
+        <v>0.1021</v>
+      </c>
+      <c r="X40" s="14" t="n">
+        <v>0.0172</v>
+      </c>
+      <c r="Y40" s="14" t="n">
+        <v>0.0023</v>
+      </c>
+      <c r="Z40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C41" s="12" t="inlineStr">
+        <is>
+          <t>rp07</t>
+        </is>
+      </c>
+      <c r="D41" s="12" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="E41" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="inlineStr">
+        <is>
+          <t>TestSource1</t>
+        </is>
+      </c>
+      <c r="G41" s="14" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="H41" s="14" t="n">
+        <v>0.6929</v>
+      </c>
+      <c r="I41" s="14" t="n">
+        <v>0.7026</v>
+      </c>
+      <c r="J41" s="14" t="n">
+        <v>0.7144</v>
+      </c>
+      <c r="K41" s="14" t="n">
+        <v>0.7268</v>
+      </c>
+      <c r="L41" s="14" t="n">
+        <v>0.7401</v>
+      </c>
+      <c r="M41" s="14" t="n">
+        <v>0.7513</v>
+      </c>
+      <c r="N41" s="14" t="n">
+        <v>0.7597</v>
+      </c>
+      <c r="O41" s="14" t="n">
+        <v>0.7673</v>
+      </c>
+      <c r="P41" s="14" t="n">
+        <v>0.778</v>
+      </c>
+      <c r="Q41" s="14" t="n">
+        <v>0.7915</v>
+      </c>
+      <c r="R41" s="14" t="n">
+        <v>0.8037</v>
+      </c>
+      <c r="S41" s="14" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="T41" s="14" t="n">
+        <v>0.8113</v>
+      </c>
+      <c r="U41" s="14" t="n">
+        <v>0.802</v>
+      </c>
+      <c r="V41" s="14" t="n">
+        <v>0.7896</v>
+      </c>
+      <c r="W41" s="14" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="X41" s="14" t="n">
+        <v>0.7744</v>
+      </c>
+      <c r="Y41" s="14" t="n">
+        <v>0.7619</v>
+      </c>
+      <c r="Z41" s="14" t="n">
+        <v>0.7504</v>
+      </c>
+      <c r="AA41" s="14" t="n">
+        <v>0.7433</v>
+      </c>
+      <c r="AB41" s="14" t="n">
+        <v>0.7393999999999999</v>
+      </c>
+      <c r="AC41" s="14" t="n">
+        <v>0.7398</v>
+      </c>
+      <c r="AD41" s="14" t="n">
+        <v>0.7379</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C42" s="12" t="inlineStr">
+        <is>
+          <t>rp07</t>
+        </is>
+      </c>
+      <c r="D42" s="12" t="inlineStr">
         <is>
           <t>Wind2</t>
         </is>
       </c>
-      <c r="E35" s="13" t="inlineStr">
+      <c r="E42" s="13" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="F35" s="13" t="inlineStr">
+      <c r="F42" s="13" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
       </c>
-      <c r="G35" s="14" t="n">
+      <c r="G42" s="14" t="n">
         <v>0.6820000000000001</v>
       </c>
-      <c r="H35" s="14" t="n">
+      <c r="H42" s="14" t="n">
         <v>0.6929</v>
       </c>
-      <c r="I35" s="14" t="n">
+      <c r="I42" s="14" t="n">
         <v>0.7026</v>
       </c>
-      <c r="J35" s="14" t="n">
+      <c r="J42" s="14" t="n">
         <v>0.7144</v>
       </c>
-      <c r="K35" s="14" t="n">
+      <c r="K42" s="14" t="n">
         <v>0.7268</v>
       </c>
-      <c r="L35" s="14" t="n">
+      <c r="L42" s="14" t="n">
         <v>0.7401</v>
       </c>
-      <c r="M35" s="14" t="n">
+      <c r="M42" s="14" t="n">
         <v>0.7513</v>
       </c>
-      <c r="N35" s="14" t="n">
+      <c r="N42" s="14" t="n">
         <v>0.7597</v>
       </c>
-      <c r="O35" s="14" t="n">
+      <c r="O42" s="14" t="n">
         <v>0.7673</v>
       </c>
-      <c r="P35" s="14" t="n">
+      <c r="P42" s="14" t="n">
         <v>0.778</v>
       </c>
-      <c r="Q35" s="14" t="n">
+      <c r="Q42" s="14" t="n">
         <v>0.7915</v>
       </c>
-      <c r="R35" s="14" t="n">
+      <c r="R42" s="14" t="n">
         <v>0.8037</v>
       </c>
-      <c r="S35" s="14" t="n">
+      <c r="S42" s="14" t="n">
         <v>0.8120000000000001</v>
       </c>
-      <c r="T35" s="14" t="n">
+      <c r="T42" s="14" t="n">
         <v>0.8113</v>
       </c>
-      <c r="U35" s="14" t="n">
+      <c r="U42" s="14" t="n">
         <v>0.802</v>
       </c>
-      <c r="V35" s="14" t="n">
+      <c r="V42" s="14" t="n">
         <v>0.7896</v>
       </c>
-      <c r="W35" s="14" t="n">
+      <c r="W42" s="14" t="n">
         <v>0.781</v>
       </c>
-      <c r="X35" s="14" t="n">
+      <c r="X42" s="14" t="n">
         <v>0.7744</v>
       </c>
-      <c r="Y35" s="14" t="n">
+      <c r="Y42" s="14" t="n">
         <v>0.7619</v>
       </c>
-      <c r="Z35" s="14" t="n">
+      <c r="Z42" s="14" t="n">
         <v>0.7504</v>
       </c>
-      <c r="AA35" s="14" t="n">
+      <c r="AA42" s="14" t="n">
         <v>0.7433</v>
       </c>
-      <c r="AB35" s="14" t="n">
+      <c r="AB42" s="14" t="n">
         <v>0.7393999999999999</v>
       </c>
-      <c r="AC35" s="14" t="n">
+      <c r="AC42" s="14" t="n">
         <v>0.7398</v>
       </c>
-      <c r="AD35" s="14" t="n">
+      <c r="AD42" s="14" t="n">
         <v>0.7379</v>
       </c>
     </row>
@@ -4041,7 +4720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD35"/>
+  <dimension ref="A1:AD42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
@@ -4786,7 +5465,7 @@
       </c>
       <c r="D8" s="12" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>PV OMV-Schoenkirchen</t>
         </is>
       </c>
       <c r="E8" s="13" t="inlineStr">
@@ -4821,34 +5500,34 @@
         <v>0</v>
       </c>
       <c r="N8" s="14" t="n">
-        <v>0.004996452805910468</v>
+        <v>0.005165444109642936</v>
       </c>
       <c r="O8" s="14" t="n">
-        <v>0.135484538682783</v>
+        <v>0.1391723865174576</v>
       </c>
       <c r="P8" s="14" t="n">
-        <v>0.3239251839683441</v>
+        <v>0.3228766727073047</v>
       </c>
       <c r="Q8" s="14" t="n">
-        <v>0.4965122705763827</v>
+        <v>0.4669577045494689</v>
       </c>
       <c r="R8" s="14" t="n">
-        <v>0.5721122371046335</v>
+        <v>0.5593089801126379</v>
       </c>
       <c r="S8" s="14" t="n">
-        <v>0.5657778595642791</v>
+        <v>0.6177515266671684</v>
       </c>
       <c r="T8" s="14" t="n">
-        <v>0.5734159889886142</v>
+        <v>0.5715780768813592</v>
       </c>
       <c r="U8" s="14" t="n">
-        <v>0.4227682016147936</v>
+        <v>0.4356657020284352</v>
       </c>
       <c r="V8" s="14" t="n">
-        <v>0.2532576581285816</v>
+        <v>0.2513617366877343</v>
       </c>
       <c r="W8" s="14" t="n">
-        <v>0.05749867945446339</v>
+        <v>0.05356140050446964</v>
       </c>
       <c r="X8" s="14" t="n">
         <v>0</v>
@@ -4883,7 +5562,7 @@
       </c>
       <c r="D9" s="12" t="inlineStr">
         <is>
-          <t>Solar2</t>
+          <t>PV Schafflerhofstraße</t>
         </is>
       </c>
       <c r="E9" s="13" t="inlineStr">
@@ -4918,34 +5597,34 @@
         <v>0</v>
       </c>
       <c r="N9" s="14" t="n">
-        <v>0.005165444109642936</v>
+        <v>0.004996452805910468</v>
       </c>
       <c r="O9" s="14" t="n">
-        <v>0.1391723865174576</v>
+        <v>0.135484538682783</v>
       </c>
       <c r="P9" s="14" t="n">
-        <v>0.3228766727073047</v>
+        <v>0.3239251839683441</v>
       </c>
       <c r="Q9" s="14" t="n">
-        <v>0.4669577045494689</v>
+        <v>0.4965122705763827</v>
       </c>
       <c r="R9" s="14" t="n">
-        <v>0.5593089801126379</v>
+        <v>0.5721122371046335</v>
       </c>
       <c r="S9" s="14" t="n">
-        <v>0.6177515266671684</v>
+        <v>0.5657778595642791</v>
       </c>
       <c r="T9" s="14" t="n">
-        <v>0.5715780768813592</v>
+        <v>0.5734159889886142</v>
       </c>
       <c r="U9" s="14" t="n">
-        <v>0.4356657020284352</v>
+        <v>0.4227682016147936</v>
       </c>
       <c r="V9" s="14" t="n">
-        <v>0.2513617366877343</v>
+        <v>0.2532576581285816</v>
       </c>
       <c r="W9" s="14" t="n">
-        <v>0.05356140050446964</v>
+        <v>0.05749867945446339</v>
       </c>
       <c r="X9" s="14" t="n">
         <v>0</v>
@@ -4980,7 +5659,7 @@
       </c>
       <c r="D10" s="12" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>PV Trumau</t>
         </is>
       </c>
       <c r="E10" s="13" t="inlineStr">
@@ -4994,76 +5673,76 @@
         </is>
       </c>
       <c r="G10" s="14" t="n">
-        <v>0.2866413804855691</v>
+        <v>0</v>
       </c>
       <c r="H10" s="14" t="n">
-        <v>0.3020464324993538</v>
+        <v>0</v>
       </c>
       <c r="I10" s="14" t="n">
-        <v>0.2977266067050732</v>
+        <v>0</v>
       </c>
       <c r="J10" s="14" t="n">
-        <v>0.2818542583612021</v>
+        <v>0</v>
       </c>
       <c r="K10" s="14" t="n">
-        <v>0.2827497455482703</v>
+        <v>0</v>
       </c>
       <c r="L10" s="14" t="n">
-        <v>0.2534685392366832</v>
+        <v>0</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>0.2449816680522179</v>
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="n">
-        <v>0.2414494680700144</v>
+        <v>0.005165444109642936</v>
       </c>
       <c r="O10" s="14" t="n">
-        <v>0.2186733120656514</v>
+        <v>0.1391723865174576</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>0.2062687538442251</v>
+        <v>0.3228766727073047</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0.1877342401766557</v>
+        <v>0.4669577045494689</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>0.1948209327108569</v>
+        <v>0.5593089801126379</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0.2037914758356983</v>
+        <v>0.6177515266671684</v>
       </c>
       <c r="T10" s="14" t="n">
-        <v>0.2005413925084422</v>
+        <v>0.5715780768813592</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0.1857668975371677</v>
+        <v>0.4356657020284352</v>
       </c>
       <c r="V10" s="14" t="n">
-        <v>0.1785316758304975</v>
+        <v>0.2513617366877343</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>0.1805485918711685</v>
+        <v>0.05356140050446964</v>
       </c>
       <c r="X10" s="14" t="n">
-        <v>0.1839128117312099</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="14" t="n">
-        <v>0.2118731987001567</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="14" t="n">
-        <v>0.2128080670544457</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="14" t="n">
-        <v>0.2067972469899662</v>
+        <v>0</v>
       </c>
       <c r="AB10" s="14" t="n">
-        <v>0.2326186203093712</v>
+        <v>0</v>
       </c>
       <c r="AC10" s="14" t="n">
-        <v>0.2281208838018321</v>
+        <v>0</v>
       </c>
       <c r="AD10" s="14" t="n">
-        <v>0.2484662905106781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5077,7 +5756,7 @@
       </c>
       <c r="D11" s="12" t="inlineStr">
         <is>
-          <t>Wind2</t>
+          <t>Wind</t>
         </is>
       </c>
       <c r="E11" s="13" t="inlineStr">
@@ -5091,76 +5770,76 @@
         </is>
       </c>
       <c r="G11" s="14" t="n">
-        <v>0.2879859227912913</v>
+        <v>0.2866413804855691</v>
       </c>
       <c r="H11" s="14" t="n">
-        <v>0.3027304344371473</v>
+        <v>0.3020464324993538</v>
       </c>
       <c r="I11" s="14" t="n">
-        <v>0.3065979368922165</v>
+        <v>0.2977266067050732</v>
       </c>
       <c r="J11" s="14" t="n">
-        <v>0.2890886434827125</v>
+        <v>0.2818542583612021</v>
       </c>
       <c r="K11" s="14" t="n">
-        <v>0.2658975141759169</v>
+        <v>0.2827497455482703</v>
       </c>
       <c r="L11" s="14" t="n">
-        <v>0.2429392825515927</v>
+        <v>0.2534685392366832</v>
       </c>
       <c r="M11" s="14" t="n">
-        <v>0.2501232019056757</v>
+        <v>0.2449816680522179</v>
       </c>
       <c r="N11" s="14" t="n">
-        <v>0.2414483778543335</v>
+        <v>0.2414494680700144</v>
       </c>
       <c r="O11" s="14" t="n">
-        <v>0.2109573383692858</v>
+        <v>0.2186733120656514</v>
       </c>
       <c r="P11" s="14" t="n">
-        <v>0.2068422249025135</v>
+        <v>0.2062687538442251</v>
       </c>
       <c r="Q11" s="14" t="n">
-        <v>0.1905824564635698</v>
+        <v>0.1877342401766557</v>
       </c>
       <c r="R11" s="14" t="n">
-        <v>0.2035055443790071</v>
+        <v>0.1948209327108569</v>
       </c>
       <c r="S11" s="14" t="n">
-        <v>0.1934796204958118</v>
+        <v>0.2037914758356983</v>
       </c>
       <c r="T11" s="14" t="n">
-        <v>0.1999339777439383</v>
+        <v>0.2005413925084422</v>
       </c>
       <c r="U11" s="14" t="n">
-        <v>0.1900977141854855</v>
+        <v>0.1857668975371677</v>
       </c>
       <c r="V11" s="14" t="n">
-        <v>0.171466487008292</v>
+        <v>0.1785316758304975</v>
       </c>
       <c r="W11" s="14" t="n">
-        <v>0.1707923235835964</v>
+        <v>0.1805485918711685</v>
       </c>
       <c r="X11" s="14" t="n">
-        <v>0.1830686761762523</v>
+        <v>0.1839128117312099</v>
       </c>
       <c r="Y11" s="14" t="n">
-        <v>0.2061169691844452</v>
+        <v>0.2118731987001567</v>
       </c>
       <c r="Z11" s="14" t="n">
-        <v>0.2026613458967318</v>
+        <v>0.2128080670544457</v>
       </c>
       <c r="AA11" s="14" t="n">
-        <v>0.2258805890248839</v>
+        <v>0.2067972469899662</v>
       </c>
       <c r="AB11" s="14" t="n">
-        <v>0.2212812288552029</v>
+        <v>0.2326186203093712</v>
       </c>
       <c r="AC11" s="14" t="n">
-        <v>0.2317460418968217</v>
+        <v>0.2281208838018321</v>
       </c>
       <c r="AD11" s="14" t="n">
-        <v>0.2503276378229766</v>
+        <v>0.2484662905106781</v>
       </c>
     </row>
     <row r="12">
@@ -5169,12 +5848,12 @@
       </c>
       <c r="C12" s="12" t="inlineStr">
         <is>
-          <t>rp02</t>
+          <t>rp01</t>
         </is>
       </c>
       <c r="D12" s="12" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>Wind2</t>
         </is>
       </c>
       <c r="E12" s="13" t="inlineStr">
@@ -5188,76 +5867,76 @@
         </is>
       </c>
       <c r="G12" s="14" t="n">
-        <v>0</v>
+        <v>0.2879859227912913</v>
       </c>
       <c r="H12" s="14" t="n">
-        <v>0</v>
+        <v>0.3027304344371473</v>
       </c>
       <c r="I12" s="14" t="n">
-        <v>0</v>
+        <v>0.3065979368922165</v>
       </c>
       <c r="J12" s="14" t="n">
-        <v>0</v>
+        <v>0.2890886434827125</v>
       </c>
       <c r="K12" s="14" t="n">
-        <v>0</v>
+        <v>0.2658975141759169</v>
       </c>
       <c r="L12" s="14" t="n">
-        <v>0.0160057149061719</v>
+        <v>0.2429392825515927</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>0.1121853378128634</v>
+        <v>0.2501232019056757</v>
       </c>
       <c r="N12" s="14" t="n">
-        <v>0.3064455042278465</v>
+        <v>0.2414483778543335</v>
       </c>
       <c r="O12" s="14" t="n">
-        <v>0.4885700911763978</v>
+        <v>0.2109573383692858</v>
       </c>
       <c r="P12" s="14" t="n">
-        <v>0.6497286215327509</v>
+        <v>0.2068422249025135</v>
       </c>
       <c r="Q12" s="14" t="n">
-        <v>0.7895121508954532</v>
+        <v>0.1905824564635698</v>
       </c>
       <c r="R12" s="14" t="n">
-        <v>0.8589871717477087</v>
+        <v>0.2035055443790071</v>
       </c>
       <c r="S12" s="14" t="n">
-        <v>0.7915893880090535</v>
+        <v>0.1934796204958118</v>
       </c>
       <c r="T12" s="14" t="n">
-        <v>0.7932171309877113</v>
+        <v>0.1999339777439383</v>
       </c>
       <c r="U12" s="14" t="n">
-        <v>0.6531883832071878</v>
+        <v>0.1900977141854855</v>
       </c>
       <c r="V12" s="14" t="n">
-        <v>0.5566772434906708</v>
+        <v>0.171466487008292</v>
       </c>
       <c r="W12" s="14" t="n">
-        <v>0.3430122687336112</v>
+        <v>0.1707923235835964</v>
       </c>
       <c r="X12" s="14" t="n">
-        <v>0.1647572696160427</v>
+        <v>0.1830686761762523</v>
       </c>
       <c r="Y12" s="14" t="n">
-        <v>0.04534847892900852</v>
+        <v>0.2061169691844452</v>
       </c>
       <c r="Z12" s="14" t="n">
-        <v>0.001583223510502356</v>
+        <v>0.2026613458967318</v>
       </c>
       <c r="AA12" s="14" t="n">
-        <v>0</v>
+        <v>0.2258805890248839</v>
       </c>
       <c r="AB12" s="14" t="n">
-        <v>0</v>
+        <v>0.2212812288552029</v>
       </c>
       <c r="AC12" s="14" t="n">
-        <v>0</v>
+        <v>0.2317460418968217</v>
       </c>
       <c r="AD12" s="14" t="n">
-        <v>0</v>
+        <v>0.2503276378229766</v>
       </c>
     </row>
     <row r="13">
@@ -5271,7 +5950,7 @@
       </c>
       <c r="D13" s="12" t="inlineStr">
         <is>
-          <t>Solar2</t>
+          <t>PV OMV-Schoenkirchen</t>
         </is>
       </c>
       <c r="E13" s="13" t="inlineStr">
@@ -5368,7 +6047,7 @@
       </c>
       <c r="D14" s="12" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>PV Schafflerhofstraße</t>
         </is>
       </c>
       <c r="E14" s="13" t="inlineStr">
@@ -5382,76 +6061,76 @@
         </is>
       </c>
       <c r="G14" s="14" t="n">
-        <v>0.113446057243137</v>
+        <v>0</v>
       </c>
       <c r="H14" s="14" t="n">
-        <v>0.1093122023540554</v>
+        <v>0</v>
       </c>
       <c r="I14" s="14" t="n">
-        <v>0.1068647059824332</v>
+        <v>0</v>
       </c>
       <c r="J14" s="14" t="n">
-        <v>0.1067896976793807</v>
+        <v>0</v>
       </c>
       <c r="K14" s="14" t="n">
-        <v>0.09834167919829745</v>
+        <v>0</v>
       </c>
       <c r="L14" s="14" t="n">
-        <v>0.1041062190457703</v>
+        <v>0.0160057149061719</v>
       </c>
       <c r="M14" s="14" t="n">
-        <v>0.09789113100094203</v>
+        <v>0.1121853378128634</v>
       </c>
       <c r="N14" s="14" t="n">
-        <v>0.09180235828221502</v>
+        <v>0.3064455042278465</v>
       </c>
       <c r="O14" s="14" t="n">
-        <v>0.08905165567355106</v>
+        <v>0.4885700911763978</v>
       </c>
       <c r="P14" s="14" t="n">
-        <v>0.09351252767775374</v>
+        <v>0.6497286215327509</v>
       </c>
       <c r="Q14" s="14" t="n">
-        <v>0.0864469947696412</v>
+        <v>0.7895121508954532</v>
       </c>
       <c r="R14" s="14" t="n">
-        <v>0.09740405420427754</v>
+        <v>0.8589871717477087</v>
       </c>
       <c r="S14" s="14" t="n">
-        <v>0.1026121524892914</v>
+        <v>0.7915893880090535</v>
       </c>
       <c r="T14" s="14" t="n">
-        <v>0.1211239701417937</v>
+        <v>0.7932171309877113</v>
       </c>
       <c r="U14" s="14" t="n">
-        <v>0.1345396722286064</v>
+        <v>0.6531883832071878</v>
       </c>
       <c r="V14" s="14" t="n">
-        <v>0.1430293617791404</v>
+        <v>0.5566772434906708</v>
       </c>
       <c r="W14" s="14" t="n">
-        <v>0.1605554336585367</v>
+        <v>0.3430122687336112</v>
       </c>
       <c r="X14" s="14" t="n">
-        <v>0.1615219881636689</v>
+        <v>0.1647572696160427</v>
       </c>
       <c r="Y14" s="14" t="n">
-        <v>0.1608357352984414</v>
+        <v>0.04534847892900852</v>
       </c>
       <c r="Z14" s="14" t="n">
-        <v>0.1458150332670226</v>
+        <v>0.001583223510502356</v>
       </c>
       <c r="AA14" s="14" t="n">
-        <v>0.1332957291636336</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="14" t="n">
-        <v>0.12714073784551</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="14" t="n">
-        <v>0.1195160983342229</v>
+        <v>0</v>
       </c>
       <c r="AD14" s="14" t="n">
-        <v>0.1217323028886726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -5465,7 +6144,7 @@
       </c>
       <c r="D15" s="12" t="inlineStr">
         <is>
-          <t>Wind2</t>
+          <t>PV Trumau</t>
         </is>
       </c>
       <c r="E15" s="13" t="inlineStr">
@@ -5479,76 +6158,76 @@
         </is>
       </c>
       <c r="G15" s="14" t="n">
-        <v>0.1129036967669909</v>
+        <v>0</v>
       </c>
       <c r="H15" s="14" t="n">
-        <v>0.1125208049784253</v>
+        <v>0</v>
       </c>
       <c r="I15" s="14" t="n">
-        <v>0.1111439287204411</v>
+        <v>0</v>
       </c>
       <c r="J15" s="14" t="n">
-        <v>0.1098010008039711</v>
+        <v>0</v>
       </c>
       <c r="K15" s="14" t="n">
-        <v>0.1062943388734887</v>
+        <v>0</v>
       </c>
       <c r="L15" s="14" t="n">
-        <v>0.1016945899616686</v>
+        <v>0.01597838169687728</v>
       </c>
       <c r="M15" s="14" t="n">
-        <v>0.1012474472451413</v>
+        <v>0.1205404136317419</v>
       </c>
       <c r="N15" s="14" t="n">
-        <v>0.09625003556505959</v>
+        <v>0.2929912149591276</v>
       </c>
       <c r="O15" s="14" t="n">
-        <v>0.09111673285087117</v>
+        <v>0.5124966472703982</v>
       </c>
       <c r="P15" s="14" t="n">
-        <v>0.09070587051824566</v>
+        <v>0.6899928377167506</v>
       </c>
       <c r="Q15" s="14" t="n">
-        <v>0.08907973891274662</v>
+        <v>0.7571178597135113</v>
       </c>
       <c r="R15" s="14" t="n">
-        <v>0.09077497745028067</v>
+        <v>0.8641976940011499</v>
       </c>
       <c r="S15" s="14" t="n">
-        <v>0.106218692718159</v>
+        <v>0.8312073647278285</v>
       </c>
       <c r="T15" s="14" t="n">
-        <v>0.1171115942875274</v>
+        <v>0.7568725807207244</v>
       </c>
       <c r="U15" s="14" t="n">
-        <v>0.134161714400655</v>
+        <v>0.6604943624558258</v>
       </c>
       <c r="V15" s="14" t="n">
-        <v>0.1444658343997528</v>
+        <v>0.517339532684214</v>
       </c>
       <c r="W15" s="14" t="n">
-        <v>0.1642629002052613</v>
+        <v>0.3362765941272</v>
       </c>
       <c r="X15" s="14" t="n">
-        <v>0.1596417147448748</v>
+        <v>0.1707388963342328</v>
       </c>
       <c r="Y15" s="14" t="n">
-        <v>0.1568558335771306</v>
+        <v>0.04632744145508144</v>
       </c>
       <c r="Z15" s="14" t="n">
-        <v>0.1548233873178409</v>
+        <v>0.001546491201342046</v>
       </c>
       <c r="AA15" s="14" t="n">
-        <v>0.1379614937270223</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="14" t="n">
-        <v>0.1302469298835442</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="14" t="n">
-        <v>0.1226331546584721</v>
+        <v>0</v>
       </c>
       <c r="AD15" s="14" t="n">
-        <v>0.1227061534649579</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -5557,12 +6236,12 @@
       </c>
       <c r="C16" s="12" t="inlineStr">
         <is>
-          <t>rp03</t>
+          <t>rp02</t>
         </is>
       </c>
       <c r="D16" s="12" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>Wind</t>
         </is>
       </c>
       <c r="E16" s="13" t="inlineStr">
@@ -5576,76 +6255,76 @@
         </is>
       </c>
       <c r="G16" s="14" t="n">
-        <v>0</v>
+        <v>0.113446057243137</v>
       </c>
       <c r="H16" s="14" t="n">
-        <v>0</v>
+        <v>0.1093122023540554</v>
       </c>
       <c r="I16" s="14" t="n">
-        <v>0</v>
+        <v>0.1068647059824332</v>
       </c>
       <c r="J16" s="14" t="n">
-        <v>0</v>
+        <v>0.1067896976793807</v>
       </c>
       <c r="K16" s="14" t="n">
-        <v>0</v>
+        <v>0.09834167919829745</v>
       </c>
       <c r="L16" s="14" t="n">
-        <v>0.0005956232615920152</v>
+        <v>0.1041062190457703</v>
       </c>
       <c r="M16" s="14" t="n">
-        <v>0.03964118277129653</v>
+        <v>0.09789113100094203</v>
       </c>
       <c r="N16" s="14" t="n">
-        <v>0.2035212783413052</v>
+        <v>0.09180235828221502</v>
       </c>
       <c r="O16" s="14" t="n">
-        <v>0.4194236567810986</v>
+        <v>0.08905165567355106</v>
       </c>
       <c r="P16" s="14" t="n">
-        <v>0.5925275964587687</v>
+        <v>0.09351252767775374</v>
       </c>
       <c r="Q16" s="14" t="n">
-        <v>0.7322559218551943</v>
+        <v>0.0864469947696412</v>
       </c>
       <c r="R16" s="14" t="n">
-        <v>0.7516489770675943</v>
+        <v>0.09740405420427754</v>
       </c>
       <c r="S16" s="14" t="n">
-        <v>0.7716829661412909</v>
+        <v>0.1026121524892914</v>
       </c>
       <c r="T16" s="14" t="n">
-        <v>0.7550003399765393</v>
+        <v>0.1211239701417937</v>
       </c>
       <c r="U16" s="14" t="n">
-        <v>0.6506014013878425</v>
+        <v>0.1345396722286064</v>
       </c>
       <c r="V16" s="14" t="n">
-        <v>0.4420956628128155</v>
+        <v>0.1430293617791404</v>
       </c>
       <c r="W16" s="14" t="n">
-        <v>0.273691369572666</v>
+        <v>0.1605554336585367</v>
       </c>
       <c r="X16" s="14" t="n">
-        <v>0.09543046901502257</v>
+        <v>0.1615219881636689</v>
       </c>
       <c r="Y16" s="14" t="n">
-        <v>0.007158353497790267</v>
+        <v>0.1608357352984414</v>
       </c>
       <c r="Z16" s="14" t="n">
-        <v>0</v>
+        <v>0.1458150332670226</v>
       </c>
       <c r="AA16" s="14" t="n">
-        <v>0</v>
+        <v>0.1332957291636336</v>
       </c>
       <c r="AB16" s="14" t="n">
-        <v>0</v>
+        <v>0.12714073784551</v>
       </c>
       <c r="AC16" s="14" t="n">
-        <v>0</v>
+        <v>0.1195160983342229</v>
       </c>
       <c r="AD16" s="14" t="n">
-        <v>0</v>
+        <v>0.1217323028886726</v>
       </c>
     </row>
     <row r="17">
@@ -5654,12 +6333,12 @@
       </c>
       <c r="C17" s="12" t="inlineStr">
         <is>
-          <t>rp03</t>
+          <t>rp02</t>
         </is>
       </c>
       <c r="D17" s="12" t="inlineStr">
         <is>
-          <t>Solar2</t>
+          <t>Wind2</t>
         </is>
       </c>
       <c r="E17" s="13" t="inlineStr">
@@ -5673,76 +6352,76 @@
         </is>
       </c>
       <c r="G17" s="14" t="n">
-        <v>0</v>
+        <v>0.1129036967669909</v>
       </c>
       <c r="H17" s="14" t="n">
-        <v>0</v>
+        <v>0.1125208049784253</v>
       </c>
       <c r="I17" s="14" t="n">
-        <v>0</v>
+        <v>0.1111439287204411</v>
       </c>
       <c r="J17" s="14" t="n">
-        <v>0</v>
+        <v>0.1098010008039711</v>
       </c>
       <c r="K17" s="14" t="n">
-        <v>0</v>
+        <v>0.1062943388734887</v>
       </c>
       <c r="L17" s="14" t="n">
-        <v>0.0005802264084995125</v>
+        <v>0.1016945899616686</v>
       </c>
       <c r="M17" s="14" t="n">
-        <v>0.04186005206749308</v>
+        <v>0.1012474472451413</v>
       </c>
       <c r="N17" s="14" t="n">
-        <v>0.1980203871798698</v>
+        <v>0.09625003556505959</v>
       </c>
       <c r="O17" s="14" t="n">
-        <v>0.3890160082119092</v>
+        <v>0.09111673285087117</v>
       </c>
       <c r="P17" s="14" t="n">
-        <v>0.5855223796941397</v>
+        <v>0.09070587051824566</v>
       </c>
       <c r="Q17" s="14" t="n">
-        <v>0.7506990728116915</v>
+        <v>0.08907973891274662</v>
       </c>
       <c r="R17" s="14" t="n">
-        <v>0.7495366043087092</v>
+        <v>0.09077497745028067</v>
       </c>
       <c r="S17" s="14" t="n">
-        <v>0.8281424445905143</v>
+        <v>0.106218692718159</v>
       </c>
       <c r="T17" s="14" t="n">
-        <v>0.747471231313602</v>
+        <v>0.1171115942875274</v>
       </c>
       <c r="U17" s="14" t="n">
-        <v>0.6102496667279009</v>
+        <v>0.134161714400655</v>
       </c>
       <c r="V17" s="14" t="n">
-        <v>0.4434897616780541</v>
+        <v>0.1444658343997528</v>
       </c>
       <c r="W17" s="14" t="n">
-        <v>0.2736290150350031</v>
+        <v>0.1642629002052613</v>
       </c>
       <c r="X17" s="14" t="n">
-        <v>0.09343716345721251</v>
+        <v>0.1596417147448748</v>
       </c>
       <c r="Y17" s="14" t="n">
-        <v>0.006868283194461152</v>
+        <v>0.1568558335771306</v>
       </c>
       <c r="Z17" s="14" t="n">
-        <v>0</v>
+        <v>0.1548233873178409</v>
       </c>
       <c r="AA17" s="14" t="n">
-        <v>0</v>
+        <v>0.1379614937270223</v>
       </c>
       <c r="AB17" s="14" t="n">
-        <v>0</v>
+        <v>0.1302469298835442</v>
       </c>
       <c r="AC17" s="14" t="n">
-        <v>0</v>
+        <v>0.1226331546584721</v>
       </c>
       <c r="AD17" s="14" t="n">
-        <v>0</v>
+        <v>0.1227061534649579</v>
       </c>
     </row>
     <row r="18">
@@ -5756,7 +6435,7 @@
       </c>
       <c r="D18" s="12" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>PV OMV-Schoenkirchen</t>
         </is>
       </c>
       <c r="E18" s="13" t="inlineStr">
@@ -5770,76 +6449,76 @@
         </is>
       </c>
       <c r="G18" s="14" t="n">
-        <v>0.1427919671890532</v>
+        <v>0</v>
       </c>
       <c r="H18" s="14" t="n">
-        <v>0.1599875501592196</v>
+        <v>0</v>
       </c>
       <c r="I18" s="14" t="n">
-        <v>0.1508434674836551</v>
+        <v>0</v>
       </c>
       <c r="J18" s="14" t="n">
-        <v>0.1469398849327229</v>
+        <v>0</v>
       </c>
       <c r="K18" s="14" t="n">
-        <v>0.1442531686353445</v>
+        <v>0</v>
       </c>
       <c r="L18" s="14" t="n">
-        <v>0.1332301382009534</v>
+        <v>0.0005802264084995125</v>
       </c>
       <c r="M18" s="14" t="n">
-        <v>0.1270999060299916</v>
+        <v>0.04186005206749308</v>
       </c>
       <c r="N18" s="14" t="n">
-        <v>0.1178778403255233</v>
+        <v>0.1980203871798698</v>
       </c>
       <c r="O18" s="14" t="n">
-        <v>0.1092726239342774</v>
+        <v>0.3890160082119092</v>
       </c>
       <c r="P18" s="14" t="n">
-        <v>0.1037757204280166</v>
+        <v>0.5855223796941397</v>
       </c>
       <c r="Q18" s="14" t="n">
-        <v>0.1042144007544732</v>
+        <v>0.7506990728116915</v>
       </c>
       <c r="R18" s="14" t="n">
-        <v>0.09940435574357204</v>
+        <v>0.7495366043087092</v>
       </c>
       <c r="S18" s="14" t="n">
-        <v>0.1045604227058267</v>
+        <v>0.8281424445905143</v>
       </c>
       <c r="T18" s="14" t="n">
-        <v>0.1143217330488796</v>
+        <v>0.747471231313602</v>
       </c>
       <c r="U18" s="14" t="n">
-        <v>0.1188230277353042</v>
+        <v>0.6102496667279009</v>
       </c>
       <c r="V18" s="14" t="n">
-        <v>0.132874875492476</v>
+        <v>0.4434897616780541</v>
       </c>
       <c r="W18" s="14" t="n">
-        <v>0.1336798634952363</v>
+        <v>0.2736290150350031</v>
       </c>
       <c r="X18" s="14" t="n">
-        <v>0.1497974003128906</v>
+        <v>0.09343716345721251</v>
       </c>
       <c r="Y18" s="14" t="n">
-        <v>0.1557190935486932</v>
+        <v>0.006868283194461152</v>
       </c>
       <c r="Z18" s="14" t="n">
-        <v>0.1490272055612526</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="14" t="n">
-        <v>0.1525097315556268</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="14" t="n">
-        <v>0.142281151296605</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="14" t="n">
-        <v>0.1522053681376846</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="14" t="n">
-        <v>0.1600882275209413</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5853,7 +6532,7 @@
       </c>
       <c r="D19" s="12" t="inlineStr">
         <is>
-          <t>Wind2</t>
+          <t>PV Schafflerhofstraße</t>
         </is>
       </c>
       <c r="E19" s="13" t="inlineStr">
@@ -5867,76 +6546,76 @@
         </is>
       </c>
       <c r="G19" s="14" t="n">
-        <v>0.1431873514475225</v>
+        <v>0</v>
       </c>
       <c r="H19" s="14" t="n">
-        <v>0.151728143292308</v>
+        <v>0</v>
       </c>
       <c r="I19" s="14" t="n">
-        <v>0.1528644014607476</v>
+        <v>0</v>
       </c>
       <c r="J19" s="14" t="n">
-        <v>0.1458786279658614</v>
+        <v>0</v>
       </c>
       <c r="K19" s="14" t="n">
-        <v>0.1386032624338585</v>
+        <v>0</v>
       </c>
       <c r="L19" s="14" t="n">
-        <v>0.1335593746502558</v>
+        <v>0.0005956232615920152</v>
       </c>
       <c r="M19" s="14" t="n">
-        <v>0.1239029421869539</v>
+        <v>0.03964118277129653</v>
       </c>
       <c r="N19" s="14" t="n">
-        <v>0.1194657752535365</v>
+        <v>0.2035212783413052</v>
       </c>
       <c r="O19" s="14" t="n">
-        <v>0.1048627432092675</v>
+        <v>0.4194236567810986</v>
       </c>
       <c r="P19" s="14" t="n">
-        <v>0.09806602655867677</v>
+        <v>0.5925275964587687</v>
       </c>
       <c r="Q19" s="14" t="n">
-        <v>0.1006328127118599</v>
+        <v>0.7322559218551943</v>
       </c>
       <c r="R19" s="14" t="n">
-        <v>0.09935636373055165</v>
+        <v>0.7516489770675943</v>
       </c>
       <c r="S19" s="14" t="n">
-        <v>0.1102565273098167</v>
+        <v>0.7716829661412909</v>
       </c>
       <c r="T19" s="14" t="n">
-        <v>0.1110310451095585</v>
+        <v>0.7550003399765393</v>
       </c>
       <c r="U19" s="14" t="n">
-        <v>0.1243036681917078</v>
+        <v>0.6506014013878425</v>
       </c>
       <c r="V19" s="14" t="n">
-        <v>0.1287476772506744</v>
+        <v>0.4420956628128155</v>
       </c>
       <c r="W19" s="14" t="n">
-        <v>0.1411035384959436</v>
+        <v>0.273691369572666</v>
       </c>
       <c r="X19" s="14" t="n">
-        <v>0.1410725743966094</v>
+        <v>0.09543046901502257</v>
       </c>
       <c r="Y19" s="14" t="n">
-        <v>0.1507960365096971</v>
+        <v>0.007158353497790267</v>
       </c>
       <c r="Z19" s="14" t="n">
-        <v>0.1505025221147217</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="14" t="n">
-        <v>0.1515969298771422</v>
+        <v>0</v>
       </c>
       <c r="AB19" s="14" t="n">
-        <v>0.1441191980119493</v>
+        <v>0</v>
       </c>
       <c r="AC19" s="14" t="n">
-        <v>0.1586686243222222</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="14" t="n">
-        <v>0.1548321119722935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5945,12 +6624,12 @@
       </c>
       <c r="C20" s="12" t="inlineStr">
         <is>
-          <t>rp04</t>
+          <t>rp03</t>
         </is>
       </c>
       <c r="D20" s="12" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>PV Trumau</t>
         </is>
       </c>
       <c r="E20" s="13" t="inlineStr">
@@ -5979,46 +6658,46 @@
         <v>0</v>
       </c>
       <c r="L20" s="14" t="n">
-        <v>0.0002047303145881193</v>
+        <v>0.0005802264084995125</v>
       </c>
       <c r="M20" s="14" t="n">
-        <v>0.008608064891765464</v>
+        <v>0.04186005206749308</v>
       </c>
       <c r="N20" s="14" t="n">
-        <v>0.06709360758511133</v>
+        <v>0.1980203871798698</v>
       </c>
       <c r="O20" s="14" t="n">
-        <v>0.1961486197476273</v>
+        <v>0.3890160082119092</v>
       </c>
       <c r="P20" s="14" t="n">
-        <v>0.3656761141480279</v>
+        <v>0.5855223796941397</v>
       </c>
       <c r="Q20" s="14" t="n">
-        <v>0.4770010035760103</v>
+        <v>0.7506990728116915</v>
       </c>
       <c r="R20" s="14" t="n">
-        <v>0.5501266951491741</v>
+        <v>0.7495366043087092</v>
       </c>
       <c r="S20" s="14" t="n">
-        <v>0.5648870370563683</v>
+        <v>0.8281424445905143</v>
       </c>
       <c r="T20" s="14" t="n">
-        <v>0.5390320422500391</v>
+        <v>0.747471231313602</v>
       </c>
       <c r="U20" s="14" t="n">
-        <v>0.4424303678314603</v>
+        <v>0.6102496667279009</v>
       </c>
       <c r="V20" s="14" t="n">
-        <v>0.2978526727220193</v>
+        <v>0.4434897616780541</v>
       </c>
       <c r="W20" s="14" t="n">
-        <v>0.134821138240139</v>
+        <v>0.2736290150350031</v>
       </c>
       <c r="X20" s="14" t="n">
-        <v>0.02722290761269004</v>
+        <v>0.09343716345721251</v>
       </c>
       <c r="Y20" s="14" t="n">
-        <v>0.002100483431428191</v>
+        <v>0.006868283194461152</v>
       </c>
       <c r="Z20" s="14" t="n">
         <v>0</v>
@@ -6042,12 +6721,12 @@
       </c>
       <c r="C21" s="12" t="inlineStr">
         <is>
-          <t>rp04</t>
+          <t>rp03</t>
         </is>
       </c>
       <c r="D21" s="12" t="inlineStr">
         <is>
-          <t>Solar2</t>
+          <t>Wind</t>
         </is>
       </c>
       <c r="E21" s="13" t="inlineStr">
@@ -6061,76 +6740,76 @@
         </is>
       </c>
       <c r="G21" s="14" t="n">
-        <v>0</v>
+        <v>0.1427919671890532</v>
       </c>
       <c r="H21" s="14" t="n">
-        <v>0</v>
+        <v>0.1599875501592196</v>
       </c>
       <c r="I21" s="14" t="n">
-        <v>0</v>
+        <v>0.1508434674836551</v>
       </c>
       <c r="J21" s="14" t="n">
-        <v>0</v>
+        <v>0.1469398849327229</v>
       </c>
       <c r="K21" s="14" t="n">
-        <v>0</v>
+        <v>0.1442531686353445</v>
       </c>
       <c r="L21" s="14" t="n">
-        <v>0.0002068237321711316</v>
+        <v>0.1332301382009534</v>
       </c>
       <c r="M21" s="14" t="n">
-        <v>0.00893823378656896</v>
+        <v>0.1270999060299916</v>
       </c>
       <c r="N21" s="14" t="n">
-        <v>0.06968174363696601</v>
+        <v>0.1178778403255233</v>
       </c>
       <c r="O21" s="14" t="n">
-        <v>0.1974422241330961</v>
+        <v>0.1092726239342774</v>
       </c>
       <c r="P21" s="14" t="n">
-        <v>0.3749843961188121</v>
+        <v>0.1037757204280166</v>
       </c>
       <c r="Q21" s="14" t="n">
-        <v>0.4791894893903695</v>
+        <v>0.1042144007544732</v>
       </c>
       <c r="R21" s="14" t="n">
-        <v>0.5905963544413004</v>
+        <v>0.09940435574357204</v>
       </c>
       <c r="S21" s="14" t="n">
-        <v>0.565743251334321</v>
+        <v>0.1045604227058267</v>
       </c>
       <c r="T21" s="14" t="n">
-        <v>0.5354940991837339</v>
+        <v>0.1143217330488796</v>
       </c>
       <c r="U21" s="14" t="n">
-        <v>0.4261123984107925</v>
+        <v>0.1188230277353042</v>
       </c>
       <c r="V21" s="14" t="n">
-        <v>0.2981958325675493</v>
+        <v>0.132874875492476</v>
       </c>
       <c r="W21" s="14" t="n">
-        <v>0.13151978303785</v>
+        <v>0.1336798634952363</v>
       </c>
       <c r="X21" s="14" t="n">
-        <v>0.02646791765870759</v>
+        <v>0.1497974003128906</v>
       </c>
       <c r="Y21" s="14" t="n">
-        <v>0.002034516374718437</v>
+        <v>0.1557190935486932</v>
       </c>
       <c r="Z21" s="14" t="n">
-        <v>0</v>
+        <v>0.1490272055612526</v>
       </c>
       <c r="AA21" s="14" t="n">
-        <v>0</v>
+        <v>0.1525097315556268</v>
       </c>
       <c r="AB21" s="14" t="n">
-        <v>0</v>
+        <v>0.142281151296605</v>
       </c>
       <c r="AC21" s="14" t="n">
-        <v>0</v>
+        <v>0.1522053681376846</v>
       </c>
       <c r="AD21" s="14" t="n">
-        <v>0</v>
+        <v>0.1600882275209413</v>
       </c>
     </row>
     <row r="22">
@@ -6139,12 +6818,12 @@
       </c>
       <c r="C22" s="12" t="inlineStr">
         <is>
-          <t>rp04</t>
+          <t>rp03</t>
         </is>
       </c>
       <c r="D22" s="12" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>Wind2</t>
         </is>
       </c>
       <c r="E22" s="13" t="inlineStr">
@@ -6158,76 +6837,76 @@
         </is>
       </c>
       <c r="G22" s="14" t="n">
-        <v>0.5198708628573773</v>
+        <v>0.1431873514475225</v>
       </c>
       <c r="H22" s="14" t="n">
-        <v>0.5622280054299498</v>
+        <v>0.151728143292308</v>
       </c>
       <c r="I22" s="14" t="n">
-        <v>0.5227524240270023</v>
+        <v>0.1528644014607476</v>
       </c>
       <c r="J22" s="14" t="n">
-        <v>0.5293399225862562</v>
+        <v>0.1458786279658614</v>
       </c>
       <c r="K22" s="14" t="n">
-        <v>0.5319041504618364</v>
+        <v>0.1386032624338585</v>
       </c>
       <c r="L22" s="14" t="n">
-        <v>0.5132722030213399</v>
+        <v>0.1335593746502558</v>
       </c>
       <c r="M22" s="14" t="n">
-        <v>0.4810681514261507</v>
+        <v>0.1239029421869539</v>
       </c>
       <c r="N22" s="14" t="n">
-        <v>0.4624125930744974</v>
+        <v>0.1194657752535365</v>
       </c>
       <c r="O22" s="14" t="n">
-        <v>0.467691425604271</v>
+        <v>0.1048627432092675</v>
       </c>
       <c r="P22" s="14" t="n">
-        <v>0.4769002567525264</v>
+        <v>0.09806602655867677</v>
       </c>
       <c r="Q22" s="14" t="n">
-        <v>0.433155196374725</v>
+        <v>0.1006328127118599</v>
       </c>
       <c r="R22" s="14" t="n">
-        <v>0.4589199885400075</v>
+        <v>0.09935636373055165</v>
       </c>
       <c r="S22" s="14" t="n">
-        <v>0.4112552912043153</v>
+        <v>0.1102565273098167</v>
       </c>
       <c r="T22" s="14" t="n">
-        <v>0.4144491408775588</v>
+        <v>0.1110310451095585</v>
       </c>
       <c r="U22" s="14" t="n">
-        <v>0.3675722105586565</v>
+        <v>0.1243036681917078</v>
       </c>
       <c r="V22" s="14" t="n">
-        <v>0.3648201935302194</v>
+        <v>0.1287476772506744</v>
       </c>
       <c r="W22" s="14" t="n">
-        <v>0.3498520500364183</v>
+        <v>0.1411035384959436</v>
       </c>
       <c r="X22" s="14" t="n">
-        <v>0.3477189289382859</v>
+        <v>0.1410725743966094</v>
       </c>
       <c r="Y22" s="14" t="n">
-        <v>0.3649676070214258</v>
+        <v>0.1507960365096971</v>
       </c>
       <c r="Z22" s="14" t="n">
-        <v>0.3909585014675828</v>
+        <v>0.1505025221147217</v>
       </c>
       <c r="AA22" s="14" t="n">
-        <v>0.3868770352046166</v>
+        <v>0.1515969298771422</v>
       </c>
       <c r="AB22" s="14" t="n">
-        <v>0.4471817468138761</v>
+        <v>0.1441191980119493</v>
       </c>
       <c r="AC22" s="14" t="n">
-        <v>0.4644955941417855</v>
+        <v>0.1586686243222222</v>
       </c>
       <c r="AD22" s="14" t="n">
-        <v>0.4923169626086796</v>
+        <v>0.1548321119722935</v>
       </c>
     </row>
     <row r="23">
@@ -6241,7 +6920,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>Wind2</t>
+          <t>PV OMV-Schoenkirchen</t>
         </is>
       </c>
       <c r="E23" s="13" t="inlineStr">
@@ -6255,76 +6934,76 @@
         </is>
       </c>
       <c r="G23" s="14" t="n">
-        <v>0.5162169224655291</v>
+        <v>0</v>
       </c>
       <c r="H23" s="14" t="n">
-        <v>0.5350244637090756</v>
+        <v>0</v>
       </c>
       <c r="I23" s="14" t="n">
-        <v>0.5429771411736954</v>
+        <v>0</v>
       </c>
       <c r="J23" s="14" t="n">
-        <v>0.5007861383583218</v>
+        <v>0</v>
       </c>
       <c r="K23" s="14" t="n">
-        <v>0.5079219629144032</v>
+        <v>0</v>
       </c>
       <c r="L23" s="14" t="n">
-        <v>0.4917405984658649</v>
+        <v>0.0002068237321711316</v>
       </c>
       <c r="M23" s="14" t="n">
-        <v>0.4861429295834807</v>
+        <v>0.00893823378656896</v>
       </c>
       <c r="N23" s="14" t="n">
-        <v>0.4917318478824828</v>
+        <v>0.06968174363696601</v>
       </c>
       <c r="O23" s="14" t="n">
-        <v>0.4516033818556283</v>
+        <v>0.1974422241330961</v>
       </c>
       <c r="P23" s="14" t="n">
-        <v>0.4699329196259682</v>
+        <v>0.3749843961188121</v>
       </c>
       <c r="Q23" s="14" t="n">
-        <v>0.461881828723591</v>
+        <v>0.4791894893903695</v>
       </c>
       <c r="R23" s="14" t="n">
-        <v>0.4485914649924193</v>
+        <v>0.5905963544413004</v>
       </c>
       <c r="S23" s="14" t="n">
-        <v>0.4276847792382542</v>
+        <v>0.565743251334321</v>
       </c>
       <c r="T23" s="14" t="n">
-        <v>0.4123102305699061</v>
+        <v>0.5354940991837339</v>
       </c>
       <c r="U23" s="14" t="n">
-        <v>0.3851138637198367</v>
+        <v>0.4261123984107925</v>
       </c>
       <c r="V23" s="14" t="n">
-        <v>0.3566595275984069</v>
+        <v>0.2981958325675493</v>
       </c>
       <c r="W23" s="14" t="n">
-        <v>0.3430864236129625</v>
+        <v>0.13151978303785</v>
       </c>
       <c r="X23" s="14" t="n">
-        <v>0.3633477252207891</v>
+        <v>0.02646791765870759</v>
       </c>
       <c r="Y23" s="14" t="n">
-        <v>0.3720890091096096</v>
+        <v>0.002034516374718437</v>
       </c>
       <c r="Z23" s="14" t="n">
-        <v>0.3841048041013099</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="14" t="n">
-        <v>0.4210862069737227</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="14" t="n">
-        <v>0.4097287898909855</v>
+        <v>0</v>
       </c>
       <c r="AC23" s="14" t="n">
-        <v>0.4562911447279256</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="14" t="n">
-        <v>0.4667274677287592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6333,12 +7012,12 @@
       </c>
       <c r="C24" s="12" t="inlineStr">
         <is>
-          <t>rp05</t>
+          <t>rp04</t>
         </is>
       </c>
       <c r="D24" s="12" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>PV Schafflerhofstraße</t>
         </is>
       </c>
       <c r="E24" s="13" t="inlineStr">
@@ -6367,49 +7046,49 @@
         <v>0</v>
       </c>
       <c r="L24" s="14" t="n">
-        <v>0.01714584590849656</v>
+        <v>0.0002047303145881193</v>
       </c>
       <c r="M24" s="14" t="n">
-        <v>0.1208402266619876</v>
+        <v>0.008608064891765464</v>
       </c>
       <c r="N24" s="14" t="n">
-        <v>0.2941592992777903</v>
+        <v>0.06709360758511133</v>
       </c>
       <c r="O24" s="14" t="n">
-        <v>0.5264453873196112</v>
+        <v>0.1961486197476273</v>
       </c>
       <c r="P24" s="14" t="n">
-        <v>0.654857917520358</v>
+        <v>0.3656761141480279</v>
       </c>
       <c r="Q24" s="14" t="n">
-        <v>0.8191097414406251</v>
+        <v>0.4770010035760103</v>
       </c>
       <c r="R24" s="14" t="n">
-        <v>0.820770657126792</v>
+        <v>0.5501266951491741</v>
       </c>
       <c r="S24" s="14" t="n">
-        <v>0.8256325292271469</v>
+        <v>0.5648870370563683</v>
       </c>
       <c r="T24" s="14" t="n">
-        <v>0.807752328837263</v>
+        <v>0.5390320422500391</v>
       </c>
       <c r="U24" s="14" t="n">
-        <v>0.6948800019106913</v>
+        <v>0.4424303678314603</v>
       </c>
       <c r="V24" s="14" t="n">
-        <v>0.545693409578682</v>
+        <v>0.2978526727220193</v>
       </c>
       <c r="W24" s="14" t="n">
-        <v>0.3775148326189647</v>
+        <v>0.134821138240139</v>
       </c>
       <c r="X24" s="14" t="n">
-        <v>0.1702341082472618</v>
+        <v>0.02722290761269004</v>
       </c>
       <c r="Y24" s="14" t="n">
-        <v>0.05180873923591207</v>
+        <v>0.002100483431428191</v>
       </c>
       <c r="Z24" s="14" t="n">
-        <v>0.002140687136804131</v>
+        <v>0</v>
       </c>
       <c r="AA24" s="14" t="n">
         <v>0</v>
@@ -6430,12 +7109,12 @@
       </c>
       <c r="C25" s="12" t="inlineStr">
         <is>
-          <t>rp05</t>
+          <t>rp04</t>
         </is>
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>Solar2</t>
+          <t>PV Trumau</t>
         </is>
       </c>
       <c r="E25" s="13" t="inlineStr">
@@ -6464,49 +7143,49 @@
         <v>0</v>
       </c>
       <c r="L25" s="14" t="n">
-        <v>0.0172224301322241</v>
+        <v>0.0002068237321711316</v>
       </c>
       <c r="M25" s="14" t="n">
-        <v>0.1187471829013999</v>
+        <v>0.00893823378656896</v>
       </c>
       <c r="N25" s="14" t="n">
-        <v>0.2950127468102942</v>
+        <v>0.06968174363696601</v>
       </c>
       <c r="O25" s="14" t="n">
-        <v>0.5099280039617321</v>
+        <v>0.1974422241330961</v>
       </c>
       <c r="P25" s="14" t="n">
-        <v>0.6737518631320115</v>
+        <v>0.3749843961188121</v>
       </c>
       <c r="Q25" s="14" t="n">
-        <v>0.7937659472480465</v>
+        <v>0.4791894893903695</v>
       </c>
       <c r="R25" s="14" t="n">
-        <v>0.8646240387222432</v>
+        <v>0.5905963544413004</v>
       </c>
       <c r="S25" s="14" t="n">
-        <v>0.8772653624990555</v>
+        <v>0.565743251334321</v>
       </c>
       <c r="T25" s="14" t="n">
-        <v>0.8002473316333086</v>
+        <v>0.5354940991837339</v>
       </c>
       <c r="U25" s="14" t="n">
-        <v>0.7188666057299068</v>
+        <v>0.4261123984107925</v>
       </c>
       <c r="V25" s="14" t="n">
-        <v>0.5488131181417562</v>
+        <v>0.2981958325675493</v>
       </c>
       <c r="W25" s="14" t="n">
-        <v>0.3536662476754783</v>
+        <v>0.13151978303785</v>
       </c>
       <c r="X25" s="14" t="n">
-        <v>0.1773736692645714</v>
+        <v>0.02646791765870759</v>
       </c>
       <c r="Y25" s="14" t="n">
-        <v>0.05181304592329146</v>
+        <v>0.002034516374718437</v>
       </c>
       <c r="Z25" s="14" t="n">
-        <v>0.002052424504998173</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="14" t="n">
         <v>0</v>
@@ -6527,7 +7206,7 @@
       </c>
       <c r="C26" s="12" t="inlineStr">
         <is>
-          <t>rp05</t>
+          <t>rp04</t>
         </is>
       </c>
       <c r="D26" s="12" t="inlineStr">
@@ -6546,76 +7225,76 @@
         </is>
       </c>
       <c r="G26" s="14" t="n">
-        <v>0.3436935847514748</v>
+        <v>0.5198708628573773</v>
       </c>
       <c r="H26" s="14" t="n">
-        <v>0.3305241577378899</v>
+        <v>0.5622280054299498</v>
       </c>
       <c r="I26" s="14" t="n">
-        <v>0.3504581080809145</v>
+        <v>0.5227524240270023</v>
       </c>
       <c r="J26" s="14" t="n">
-        <v>0.3666877096199035</v>
+        <v>0.5293399225862562</v>
       </c>
       <c r="K26" s="14" t="n">
-        <v>0.3903625028685476</v>
+        <v>0.5319041504618364</v>
       </c>
       <c r="L26" s="14" t="n">
-        <v>0.3600446788723883</v>
+        <v>0.5132722030213399</v>
       </c>
       <c r="M26" s="14" t="n">
-        <v>0.3861950863233996</v>
+        <v>0.4810681514261507</v>
       </c>
       <c r="N26" s="14" t="n">
-        <v>0.3985162317631984</v>
+        <v>0.4624125930744974</v>
       </c>
       <c r="O26" s="14" t="n">
-        <v>0.3973552077938509</v>
+        <v>0.467691425604271</v>
       </c>
       <c r="P26" s="14" t="n">
-        <v>0.4105114853589055</v>
+        <v>0.4769002567525264</v>
       </c>
       <c r="Q26" s="14" t="n">
-        <v>0.4631537861379472</v>
+        <v>0.433155196374725</v>
       </c>
       <c r="R26" s="14" t="n">
-        <v>0.4557104436465827</v>
+        <v>0.4589199885400075</v>
       </c>
       <c r="S26" s="14" t="n">
-        <v>0.4603659366042695</v>
+        <v>0.4112552912043153</v>
       </c>
       <c r="T26" s="14" t="n">
-        <v>0.4899485628514507</v>
+        <v>0.4144491408775588</v>
       </c>
       <c r="U26" s="14" t="n">
-        <v>0.4803101368492656</v>
+        <v>0.3675722105586565</v>
       </c>
       <c r="V26" s="14" t="n">
-        <v>0.4558362676633983</v>
+        <v>0.3648201935302194</v>
       </c>
       <c r="W26" s="14" t="n">
-        <v>0.3933481971810455</v>
+        <v>0.3498520500364183</v>
       </c>
       <c r="X26" s="14" t="n">
-        <v>0.3625490705569308</v>
+        <v>0.3477189289382859</v>
       </c>
       <c r="Y26" s="14" t="n">
-        <v>0.3476415440104556</v>
+        <v>0.3649676070214258</v>
       </c>
       <c r="Z26" s="14" t="n">
-        <v>0.3202655633902806</v>
+        <v>0.3909585014675828</v>
       </c>
       <c r="AA26" s="14" t="n">
-        <v>0.2878838054377968</v>
+        <v>0.3868770352046166</v>
       </c>
       <c r="AB26" s="14" t="n">
-        <v>0.2783633044944172</v>
+        <v>0.4471817468138761</v>
       </c>
       <c r="AC26" s="14" t="n">
-        <v>0.2907575503416784</v>
+        <v>0.4644955941417855</v>
       </c>
       <c r="AD26" s="14" t="n">
-        <v>0.282396808464417</v>
+        <v>0.4923169626086796</v>
       </c>
     </row>
     <row r="27">
@@ -6624,7 +7303,7 @@
       </c>
       <c r="C27" s="12" t="inlineStr">
         <is>
-          <t>rp05</t>
+          <t>rp04</t>
         </is>
       </c>
       <c r="D27" s="12" t="inlineStr">
@@ -6643,76 +7322,76 @@
         </is>
       </c>
       <c r="G27" s="14" t="n">
-        <v>0.3258557884680967</v>
+        <v>0.5162169224655291</v>
       </c>
       <c r="H27" s="14" t="n">
-        <v>0.32888537954059</v>
+        <v>0.5350244637090756</v>
       </c>
       <c r="I27" s="14" t="n">
-        <v>0.3472581954726658</v>
+        <v>0.5429771411736954</v>
       </c>
       <c r="J27" s="14" t="n">
-        <v>0.3748010051986542</v>
+        <v>0.5007861383583218</v>
       </c>
       <c r="K27" s="14" t="n">
-        <v>0.3916521921430086</v>
+        <v>0.5079219629144032</v>
       </c>
       <c r="L27" s="14" t="n">
-        <v>0.382679074857621</v>
+        <v>0.4917405984658649</v>
       </c>
       <c r="M27" s="14" t="n">
-        <v>0.3947924059715179</v>
+        <v>0.4861429295834807</v>
       </c>
       <c r="N27" s="14" t="n">
-        <v>0.3818583794239209</v>
+        <v>0.4917318478824828</v>
       </c>
       <c r="O27" s="14" t="n">
-        <v>0.4255459342425125</v>
+        <v>0.4516033818556283</v>
       </c>
       <c r="P27" s="14" t="n">
-        <v>0.4130405769386369</v>
+        <v>0.4699329196259682</v>
       </c>
       <c r="Q27" s="14" t="n">
-        <v>0.4757704022106267</v>
+        <v>0.461881828723591</v>
       </c>
       <c r="R27" s="14" t="n">
-        <v>0.4581613810659705</v>
+        <v>0.4485914649924193</v>
       </c>
       <c r="S27" s="14" t="n">
-        <v>0.4782806233040419</v>
+        <v>0.4276847792382542</v>
       </c>
       <c r="T27" s="14" t="n">
-        <v>0.4686115505255927</v>
+        <v>0.4123102305699061</v>
       </c>
       <c r="U27" s="14" t="n">
-        <v>0.4529996545803133</v>
+        <v>0.3851138637198367</v>
       </c>
       <c r="V27" s="14" t="n">
-        <v>0.4457408398968332</v>
+        <v>0.3566595275984069</v>
       </c>
       <c r="W27" s="14" t="n">
-        <v>0.3885045811781286</v>
+        <v>0.3430864236129625</v>
       </c>
       <c r="X27" s="14" t="n">
-        <v>0.367119374993644</v>
+        <v>0.3633477252207891</v>
       </c>
       <c r="Y27" s="14" t="n">
-        <v>0.3462387703679425</v>
+        <v>0.3720890091096096</v>
       </c>
       <c r="Z27" s="14" t="n">
-        <v>0.3167240304913195</v>
+        <v>0.3841048041013099</v>
       </c>
       <c r="AA27" s="14" t="n">
-        <v>0.3001211302166549</v>
+        <v>0.4210862069737227</v>
       </c>
       <c r="AB27" s="14" t="n">
-        <v>0.2826155137431956</v>
+        <v>0.4097287898909855</v>
       </c>
       <c r="AC27" s="14" t="n">
-        <v>0.3042885531052453</v>
+        <v>0.4562911447279256</v>
       </c>
       <c r="AD27" s="14" t="n">
-        <v>0.3020943144752775</v>
+        <v>0.4667274677287592</v>
       </c>
     </row>
     <row r="28">
@@ -6721,12 +7400,12 @@
       </c>
       <c r="C28" s="12" t="inlineStr">
         <is>
-          <t>rp06</t>
+          <t>rp05</t>
         </is>
       </c>
       <c r="D28" s="12" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>PV OMV-Schoenkirchen</t>
         </is>
       </c>
       <c r="E28" s="13" t="inlineStr">
@@ -6755,49 +7434,49 @@
         <v>0</v>
       </c>
       <c r="L28" s="14" t="n">
-        <v>0</v>
+        <v>0.0172224301322241</v>
       </c>
       <c r="M28" s="14" t="n">
-        <v>0</v>
+        <v>0.1187471829013999</v>
       </c>
       <c r="N28" s="14" t="n">
-        <v>0.005141184723723952</v>
+        <v>0.2950127468102942</v>
       </c>
       <c r="O28" s="14" t="n">
-        <v>0.1119048036986867</v>
+        <v>0.5099280039617321</v>
       </c>
       <c r="P28" s="14" t="n">
-        <v>0.2735701155164825</v>
+        <v>0.6737518631320115</v>
       </c>
       <c r="Q28" s="14" t="n">
-        <v>0.4127777039254807</v>
+        <v>0.7937659472480465</v>
       </c>
       <c r="R28" s="14" t="n">
-        <v>0.505517339822143</v>
+        <v>0.8646240387222432</v>
       </c>
       <c r="S28" s="14" t="n">
-        <v>0.5399173362656876</v>
+        <v>0.8772653624990555</v>
       </c>
       <c r="T28" s="14" t="n">
-        <v>0.4752553146166001</v>
+        <v>0.8002473316333086</v>
       </c>
       <c r="U28" s="14" t="n">
-        <v>0.4079719381093216</v>
+        <v>0.7188666057299068</v>
       </c>
       <c r="V28" s="14" t="n">
-        <v>0.2362899405512315</v>
+        <v>0.5488131181417562</v>
       </c>
       <c r="W28" s="14" t="n">
-        <v>0.0493194378804569</v>
+        <v>0.3536662476754783</v>
       </c>
       <c r="X28" s="14" t="n">
-        <v>0</v>
+        <v>0.1773736692645714</v>
       </c>
       <c r="Y28" s="14" t="n">
-        <v>0</v>
+        <v>0.05181304592329146</v>
       </c>
       <c r="Z28" s="14" t="n">
-        <v>0</v>
+        <v>0.002052424504998173</v>
       </c>
       <c r="AA28" s="14" t="n">
         <v>0</v>
@@ -6818,12 +7497,12 @@
       </c>
       <c r="C29" s="12" t="inlineStr">
         <is>
-          <t>rp06</t>
+          <t>rp05</t>
         </is>
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>Solar2</t>
+          <t>PV Schafflerhofstraße</t>
         </is>
       </c>
       <c r="E29" s="13" t="inlineStr">
@@ -6852,49 +7531,49 @@
         <v>0</v>
       </c>
       <c r="L29" s="14" t="n">
-        <v>0</v>
+        <v>0.01714584590849656</v>
       </c>
       <c r="M29" s="14" t="n">
-        <v>0</v>
+        <v>0.1208402266619876</v>
       </c>
       <c r="N29" s="14" t="n">
-        <v>0.005454948639435683</v>
+        <v>0.2941592992777903</v>
       </c>
       <c r="O29" s="14" t="n">
-        <v>0.1166130189265883</v>
+        <v>0.5264453873196112</v>
       </c>
       <c r="P29" s="14" t="n">
-        <v>0.2889209378903727</v>
+        <v>0.654857917520358</v>
       </c>
       <c r="Q29" s="14" t="n">
-        <v>0.4286030979961113</v>
+        <v>0.8191097414406251</v>
       </c>
       <c r="R29" s="14" t="n">
-        <v>0.5137719360751004</v>
+        <v>0.820770657126792</v>
       </c>
       <c r="S29" s="14" t="n">
-        <v>0.5296976231361499</v>
+        <v>0.8256325292271469</v>
       </c>
       <c r="T29" s="14" t="n">
-        <v>0.4933405975814246</v>
+        <v>0.807752328837263</v>
       </c>
       <c r="U29" s="14" t="n">
-        <v>0.3956081186206719</v>
+        <v>0.6948800019106913</v>
       </c>
       <c r="V29" s="14" t="n">
-        <v>0.2431614629457135</v>
+        <v>0.545693409578682</v>
       </c>
       <c r="W29" s="14" t="n">
-        <v>0.04925766579312765</v>
+        <v>0.3775148326189647</v>
       </c>
       <c r="X29" s="14" t="n">
-        <v>0</v>
+        <v>0.1702341082472618</v>
       </c>
       <c r="Y29" s="14" t="n">
-        <v>0</v>
+        <v>0.05180873923591207</v>
       </c>
       <c r="Z29" s="14" t="n">
-        <v>0</v>
+        <v>0.002140687136804131</v>
       </c>
       <c r="AA29" s="14" t="n">
         <v>0</v>
@@ -6915,12 +7594,12 @@
       </c>
       <c r="C30" s="12" t="inlineStr">
         <is>
-          <t>rp06</t>
+          <t>rp05</t>
         </is>
       </c>
       <c r="D30" s="12" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>PV Trumau</t>
         </is>
       </c>
       <c r="E30" s="13" t="inlineStr">
@@ -6934,76 +7613,76 @@
         </is>
       </c>
       <c r="G30" s="14" t="n">
-        <v>0.5395217781336767</v>
+        <v>0</v>
       </c>
       <c r="H30" s="14" t="n">
-        <v>0.5535820461288211</v>
+        <v>0</v>
       </c>
       <c r="I30" s="14" t="n">
-        <v>0.5863627817357883</v>
+        <v>0</v>
       </c>
       <c r="J30" s="14" t="n">
-        <v>0.6107813668833108</v>
+        <v>0</v>
       </c>
       <c r="K30" s="14" t="n">
-        <v>0.6196828063777753</v>
+        <v>0</v>
       </c>
       <c r="L30" s="14" t="n">
-        <v>0.592300766392911</v>
+        <v>0.0172224301322241</v>
       </c>
       <c r="M30" s="14" t="n">
-        <v>0.610658524747884</v>
+        <v>0.1187471829013999</v>
       </c>
       <c r="N30" s="14" t="n">
-        <v>0.6008989015243382</v>
+        <v>0.2950127468102942</v>
       </c>
       <c r="O30" s="14" t="n">
-        <v>0.5770199242328219</v>
+        <v>0.5099280039617321</v>
       </c>
       <c r="P30" s="14" t="n">
-        <v>0.6021565327733198</v>
+        <v>0.6737518631320115</v>
       </c>
       <c r="Q30" s="14" t="n">
-        <v>0.6157972592303805</v>
+        <v>0.7937659472480465</v>
       </c>
       <c r="R30" s="14" t="n">
-        <v>0.6357955932080964</v>
+        <v>0.8646240387222432</v>
       </c>
       <c r="S30" s="14" t="n">
-        <v>0.6510883041578598</v>
+        <v>0.8772653624990555</v>
       </c>
       <c r="T30" s="14" t="n">
-        <v>0.6609381640781989</v>
+        <v>0.8002473316333086</v>
       </c>
       <c r="U30" s="14" t="n">
-        <v>0.678319445448461</v>
+        <v>0.7188666057299068</v>
       </c>
       <c r="V30" s="14" t="n">
-        <v>0.7043708023247995</v>
+        <v>0.5488131181417562</v>
       </c>
       <c r="W30" s="14" t="n">
-        <v>0.6901173724383729</v>
+        <v>0.3536662476754783</v>
       </c>
       <c r="X30" s="14" t="n">
-        <v>0.6839579337868219</v>
+        <v>0.1773736692645714</v>
       </c>
       <c r="Y30" s="14" t="n">
-        <v>0.6768851230004457</v>
+        <v>0.05181304592329146</v>
       </c>
       <c r="Z30" s="14" t="n">
-        <v>0.6379426105952001</v>
+        <v>0.002052424504998173</v>
       </c>
       <c r="AA30" s="14" t="n">
-        <v>0.6227855906094021</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="14" t="n">
-        <v>0.5966270992671125</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="14" t="n">
-        <v>0.5834658591436457</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="14" t="n">
-        <v>0.583025471810839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -7012,12 +7691,12 @@
       </c>
       <c r="C31" s="12" t="inlineStr">
         <is>
-          <t>rp06</t>
+          <t>rp05</t>
         </is>
       </c>
       <c r="D31" s="12" t="inlineStr">
         <is>
-          <t>Wind2</t>
+          <t>Wind</t>
         </is>
       </c>
       <c r="E31" s="13" t="inlineStr">
@@ -7031,76 +7710,76 @@
         </is>
       </c>
       <c r="G31" s="14" t="n">
-        <v>0.5397196791259345</v>
+        <v>0.3436935847514748</v>
       </c>
       <c r="H31" s="14" t="n">
-        <v>0.5622369672700092</v>
+        <v>0.3305241577378899</v>
       </c>
       <c r="I31" s="14" t="n">
-        <v>0.5983063163667827</v>
+        <v>0.3504581080809145</v>
       </c>
       <c r="J31" s="14" t="n">
-        <v>0.5719689158501048</v>
+        <v>0.3666877096199035</v>
       </c>
       <c r="K31" s="14" t="n">
-        <v>0.6261973100680204</v>
+        <v>0.3903625028685476</v>
       </c>
       <c r="L31" s="14" t="n">
-        <v>0.6048205847756551</v>
+        <v>0.3600446788723883</v>
       </c>
       <c r="M31" s="14" t="n">
-        <v>0.6205969706880876</v>
+        <v>0.3861950863233996</v>
       </c>
       <c r="N31" s="14" t="n">
-        <v>0.5604795338962634</v>
+        <v>0.3985162317631984</v>
       </c>
       <c r="O31" s="14" t="n">
-        <v>0.5602393791239305</v>
+        <v>0.3973552077938509</v>
       </c>
       <c r="P31" s="14" t="n">
-        <v>0.6233110194581781</v>
+        <v>0.4105114853589055</v>
       </c>
       <c r="Q31" s="14" t="n">
-        <v>0.634820468997813</v>
+        <v>0.4631537861379472</v>
       </c>
       <c r="R31" s="14" t="n">
-        <v>0.6549426990091457</v>
+        <v>0.4557104436465827</v>
       </c>
       <c r="S31" s="14" t="n">
-        <v>0.6657579545434811</v>
+        <v>0.4603659366042695</v>
       </c>
       <c r="T31" s="14" t="n">
-        <v>0.6606146037030973</v>
+        <v>0.4899485628514507</v>
       </c>
       <c r="U31" s="14" t="n">
-        <v>0.696566065192929</v>
+        <v>0.4803101368492656</v>
       </c>
       <c r="V31" s="14" t="n">
-        <v>0.7073942026519521</v>
+        <v>0.4558362676633983</v>
       </c>
       <c r="W31" s="14" t="n">
-        <v>0.6645632757520881</v>
+        <v>0.3933481971810455</v>
       </c>
       <c r="X31" s="14" t="n">
-        <v>0.6844242186542777</v>
+        <v>0.3625490705569308</v>
       </c>
       <c r="Y31" s="14" t="n">
-        <v>0.650970098306627</v>
+        <v>0.3476415440104556</v>
       </c>
       <c r="Z31" s="14" t="n">
-        <v>0.6715898364907893</v>
+        <v>0.3202655633902806</v>
       </c>
       <c r="AA31" s="14" t="n">
-        <v>0.6032316217356527</v>
+        <v>0.2878838054377968</v>
       </c>
       <c r="AB31" s="14" t="n">
-        <v>0.6266840844548308</v>
+        <v>0.2783633044944172</v>
       </c>
       <c r="AC31" s="14" t="n">
-        <v>0.5943267086196741</v>
+        <v>0.2907575503416784</v>
       </c>
       <c r="AD31" s="14" t="n">
-        <v>0.6050946626531896</v>
+        <v>0.282396808464417</v>
       </c>
     </row>
     <row r="32">
@@ -7109,12 +7788,12 @@
       </c>
       <c r="C32" s="12" t="inlineStr">
         <is>
-          <t>rp07</t>
+          <t>rp05</t>
         </is>
       </c>
       <c r="D32" s="12" t="inlineStr">
         <is>
-          <t>Solar</t>
+          <t>Wind2</t>
         </is>
       </c>
       <c r="E32" s="13" t="inlineStr">
@@ -7128,76 +7807,76 @@
         </is>
       </c>
       <c r="G32" s="14" t="n">
-        <v>0</v>
+        <v>0.3258557884680967</v>
       </c>
       <c r="H32" s="14" t="n">
-        <v>0</v>
+        <v>0.32888537954059</v>
       </c>
       <c r="I32" s="14" t="n">
-        <v>0</v>
+        <v>0.3472581954726658</v>
       </c>
       <c r="J32" s="14" t="n">
-        <v>0</v>
+        <v>0.3748010051986542</v>
       </c>
       <c r="K32" s="14" t="n">
-        <v>0</v>
+        <v>0.3916521921430086</v>
       </c>
       <c r="L32" s="14" t="n">
-        <v>0.0005244024482227093</v>
+        <v>0.382679074857621</v>
       </c>
       <c r="M32" s="14" t="n">
-        <v>0.007521258146851085</v>
+        <v>0.3947924059715179</v>
       </c>
       <c r="N32" s="14" t="n">
-        <v>0.05197389857563622</v>
+        <v>0.3818583794239209</v>
       </c>
       <c r="O32" s="14" t="n">
-        <v>0.1728493402015033</v>
+        <v>0.4255459342425125</v>
       </c>
       <c r="P32" s="14" t="n">
-        <v>0.3020551634023542</v>
+        <v>0.4130405769386369</v>
       </c>
       <c r="Q32" s="14" t="n">
-        <v>0.4420274519459962</v>
+        <v>0.4757704022106267</v>
       </c>
       <c r="R32" s="14" t="n">
-        <v>0.5063104393243856</v>
+        <v>0.4581613810659705</v>
       </c>
       <c r="S32" s="14" t="n">
-        <v>0.5272225177514344</v>
+        <v>0.4782806233040419</v>
       </c>
       <c r="T32" s="14" t="n">
-        <v>0.4634361380197524</v>
+        <v>0.4686115505255927</v>
       </c>
       <c r="U32" s="14" t="n">
-        <v>0.3956451228809972</v>
+        <v>0.4529996545803133</v>
       </c>
       <c r="V32" s="14" t="n">
-        <v>0.2586520700402351</v>
+        <v>0.4457408398968332</v>
       </c>
       <c r="W32" s="14" t="n">
-        <v>0.1029217099711824</v>
+        <v>0.3885045811781286</v>
       </c>
       <c r="X32" s="14" t="n">
-        <v>0.01644261441100123</v>
+        <v>0.367119374993644</v>
       </c>
       <c r="Y32" s="14" t="n">
-        <v>0.002410918632454461</v>
+        <v>0.3462387703679425</v>
       </c>
       <c r="Z32" s="14" t="n">
-        <v>0</v>
+        <v>0.3167240304913195</v>
       </c>
       <c r="AA32" s="14" t="n">
-        <v>0</v>
+        <v>0.3001211302166549</v>
       </c>
       <c r="AB32" s="14" t="n">
-        <v>0</v>
+        <v>0.2826155137431956</v>
       </c>
       <c r="AC32" s="14" t="n">
-        <v>0</v>
+        <v>0.3042885531052453</v>
       </c>
       <c r="AD32" s="14" t="n">
-        <v>0</v>
+        <v>0.3020943144752775</v>
       </c>
     </row>
     <row r="33">
@@ -7206,12 +7885,12 @@
       </c>
       <c r="C33" s="12" t="inlineStr">
         <is>
-          <t>rp07</t>
+          <t>rp06</t>
         </is>
       </c>
       <c r="D33" s="12" t="inlineStr">
         <is>
-          <t>Solar2</t>
+          <t>PV OMV-Schoenkirchen</t>
         </is>
       </c>
       <c r="E33" s="13" t="inlineStr">
@@ -7240,46 +7919,46 @@
         <v>0</v>
       </c>
       <c r="L33" s="14" t="n">
-        <v>0.0004961938585399215</v>
+        <v>0</v>
       </c>
       <c r="M33" s="14" t="n">
-        <v>0.007400900829190022</v>
+        <v>0</v>
       </c>
       <c r="N33" s="14" t="n">
-        <v>0.05047580578178819</v>
+        <v>0.005454948639435683</v>
       </c>
       <c r="O33" s="14" t="n">
-        <v>0.1645351210219912</v>
+        <v>0.1166130189265883</v>
       </c>
       <c r="P33" s="14" t="n">
-        <v>0.3054388471810509</v>
+        <v>0.2889209378903727</v>
       </c>
       <c r="Q33" s="14" t="n">
-        <v>0.4412379484734938</v>
+        <v>0.4286030979961113</v>
       </c>
       <c r="R33" s="14" t="n">
-        <v>0.5064098286243356</v>
+        <v>0.5137719360751004</v>
       </c>
       <c r="S33" s="14" t="n">
-        <v>0.5392329254220486</v>
+        <v>0.5296976231361499</v>
       </c>
       <c r="T33" s="14" t="n">
-        <v>0.5001166354386021</v>
+        <v>0.4933405975814246</v>
       </c>
       <c r="U33" s="14" t="n">
-        <v>0.3988291391659041</v>
+        <v>0.3956081186206719</v>
       </c>
       <c r="V33" s="14" t="n">
-        <v>0.2636393114312848</v>
+        <v>0.2431614629457135</v>
       </c>
       <c r="W33" s="14" t="n">
-        <v>0.0987689962911278</v>
+        <v>0.04925766579312765</v>
       </c>
       <c r="X33" s="14" t="n">
-        <v>0.01685993126264124</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="14" t="n">
-        <v>0.002388090127865258</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="14" t="n">
         <v>0</v>
@@ -7303,12 +7982,12 @@
       </c>
       <c r="C34" s="12" t="inlineStr">
         <is>
-          <t>rp07</t>
+          <t>rp06</t>
         </is>
       </c>
       <c r="D34" s="12" t="inlineStr">
         <is>
-          <t>Wind</t>
+          <t>PV Schafflerhofstraße</t>
         </is>
       </c>
       <c r="E34" s="13" t="inlineStr">
@@ -7322,76 +8001,76 @@
         </is>
       </c>
       <c r="G34" s="14" t="n">
-        <v>0.6737518832021537</v>
+        <v>0</v>
       </c>
       <c r="H34" s="14" t="n">
-        <v>0.7176156108817811</v>
+        <v>0</v>
       </c>
       <c r="I34" s="14" t="n">
-        <v>0.6679806593272821</v>
+        <v>0</v>
       </c>
       <c r="J34" s="14" t="n">
-        <v>0.7086103005094879</v>
+        <v>0</v>
       </c>
       <c r="K34" s="14" t="n">
-        <v>0.7042718109064705</v>
+        <v>0</v>
       </c>
       <c r="L34" s="14" t="n">
-        <v>0.759087209734192</v>
+        <v>0</v>
       </c>
       <c r="M34" s="14" t="n">
-        <v>0.7531142234533554</v>
+        <v>0</v>
       </c>
       <c r="N34" s="14" t="n">
-        <v>0.7640032150822487</v>
+        <v>0.005141184723723952</v>
       </c>
       <c r="O34" s="14" t="n">
-        <v>0.7436403523883139</v>
+        <v>0.1119048036986867</v>
       </c>
       <c r="P34" s="14" t="n">
-        <v>0.7795095169330368</v>
+        <v>0.2735701155164825</v>
       </c>
       <c r="Q34" s="14" t="n">
-        <v>0.7772062391886277</v>
+        <v>0.4127777039254807</v>
       </c>
       <c r="R34" s="14" t="n">
-        <v>0.7823296832818352</v>
+        <v>0.505517339822143</v>
       </c>
       <c r="S34" s="14" t="n">
-        <v>0.8081855991813753</v>
+        <v>0.5399173362656876</v>
       </c>
       <c r="T34" s="14" t="n">
-        <v>0.8119220698758555</v>
+        <v>0.4752553146166001</v>
       </c>
       <c r="U34" s="14" t="n">
-        <v>0.8154220873244681</v>
+        <v>0.4079719381093216</v>
       </c>
       <c r="V34" s="14" t="n">
-        <v>0.800740185298437</v>
+        <v>0.2362899405512315</v>
       </c>
       <c r="W34" s="14" t="n">
-        <v>0.7568824509126135</v>
+        <v>0.0493194378804569</v>
       </c>
       <c r="X34" s="14" t="n">
-        <v>0.7827940681914934</v>
+        <v>0</v>
       </c>
       <c r="Y34" s="14" t="n">
-        <v>0.7847168248229751</v>
+        <v>0</v>
       </c>
       <c r="Z34" s="14" t="n">
-        <v>0.7828875099588952</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="14" t="n">
-        <v>0.7319046162609607</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="14" t="n">
-        <v>0.7268211574318542</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="14" t="n">
-        <v>0.7421660673906298</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="14" t="n">
-        <v>0.7182005869664368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -7400,94 +8079,773 @@
       </c>
       <c r="C35" s="12" t="inlineStr">
         <is>
+          <t>rp06</t>
+        </is>
+      </c>
+      <c r="D35" s="12" t="inlineStr">
+        <is>
+          <t>PV Trumau</t>
+        </is>
+      </c>
+      <c r="E35" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F35" s="13" t="inlineStr">
+        <is>
+          <t>TestSource1</t>
+        </is>
+      </c>
+      <c r="G35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="14" t="n">
+        <v>0.005454948639435683</v>
+      </c>
+      <c r="O35" s="14" t="n">
+        <v>0.1166130189265883</v>
+      </c>
+      <c r="P35" s="14" t="n">
+        <v>0.2889209378903727</v>
+      </c>
+      <c r="Q35" s="14" t="n">
+        <v>0.4286030979961113</v>
+      </c>
+      <c r="R35" s="14" t="n">
+        <v>0.5137719360751004</v>
+      </c>
+      <c r="S35" s="14" t="n">
+        <v>0.5296976231361499</v>
+      </c>
+      <c r="T35" s="14" t="n">
+        <v>0.4933405975814246</v>
+      </c>
+      <c r="U35" s="14" t="n">
+        <v>0.3956081186206719</v>
+      </c>
+      <c r="V35" s="14" t="n">
+        <v>0.2431614629457135</v>
+      </c>
+      <c r="W35" s="14" t="n">
+        <v>0.04925766579312765</v>
+      </c>
+      <c r="X35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C36" s="12" t="inlineStr">
+        <is>
+          <t>rp06</t>
+        </is>
+      </c>
+      <c r="D36" s="12" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="E36" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F36" s="13" t="inlineStr">
+        <is>
+          <t>TestSource1</t>
+        </is>
+      </c>
+      <c r="G36" s="14" t="n">
+        <v>0.5395217781336767</v>
+      </c>
+      <c r="H36" s="14" t="n">
+        <v>0.5535820461288211</v>
+      </c>
+      <c r="I36" s="14" t="n">
+        <v>0.5863627817357883</v>
+      </c>
+      <c r="J36" s="14" t="n">
+        <v>0.6107813668833108</v>
+      </c>
+      <c r="K36" s="14" t="n">
+        <v>0.6196828063777753</v>
+      </c>
+      <c r="L36" s="14" t="n">
+        <v>0.592300766392911</v>
+      </c>
+      <c r="M36" s="14" t="n">
+        <v>0.610658524747884</v>
+      </c>
+      <c r="N36" s="14" t="n">
+        <v>0.6008989015243382</v>
+      </c>
+      <c r="O36" s="14" t="n">
+        <v>0.5770199242328219</v>
+      </c>
+      <c r="P36" s="14" t="n">
+        <v>0.6021565327733198</v>
+      </c>
+      <c r="Q36" s="14" t="n">
+        <v>0.6157972592303805</v>
+      </c>
+      <c r="R36" s="14" t="n">
+        <v>0.6357955932080964</v>
+      </c>
+      <c r="S36" s="14" t="n">
+        <v>0.6510883041578598</v>
+      </c>
+      <c r="T36" s="14" t="n">
+        <v>0.6609381640781989</v>
+      </c>
+      <c r="U36" s="14" t="n">
+        <v>0.678319445448461</v>
+      </c>
+      <c r="V36" s="14" t="n">
+        <v>0.7043708023247995</v>
+      </c>
+      <c r="W36" s="14" t="n">
+        <v>0.6901173724383729</v>
+      </c>
+      <c r="X36" s="14" t="n">
+        <v>0.6839579337868219</v>
+      </c>
+      <c r="Y36" s="14" t="n">
+        <v>0.6768851230004457</v>
+      </c>
+      <c r="Z36" s="14" t="n">
+        <v>0.6379426105952001</v>
+      </c>
+      <c r="AA36" s="14" t="n">
+        <v>0.6227855906094021</v>
+      </c>
+      <c r="AB36" s="14" t="n">
+        <v>0.5966270992671125</v>
+      </c>
+      <c r="AC36" s="14" t="n">
+        <v>0.5834658591436457</v>
+      </c>
+      <c r="AD36" s="14" t="n">
+        <v>0.583025471810839</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C37" s="12" t="inlineStr">
+        <is>
+          <t>rp06</t>
+        </is>
+      </c>
+      <c r="D37" s="12" t="inlineStr">
+        <is>
+          <t>Wind2</t>
+        </is>
+      </c>
+      <c r="E37" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F37" s="13" t="inlineStr">
+        <is>
+          <t>TestSource1</t>
+        </is>
+      </c>
+      <c r="G37" s="14" t="n">
+        <v>0.5397196791259345</v>
+      </c>
+      <c r="H37" s="14" t="n">
+        <v>0.5622369672700092</v>
+      </c>
+      <c r="I37" s="14" t="n">
+        <v>0.5983063163667827</v>
+      </c>
+      <c r="J37" s="14" t="n">
+        <v>0.5719689158501048</v>
+      </c>
+      <c r="K37" s="14" t="n">
+        <v>0.6261973100680204</v>
+      </c>
+      <c r="L37" s="14" t="n">
+        <v>0.6048205847756551</v>
+      </c>
+      <c r="M37" s="14" t="n">
+        <v>0.6205969706880876</v>
+      </c>
+      <c r="N37" s="14" t="n">
+        <v>0.5604795338962634</v>
+      </c>
+      <c r="O37" s="14" t="n">
+        <v>0.5602393791239305</v>
+      </c>
+      <c r="P37" s="14" t="n">
+        <v>0.6233110194581781</v>
+      </c>
+      <c r="Q37" s="14" t="n">
+        <v>0.634820468997813</v>
+      </c>
+      <c r="R37" s="14" t="n">
+        <v>0.6549426990091457</v>
+      </c>
+      <c r="S37" s="14" t="n">
+        <v>0.6657579545434811</v>
+      </c>
+      <c r="T37" s="14" t="n">
+        <v>0.6606146037030973</v>
+      </c>
+      <c r="U37" s="14" t="n">
+        <v>0.696566065192929</v>
+      </c>
+      <c r="V37" s="14" t="n">
+        <v>0.7073942026519521</v>
+      </c>
+      <c r="W37" s="14" t="n">
+        <v>0.6645632757520881</v>
+      </c>
+      <c r="X37" s="14" t="n">
+        <v>0.6844242186542777</v>
+      </c>
+      <c r="Y37" s="14" t="n">
+        <v>0.650970098306627</v>
+      </c>
+      <c r="Z37" s="14" t="n">
+        <v>0.6715898364907893</v>
+      </c>
+      <c r="AA37" s="14" t="n">
+        <v>0.6032316217356527</v>
+      </c>
+      <c r="AB37" s="14" t="n">
+        <v>0.6266840844548308</v>
+      </c>
+      <c r="AC37" s="14" t="n">
+        <v>0.5943267086196741</v>
+      </c>
+      <c r="AD37" s="14" t="n">
+        <v>0.6050946626531896</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C38" s="12" t="inlineStr">
+        <is>
           <t>rp07</t>
         </is>
       </c>
-      <c r="D35" s="12" t="inlineStr">
+      <c r="D38" s="12" t="inlineStr">
+        <is>
+          <t>PV OMV-Schoenkirchen</t>
+        </is>
+      </c>
+      <c r="E38" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F38" s="13" t="inlineStr">
+        <is>
+          <t>TestSource1</t>
+        </is>
+      </c>
+      <c r="G38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="14" t="n">
+        <v>0.0004961938585399215</v>
+      </c>
+      <c r="M38" s="14" t="n">
+        <v>0.007400900829190022</v>
+      </c>
+      <c r="N38" s="14" t="n">
+        <v>0.05047580578178819</v>
+      </c>
+      <c r="O38" s="14" t="n">
+        <v>0.1645351210219912</v>
+      </c>
+      <c r="P38" s="14" t="n">
+        <v>0.3054388471810509</v>
+      </c>
+      <c r="Q38" s="14" t="n">
+        <v>0.4412379484734938</v>
+      </c>
+      <c r="R38" s="14" t="n">
+        <v>0.5064098286243356</v>
+      </c>
+      <c r="S38" s="14" t="n">
+        <v>0.5392329254220486</v>
+      </c>
+      <c r="T38" s="14" t="n">
+        <v>0.5001166354386021</v>
+      </c>
+      <c r="U38" s="14" t="n">
+        <v>0.3988291391659041</v>
+      </c>
+      <c r="V38" s="14" t="n">
+        <v>0.2636393114312848</v>
+      </c>
+      <c r="W38" s="14" t="n">
+        <v>0.0987689962911278</v>
+      </c>
+      <c r="X38" s="14" t="n">
+        <v>0.01685993126264124</v>
+      </c>
+      <c r="Y38" s="14" t="n">
+        <v>0.002388090127865258</v>
+      </c>
+      <c r="Z38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C39" s="12" t="inlineStr">
+        <is>
+          <t>rp07</t>
+        </is>
+      </c>
+      <c r="D39" s="12" t="inlineStr">
+        <is>
+          <t>PV Schafflerhofstraße</t>
+        </is>
+      </c>
+      <c r="E39" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="inlineStr">
+        <is>
+          <t>TestSource1</t>
+        </is>
+      </c>
+      <c r="G39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="14" t="n">
+        <v>0.0005244024482227093</v>
+      </c>
+      <c r="M39" s="14" t="n">
+        <v>0.007521258146851085</v>
+      </c>
+      <c r="N39" s="14" t="n">
+        <v>0.05197389857563622</v>
+      </c>
+      <c r="O39" s="14" t="n">
+        <v>0.1728493402015033</v>
+      </c>
+      <c r="P39" s="14" t="n">
+        <v>0.3020551634023542</v>
+      </c>
+      <c r="Q39" s="14" t="n">
+        <v>0.4420274519459962</v>
+      </c>
+      <c r="R39" s="14" t="n">
+        <v>0.5063104393243856</v>
+      </c>
+      <c r="S39" s="14" t="n">
+        <v>0.5272225177514344</v>
+      </c>
+      <c r="T39" s="14" t="n">
+        <v>0.4634361380197524</v>
+      </c>
+      <c r="U39" s="14" t="n">
+        <v>0.3956451228809972</v>
+      </c>
+      <c r="V39" s="14" t="n">
+        <v>0.2586520700402351</v>
+      </c>
+      <c r="W39" s="14" t="n">
+        <v>0.1029217099711824</v>
+      </c>
+      <c r="X39" s="14" t="n">
+        <v>0.01644261441100123</v>
+      </c>
+      <c r="Y39" s="14" t="n">
+        <v>0.002410918632454461</v>
+      </c>
+      <c r="Z39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C40" s="12" t="inlineStr">
+        <is>
+          <t>rp07</t>
+        </is>
+      </c>
+      <c r="D40" s="12" t="inlineStr">
+        <is>
+          <t>PV Trumau</t>
+        </is>
+      </c>
+      <c r="E40" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F40" s="13" t="inlineStr">
+        <is>
+          <t>TestSource1</t>
+        </is>
+      </c>
+      <c r="G40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="14" t="n">
+        <v>0.0004961938585399215</v>
+      </c>
+      <c r="M40" s="14" t="n">
+        <v>0.007400900829190022</v>
+      </c>
+      <c r="N40" s="14" t="n">
+        <v>0.05047580578178819</v>
+      </c>
+      <c r="O40" s="14" t="n">
+        <v>0.1645351210219912</v>
+      </c>
+      <c r="P40" s="14" t="n">
+        <v>0.3054388471810509</v>
+      </c>
+      <c r="Q40" s="14" t="n">
+        <v>0.4412379484734938</v>
+      </c>
+      <c r="R40" s="14" t="n">
+        <v>0.5064098286243356</v>
+      </c>
+      <c r="S40" s="14" t="n">
+        <v>0.5392329254220486</v>
+      </c>
+      <c r="T40" s="14" t="n">
+        <v>0.5001166354386021</v>
+      </c>
+      <c r="U40" s="14" t="n">
+        <v>0.3988291391659041</v>
+      </c>
+      <c r="V40" s="14" t="n">
+        <v>0.2636393114312848</v>
+      </c>
+      <c r="W40" s="14" t="n">
+        <v>0.0987689962911278</v>
+      </c>
+      <c r="X40" s="14" t="n">
+        <v>0.01685993126264124</v>
+      </c>
+      <c r="Y40" s="14" t="n">
+        <v>0.002388090127865258</v>
+      </c>
+      <c r="Z40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C41" s="12" t="inlineStr">
+        <is>
+          <t>rp07</t>
+        </is>
+      </c>
+      <c r="D41" s="12" t="inlineStr">
+        <is>
+          <t>Wind</t>
+        </is>
+      </c>
+      <c r="E41" s="13" t="inlineStr">
+        <is>
+          <t>TestPackage1</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="inlineStr">
+        <is>
+          <t>TestSource1</t>
+        </is>
+      </c>
+      <c r="G41" s="14" t="n">
+        <v>0.6737518832021537</v>
+      </c>
+      <c r="H41" s="14" t="n">
+        <v>0.7176156108817811</v>
+      </c>
+      <c r="I41" s="14" t="n">
+        <v>0.6679806593272821</v>
+      </c>
+      <c r="J41" s="14" t="n">
+        <v>0.7086103005094879</v>
+      </c>
+      <c r="K41" s="14" t="n">
+        <v>0.7042718109064705</v>
+      </c>
+      <c r="L41" s="14" t="n">
+        <v>0.759087209734192</v>
+      </c>
+      <c r="M41" s="14" t="n">
+        <v>0.7531142234533554</v>
+      </c>
+      <c r="N41" s="14" t="n">
+        <v>0.7640032150822487</v>
+      </c>
+      <c r="O41" s="14" t="n">
+        <v>0.7436403523883139</v>
+      </c>
+      <c r="P41" s="14" t="n">
+        <v>0.7795095169330368</v>
+      </c>
+      <c r="Q41" s="14" t="n">
+        <v>0.7772062391886277</v>
+      </c>
+      <c r="R41" s="14" t="n">
+        <v>0.7823296832818352</v>
+      </c>
+      <c r="S41" s="14" t="n">
+        <v>0.8081855991813753</v>
+      </c>
+      <c r="T41" s="14" t="n">
+        <v>0.8119220698758555</v>
+      </c>
+      <c r="U41" s="14" t="n">
+        <v>0.8154220873244681</v>
+      </c>
+      <c r="V41" s="14" t="n">
+        <v>0.800740185298437</v>
+      </c>
+      <c r="W41" s="14" t="n">
+        <v>0.7568824509126135</v>
+      </c>
+      <c r="X41" s="14" t="n">
+        <v>0.7827940681914934</v>
+      </c>
+      <c r="Y41" s="14" t="n">
+        <v>0.7847168248229751</v>
+      </c>
+      <c r="Z41" s="14" t="n">
+        <v>0.7828875099588952</v>
+      </c>
+      <c r="AA41" s="14" t="n">
+        <v>0.7319046162609607</v>
+      </c>
+      <c r="AB41" s="14" t="n">
+        <v>0.7268211574318542</v>
+      </c>
+      <c r="AC41" s="14" t="n">
+        <v>0.7421660673906298</v>
+      </c>
+      <c r="AD41" s="14" t="n">
+        <v>0.7182005869664368</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="11" t="n">
+        <v/>
+      </c>
+      <c r="C42" s="12" t="inlineStr">
+        <is>
+          <t>rp07</t>
+        </is>
+      </c>
+      <c r="D42" s="12" t="inlineStr">
         <is>
           <t>Wind2</t>
         </is>
       </c>
-      <c r="E35" s="13" t="inlineStr">
+      <c r="E42" s="13" t="inlineStr">
         <is>
           <t>TestPackage1</t>
         </is>
       </c>
-      <c r="F35" s="13" t="inlineStr">
+      <c r="F42" s="13" t="inlineStr">
         <is>
           <t>TestSource1</t>
         </is>
       </c>
-      <c r="G35" s="14" t="n">
+      <c r="G42" s="14" t="n">
         <v>0.6685860871229166</v>
       </c>
-      <c r="H35" s="14" t="n">
+      <c r="H42" s="14" t="n">
         <v>0.677428988216871</v>
       </c>
-      <c r="I35" s="14" t="n">
+      <c r="I42" s="14" t="n">
         <v>0.7020898996161657</v>
       </c>
-      <c r="J35" s="14" t="n">
+      <c r="J42" s="14" t="n">
         <v>0.7080475955302991</v>
       </c>
-      <c r="K35" s="14" t="n">
+      <c r="K42" s="14" t="n">
         <v>0.7396662112238249</v>
       </c>
-      <c r="L35" s="14" t="n">
+      <c r="L42" s="14" t="n">
         <v>0.7234126494769257</v>
       </c>
-      <c r="M35" s="14" t="n">
+      <c r="M42" s="14" t="n">
         <v>0.7465659930089746</v>
       </c>
-      <c r="N35" s="14" t="n">
+      <c r="N42" s="14" t="n">
         <v>0.7411388317845969</v>
       </c>
-      <c r="O35" s="14" t="n">
+      <c r="O42" s="14" t="n">
         <v>0.7605378194401256</v>
       </c>
-      <c r="P35" s="14" t="n">
+      <c r="P42" s="14" t="n">
         <v>0.7944053779899094</v>
       </c>
-      <c r="Q35" s="14" t="n">
+      <c r="Q42" s="14" t="n">
         <v>0.8277700971224246</v>
       </c>
-      <c r="R35" s="14" t="n">
+      <c r="R42" s="14" t="n">
         <v>0.783634008891931</v>
       </c>
-      <c r="S35" s="14" t="n">
+      <c r="S42" s="14" t="n">
         <v>0.8418834616829166</v>
       </c>
-      <c r="T35" s="14" t="n">
+      <c r="T42" s="14" t="n">
         <v>0.7950335233056879</v>
       </c>
-      <c r="U35" s="14" t="n">
+      <c r="U42" s="14" t="n">
         <v>0.8264692851525794</v>
       </c>
-      <c r="V35" s="14" t="n">
+      <c r="V42" s="14" t="n">
         <v>0.7671255517254294</v>
       </c>
-      <c r="W35" s="14" t="n">
+      <c r="W42" s="14" t="n">
         <v>0.8181512318236033</v>
       </c>
-      <c r="X35" s="14" t="n">
+      <c r="X42" s="14" t="n">
         <v>0.7701671359053854</v>
       </c>
-      <c r="Y35" s="14" t="n">
+      <c r="Y42" s="14" t="n">
         <v>0.7974487881442871</v>
       </c>
-      <c r="Z35" s="14" t="n">
+      <c r="Z42" s="14" t="n">
         <v>0.7243834599861709</v>
       </c>
-      <c r="AA35" s="14" t="n">
+      <c r="AA42" s="14" t="n">
         <v>0.7162392917338305</v>
       </c>
-      <c r="AB35" s="14" t="n">
+      <c r="AB42" s="14" t="n">
         <v>0.753646999573659</v>
       </c>
-      <c r="AC35" s="14" t="n">
+      <c r="AC42" s="14" t="n">
         <v>0.7457253191687558</v>
       </c>
-      <c r="AD35" s="14" t="n">
+      <c r="AD42" s="14" t="n">
         <v>0.7459790192341126</v>
       </c>
     </row>
